--- a/me/3.Flex-Items.xlsx
+++ b/me/3.Flex-Items.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\flexbox\me\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC1D8DAC-8B78-4705-9B50-4C24A97E0F06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9765D44D-FC30-4A7E-95A8-475D09778079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Order" sheetId="1" r:id="rId1"/>
+    <sheet name="Flex basis" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="69">
   <si>
     <t>構成</t>
   </si>
@@ -172,6 +173,66 @@
   </si>
   <si>
     <t>Giá trị order của box 2 được set là 3 nên nó sẽ chuyển sang nằm sau box 3 đang có order là 2</t>
+  </si>
+  <si>
+    <t>2.Flex-basis</t>
+  </si>
+  <si>
+    <t>Thuộc tính flex-basis giúp set chiều cao(height) hoặc là chiều rộng(width) cho flex item dựa vào giá trị flex-direction của flex container là column hay row</t>
+  </si>
+  <si>
+    <t>      .box {</t>
+  </si>
+  <si>
+    <t>        box-sizing: border-box;</t>
+  </si>
+  <si>
+    <t>        flex-basis: 120px;</t>
+  </si>
+  <si>
+    <t>flexbox\3.Flex-Items\2.Flex-basis\index.html</t>
+  </si>
+  <si>
+    <t>Hiện tại flex container ko được set flex-direction giá trị gì có nghĩa là flex-direction có giá trị default là row</t>
+  </si>
+  <si>
+    <t>      &lt;div class="box box-1"&gt;a&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>      &lt;div class="box box-2"&gt;ab&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>      &lt;div class="box box-3"&gt;abc&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>Khi chưa set gì cho flex-basis thì chiều rộng của các flex item sẽ tùy thuộc vào nội dung bên trong của các</t>
+  </si>
+  <si>
+    <t>box mà các box sẽ có độ dài khác nhau.</t>
+  </si>
+  <si>
+    <t>Khi set giá trị 120px thì chiều rộng của các flex item sẽ được set là 120px</t>
+  </si>
+  <si>
+    <t>Lúc này flex-basis sẽ ghi đè lên giá trị width của các flex item</t>
+  </si>
+  <si>
+    <t>        flex-direction: column;</t>
+  </si>
+  <si>
+    <t>Trong trường hợp này nếu set thêm thuộc tính width cho flex item thì nó vẫn nhận giá trị của flex-basis</t>
+  </si>
+  <si>
+    <t>chứ ko nhận giá trị của width</t>
+  </si>
+  <si>
+    <t>        width: 110px;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> flex-direction được set là column do đó thuộc tính height của các flex item sẽ được ghi đè</t>
+  </si>
+  <si>
+    <t>Chiều cao của các flex item sẽ có giá trị là 120px</t>
   </si>
 </sst>
 </file>
@@ -202,7 +263,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -290,11 +351,91 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -308,6 +449,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -780,6 +932,539 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>497332</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>161633</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8C95812-9138-11DE-12AA-6258A8DD4ADF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5676900" y="2762250"/>
+          <a:ext cx="8841232" cy="1590383"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>190499</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>309976</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E64ECBE4-3F5E-FE32-7E19-6A9226DAECBF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5676899" y="7715250"/>
+          <a:ext cx="8653877" cy="3219449"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Straight Arrow Connector 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F41F9616-29C4-FC85-EE62-2EA578171296}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="8067675" y="4924425"/>
+          <a:ext cx="371475" cy="1257300"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>56029</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>134470</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Straight Arrow Connector 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13E864D3-C2A1-C16A-8383-24712A5BFAAA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="7317441" y="4146176"/>
+          <a:ext cx="1082488" cy="1608605"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Straight Arrow Connector 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5874F176-48CB-8E77-51E2-7CED032A9781}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7134225" y="6248400"/>
+          <a:ext cx="981075" cy="2857500"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>128308</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>65554</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>291353</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>159485</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CAD17E4-D7B0-4110-BD8B-F825567DE37C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6179484" y="14756466"/>
+          <a:ext cx="8029575" cy="4094431"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>383721</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>132453</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>137433</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BD8E981-25F4-0604-1BBC-5792299021C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="15079435" y="2799453"/>
+          <a:ext cx="11019065" cy="5529480"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>517071</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>367393</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>40821</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="Straight Arrow Connector 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACD7ADC6-6FFD-059E-A6C7-E7508055E775}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7252607" y="4667250"/>
+          <a:ext cx="10872107" cy="2612571"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>504265</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>168088</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>593912</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>56029</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="Straight Arrow Connector 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6574685A-C730-FCCD-3B79-7CC6FC297E1B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6555441" y="14679706"/>
+          <a:ext cx="694765" cy="1221441"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>403412</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>179294</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>347382</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>67235</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="Straight Arrow Connector 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A08235CD-5375-AC63-7821-183D881CDFFD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1613647" y="369794"/>
+          <a:ext cx="5390029" cy="13256559"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1045,8 +1730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:K126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="F110" sqref="F110"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2412,4 +3097,3298 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17FBB2D9-C532-4D48-94F3-751676684EB1}">
+  <dimension ref="A2:AQ100"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A78" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="V26" sqref="V26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="B6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="B7" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="B8" s="4"/>
+      <c r="C8" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="B9" s="4"/>
+      <c r="C9" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="5"/>
+      <c r="G9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="B10" s="4"/>
+      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="B11" s="4"/>
+      <c r="E11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="5"/>
+    </row>
+    <row r="12" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="B12" s="7"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="8"/>
+      <c r="F12" s="10"/>
+      <c r="G12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A15" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="16"/>
+      <c r="O15" s="16"/>
+      <c r="P15" s="16"/>
+      <c r="Q15" s="16"/>
+      <c r="R15" s="16"/>
+      <c r="S15" s="16"/>
+      <c r="T15" s="16"/>
+      <c r="U15" s="16"/>
+      <c r="V15" s="16"/>
+      <c r="W15" s="16"/>
+      <c r="X15" s="16"/>
+      <c r="Y15" s="16"/>
+      <c r="Z15" s="16"/>
+      <c r="AA15" s="16"/>
+      <c r="AB15" s="16"/>
+      <c r="AC15" s="16"/>
+      <c r="AD15" s="16"/>
+      <c r="AE15" s="16"/>
+      <c r="AF15" s="16"/>
+      <c r="AG15" s="16"/>
+      <c r="AH15" s="16"/>
+      <c r="AI15" s="16"/>
+      <c r="AJ15" s="16"/>
+      <c r="AK15" s="16"/>
+      <c r="AL15" s="16"/>
+      <c r="AM15" s="16"/>
+      <c r="AN15" s="16"/>
+      <c r="AO15" s="16"/>
+      <c r="AP15" s="16"/>
+      <c r="AQ15" s="17"/>
+    </row>
+    <row r="16" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A16" s="18"/>
+      <c r="B16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="12"/>
+      <c r="S16" s="12"/>
+      <c r="T16" s="12"/>
+      <c r="U16" s="12"/>
+      <c r="V16" s="12"/>
+      <c r="W16" s="12"/>
+      <c r="X16" s="12"/>
+      <c r="Y16" s="12"/>
+      <c r="Z16" s="12"/>
+      <c r="AA16" s="12"/>
+      <c r="AB16" s="12"/>
+      <c r="AC16" s="12"/>
+      <c r="AD16" s="12"/>
+      <c r="AE16" s="12"/>
+      <c r="AF16" s="12"/>
+      <c r="AG16" s="12"/>
+      <c r="AH16" s="12"/>
+      <c r="AI16" s="12"/>
+      <c r="AJ16" s="12"/>
+      <c r="AK16" s="12"/>
+      <c r="AL16" s="12"/>
+      <c r="AM16" s="12"/>
+      <c r="AN16" s="12"/>
+      <c r="AO16" s="12"/>
+      <c r="AP16" s="12"/>
+      <c r="AQ16" s="19"/>
+    </row>
+    <row r="17" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A17" s="18"/>
+      <c r="B17" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="12"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="12"/>
+      <c r="R17" s="12"/>
+      <c r="S17" s="12"/>
+      <c r="T17" s="12"/>
+      <c r="U17" s="12"/>
+      <c r="V17" s="12"/>
+      <c r="W17" s="12"/>
+      <c r="X17" s="12"/>
+      <c r="Y17" s="12"/>
+      <c r="Z17" s="12"/>
+      <c r="AA17" s="12"/>
+      <c r="AB17" s="12"/>
+      <c r="AC17" s="12"/>
+      <c r="AD17" s="12"/>
+      <c r="AE17" s="12"/>
+      <c r="AF17" s="12"/>
+      <c r="AG17" s="12"/>
+      <c r="AH17" s="12"/>
+      <c r="AI17" s="12"/>
+      <c r="AJ17" s="12"/>
+      <c r="AK17" s="12"/>
+      <c r="AL17" s="12"/>
+      <c r="AM17" s="12"/>
+      <c r="AN17" s="12"/>
+      <c r="AO17" s="12"/>
+      <c r="AP17" s="12"/>
+      <c r="AQ17" s="19"/>
+    </row>
+    <row r="18" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A18" s="18"/>
+      <c r="B18" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="12"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="12"/>
+      <c r="R18" s="12"/>
+      <c r="S18" s="12"/>
+      <c r="T18" s="12"/>
+      <c r="U18" s="12"/>
+      <c r="V18" s="12"/>
+      <c r="W18" s="12"/>
+      <c r="X18" s="12"/>
+      <c r="Y18" s="12"/>
+      <c r="Z18" s="12"/>
+      <c r="AA18" s="12"/>
+      <c r="AB18" s="12"/>
+      <c r="AC18" s="12"/>
+      <c r="AD18" s="12"/>
+      <c r="AE18" s="12"/>
+      <c r="AF18" s="12"/>
+      <c r="AG18" s="12"/>
+      <c r="AH18" s="12"/>
+      <c r="AI18" s="12"/>
+      <c r="AJ18" s="12"/>
+      <c r="AK18" s="12"/>
+      <c r="AL18" s="12"/>
+      <c r="AM18" s="12"/>
+      <c r="AN18" s="12"/>
+      <c r="AO18" s="12"/>
+      <c r="AP18" s="12"/>
+      <c r="AQ18" s="19"/>
+    </row>
+    <row r="19" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A19" s="18"/>
+      <c r="B19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="12"/>
+      <c r="P19" s="12"/>
+      <c r="Q19" s="12"/>
+      <c r="R19" s="12"/>
+      <c r="S19" s="12"/>
+      <c r="T19" s="12"/>
+      <c r="U19" s="12"/>
+      <c r="V19" s="12"/>
+      <c r="W19" s="12"/>
+      <c r="X19" s="12"/>
+      <c r="Y19" s="12"/>
+      <c r="Z19" s="12"/>
+      <c r="AA19" s="12"/>
+      <c r="AB19" s="12"/>
+      <c r="AC19" s="12"/>
+      <c r="AD19" s="12"/>
+      <c r="AE19" s="12"/>
+      <c r="AF19" s="12"/>
+      <c r="AG19" s="12"/>
+      <c r="AH19" s="12"/>
+      <c r="AI19" s="12"/>
+      <c r="AJ19" s="12"/>
+      <c r="AK19" s="12"/>
+      <c r="AL19" s="12"/>
+      <c r="AM19" s="12"/>
+      <c r="AN19" s="12"/>
+      <c r="AO19" s="12"/>
+      <c r="AP19" s="12"/>
+      <c r="AQ19" s="19"/>
+    </row>
+    <row r="20" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A20" s="18"/>
+      <c r="B20" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="12"/>
+      <c r="R20" s="12"/>
+      <c r="S20" s="12"/>
+      <c r="T20" s="12"/>
+      <c r="U20" s="12"/>
+      <c r="V20" s="12"/>
+      <c r="W20" s="12"/>
+      <c r="X20" s="12"/>
+      <c r="Y20" s="12"/>
+      <c r="Z20" s="12"/>
+      <c r="AA20" s="12"/>
+      <c r="AB20" s="12"/>
+      <c r="AC20" s="12"/>
+      <c r="AD20" s="12"/>
+      <c r="AE20" s="12"/>
+      <c r="AF20" s="12"/>
+      <c r="AG20" s="12"/>
+      <c r="AH20" s="12"/>
+      <c r="AI20" s="12"/>
+      <c r="AJ20" s="12"/>
+      <c r="AK20" s="12"/>
+      <c r="AL20" s="12"/>
+      <c r="AM20" s="12"/>
+      <c r="AN20" s="12"/>
+      <c r="AO20" s="12"/>
+      <c r="AP20" s="12"/>
+      <c r="AQ20" s="19"/>
+    </row>
+    <row r="21" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A21" s="18"/>
+      <c r="B21" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="12"/>
+      <c r="P21" s="12"/>
+      <c r="Q21" s="12"/>
+      <c r="R21" s="12"/>
+      <c r="S21" s="12"/>
+      <c r="T21" s="12"/>
+      <c r="U21" s="12"/>
+      <c r="V21" s="12"/>
+      <c r="W21" s="12"/>
+      <c r="X21" s="12"/>
+      <c r="Y21" s="12"/>
+      <c r="Z21" s="12"/>
+      <c r="AA21" s="12"/>
+      <c r="AB21" s="12"/>
+      <c r="AC21" s="12"/>
+      <c r="AD21" s="12"/>
+      <c r="AE21" s="12"/>
+      <c r="AF21" s="12"/>
+      <c r="AG21" s="12"/>
+      <c r="AH21" s="12"/>
+      <c r="AI21" s="12"/>
+      <c r="AJ21" s="12"/>
+      <c r="AK21" s="12"/>
+      <c r="AL21" s="12"/>
+      <c r="AM21" s="12"/>
+      <c r="AN21" s="12"/>
+      <c r="AO21" s="12"/>
+      <c r="AP21" s="12"/>
+      <c r="AQ21" s="19"/>
+    </row>
+    <row r="22" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A22" s="18"/>
+      <c r="B22" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="12"/>
+      <c r="P22" s="12"/>
+      <c r="Q22" s="12"/>
+      <c r="R22" s="12"/>
+      <c r="S22" s="12"/>
+      <c r="T22" s="12"/>
+      <c r="U22" s="12"/>
+      <c r="V22" s="12"/>
+      <c r="W22" s="12"/>
+      <c r="X22" s="12"/>
+      <c r="Y22" s="12"/>
+      <c r="Z22" s="12"/>
+      <c r="AA22" s="12"/>
+      <c r="AB22" s="12"/>
+      <c r="AC22" s="12"/>
+      <c r="AD22" s="12"/>
+      <c r="AE22" s="12"/>
+      <c r="AF22" s="12"/>
+      <c r="AG22" s="12"/>
+      <c r="AH22" s="12"/>
+      <c r="AI22" s="12"/>
+      <c r="AJ22" s="12"/>
+      <c r="AK22" s="12"/>
+      <c r="AL22" s="12"/>
+      <c r="AM22" s="12"/>
+      <c r="AN22" s="12"/>
+      <c r="AO22" s="12"/>
+      <c r="AP22" s="12"/>
+      <c r="AQ22" s="19"/>
+    </row>
+    <row r="23" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A23" s="18"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="12"/>
+      <c r="P23" s="12"/>
+      <c r="Q23" s="12"/>
+      <c r="R23" s="12"/>
+      <c r="S23" s="12"/>
+      <c r="T23" s="12"/>
+      <c r="U23" s="12"/>
+      <c r="V23" s="12"/>
+      <c r="W23" s="12"/>
+      <c r="X23" s="12"/>
+      <c r="Y23" s="12"/>
+      <c r="Z23" s="12"/>
+      <c r="AA23" s="12"/>
+      <c r="AB23" s="12"/>
+      <c r="AC23" s="12"/>
+      <c r="AD23" s="12"/>
+      <c r="AE23" s="12"/>
+      <c r="AF23" s="12"/>
+      <c r="AG23" s="12"/>
+      <c r="AH23" s="12"/>
+      <c r="AI23" s="12"/>
+      <c r="AJ23" s="12"/>
+      <c r="AK23" s="12"/>
+      <c r="AL23" s="12"/>
+      <c r="AM23" s="12"/>
+      <c r="AN23" s="12"/>
+      <c r="AO23" s="12"/>
+      <c r="AP23" s="12"/>
+      <c r="AQ23" s="19"/>
+    </row>
+    <row r="24" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A24" s="18"/>
+      <c r="B24" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="12"/>
+      <c r="O24" s="12"/>
+      <c r="P24" s="12"/>
+      <c r="Q24" s="12"/>
+      <c r="R24" s="12"/>
+      <c r="S24" s="12"/>
+      <c r="T24" s="12"/>
+      <c r="U24" s="12"/>
+      <c r="V24" s="12"/>
+      <c r="W24" s="12"/>
+      <c r="X24" s="12"/>
+      <c r="Y24" s="12"/>
+      <c r="Z24" s="12"/>
+      <c r="AA24" s="12"/>
+      <c r="AB24" s="12"/>
+      <c r="AC24" s="12"/>
+      <c r="AD24" s="12"/>
+      <c r="AE24" s="12"/>
+      <c r="AF24" s="12"/>
+      <c r="AG24" s="12"/>
+      <c r="AH24" s="12"/>
+      <c r="AI24" s="12"/>
+      <c r="AJ24" s="12"/>
+      <c r="AK24" s="12"/>
+      <c r="AL24" s="12"/>
+      <c r="AM24" s="12"/>
+      <c r="AN24" s="12"/>
+      <c r="AO24" s="12"/>
+      <c r="AP24" s="12"/>
+      <c r="AQ24" s="19"/>
+    </row>
+    <row r="25" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A25" s="18"/>
+      <c r="B25" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K25" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="L25" s="12"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="12"/>
+      <c r="O25" s="12"/>
+      <c r="P25" s="12"/>
+      <c r="Q25" s="12"/>
+      <c r="R25" s="12"/>
+      <c r="S25" s="12"/>
+      <c r="T25" s="12"/>
+      <c r="U25" s="12"/>
+      <c r="V25" s="12"/>
+      <c r="W25" s="12"/>
+      <c r="X25" s="12"/>
+      <c r="Y25" s="12"/>
+      <c r="Z25" s="12"/>
+      <c r="AA25" s="12"/>
+      <c r="AB25" s="12"/>
+      <c r="AC25" s="12"/>
+      <c r="AD25" s="12"/>
+      <c r="AE25" s="12"/>
+      <c r="AF25" s="12"/>
+      <c r="AG25" s="12"/>
+      <c r="AH25" s="12"/>
+      <c r="AI25" s="12"/>
+      <c r="AJ25" s="12"/>
+      <c r="AK25" s="12"/>
+      <c r="AL25" s="12"/>
+      <c r="AM25" s="12"/>
+      <c r="AN25" s="12"/>
+      <c r="AO25" s="12"/>
+      <c r="AP25" s="12"/>
+      <c r="AQ25" s="19"/>
+    </row>
+    <row r="26" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A26" s="18"/>
+      <c r="B26" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="L26" s="12"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="12"/>
+      <c r="O26" s="12"/>
+      <c r="P26" s="12"/>
+      <c r="Q26" s="12"/>
+      <c r="R26" s="12"/>
+      <c r="S26" s="12"/>
+      <c r="T26" s="12"/>
+      <c r="U26" s="12"/>
+      <c r="V26" s="12"/>
+      <c r="W26" s="12"/>
+      <c r="X26" s="12"/>
+      <c r="Y26" s="12"/>
+      <c r="Z26" s="12"/>
+      <c r="AA26" s="12"/>
+      <c r="AB26" s="12"/>
+      <c r="AC26" s="12"/>
+      <c r="AD26" s="12"/>
+      <c r="AE26" s="12"/>
+      <c r="AF26" s="12"/>
+      <c r="AG26" s="12"/>
+      <c r="AH26" s="12"/>
+      <c r="AI26" s="12"/>
+      <c r="AJ26" s="12"/>
+      <c r="AK26" s="12"/>
+      <c r="AL26" s="12"/>
+      <c r="AM26" s="12"/>
+      <c r="AN26" s="12"/>
+      <c r="AO26" s="12"/>
+      <c r="AP26" s="12"/>
+      <c r="AQ26" s="19"/>
+    </row>
+    <row r="27" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A27" s="18"/>
+      <c r="B27" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="12"/>
+      <c r="N27" s="12"/>
+      <c r="O27" s="12"/>
+      <c r="P27" s="12"/>
+      <c r="Q27" s="12"/>
+      <c r="R27" s="12"/>
+      <c r="S27" s="12"/>
+      <c r="T27" s="12"/>
+      <c r="U27" s="12"/>
+      <c r="V27" s="12"/>
+      <c r="W27" s="12"/>
+      <c r="X27" s="12"/>
+      <c r="Y27" s="12"/>
+      <c r="Z27" s="12"/>
+      <c r="AA27" s="12"/>
+      <c r="AB27" s="12"/>
+      <c r="AC27" s="12"/>
+      <c r="AD27" s="12"/>
+      <c r="AE27" s="12"/>
+      <c r="AF27" s="12"/>
+      <c r="AG27" s="12"/>
+      <c r="AH27" s="12"/>
+      <c r="AI27" s="12"/>
+      <c r="AJ27" s="12"/>
+      <c r="AK27" s="12"/>
+      <c r="AL27" s="12"/>
+      <c r="AM27" s="12"/>
+      <c r="AN27" s="12"/>
+      <c r="AO27" s="12"/>
+      <c r="AP27" s="12"/>
+      <c r="AQ27" s="19"/>
+    </row>
+    <row r="28" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A28" s="18"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="12"/>
+      <c r="N28" s="12"/>
+      <c r="O28" s="12"/>
+      <c r="P28" s="12"/>
+      <c r="Q28" s="12"/>
+      <c r="R28" s="12"/>
+      <c r="S28" s="12"/>
+      <c r="T28" s="12"/>
+      <c r="U28" s="12"/>
+      <c r="V28" s="12"/>
+      <c r="W28" s="12"/>
+      <c r="X28" s="12"/>
+      <c r="Y28" s="12"/>
+      <c r="Z28" s="12"/>
+      <c r="AA28" s="12"/>
+      <c r="AB28" s="12"/>
+      <c r="AC28" s="12"/>
+      <c r="AD28" s="12"/>
+      <c r="AE28" s="12"/>
+      <c r="AF28" s="12"/>
+      <c r="AG28" s="12"/>
+      <c r="AH28" s="12"/>
+      <c r="AI28" s="12"/>
+      <c r="AJ28" s="12"/>
+      <c r="AK28" s="12"/>
+      <c r="AL28" s="12"/>
+      <c r="AM28" s="12"/>
+      <c r="AN28" s="12"/>
+      <c r="AO28" s="12"/>
+      <c r="AP28" s="12"/>
+      <c r="AQ28" s="19"/>
+    </row>
+    <row r="29" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A29" s="18"/>
+      <c r="B29" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="12"/>
+      <c r="N29" s="12"/>
+      <c r="O29" s="12"/>
+      <c r="P29" s="12"/>
+      <c r="Q29" s="12"/>
+      <c r="R29" s="12"/>
+      <c r="S29" s="12"/>
+      <c r="T29" s="12"/>
+      <c r="U29" s="12"/>
+      <c r="V29" s="12"/>
+      <c r="W29" s="12"/>
+      <c r="X29" s="12"/>
+      <c r="Y29" s="12"/>
+      <c r="Z29" s="12"/>
+      <c r="AA29" s="12"/>
+      <c r="AB29" s="12"/>
+      <c r="AC29" s="12"/>
+      <c r="AD29" s="12"/>
+      <c r="AE29" s="12"/>
+      <c r="AF29" s="12"/>
+      <c r="AG29" s="12"/>
+      <c r="AH29" s="12"/>
+      <c r="AI29" s="12"/>
+      <c r="AJ29" s="12"/>
+      <c r="AK29" s="12"/>
+      <c r="AL29" s="12"/>
+      <c r="AM29" s="12"/>
+      <c r="AN29" s="12"/>
+      <c r="AO29" s="12"/>
+      <c r="AP29" s="12"/>
+      <c r="AQ29" s="19"/>
+    </row>
+    <row r="30" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A30" s="18"/>
+      <c r="B30" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="12"/>
+      <c r="N30" s="12"/>
+      <c r="O30" s="12"/>
+      <c r="P30" s="12"/>
+      <c r="Q30" s="12"/>
+      <c r="R30" s="12"/>
+      <c r="S30" s="12"/>
+      <c r="T30" s="12"/>
+      <c r="U30" s="12"/>
+      <c r="V30" s="12"/>
+      <c r="W30" s="12"/>
+      <c r="X30" s="12"/>
+      <c r="Y30" s="12"/>
+      <c r="Z30" s="12"/>
+      <c r="AA30" s="12"/>
+      <c r="AB30" s="12"/>
+      <c r="AC30" s="12"/>
+      <c r="AD30" s="12"/>
+      <c r="AE30" s="12"/>
+      <c r="AF30" s="12"/>
+      <c r="AG30" s="12"/>
+      <c r="AH30" s="12"/>
+      <c r="AI30" s="12"/>
+      <c r="AJ30" s="12"/>
+      <c r="AK30" s="12"/>
+      <c r="AL30" s="12"/>
+      <c r="AM30" s="12"/>
+      <c r="AN30" s="12"/>
+      <c r="AO30" s="12"/>
+      <c r="AP30" s="12"/>
+      <c r="AQ30" s="19"/>
+    </row>
+    <row r="31" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A31" s="18"/>
+      <c r="B31" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K31" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="L31" s="12"/>
+      <c r="M31" s="12"/>
+      <c r="N31" s="12"/>
+      <c r="O31" s="12"/>
+      <c r="P31" s="12"/>
+      <c r="Q31" s="12"/>
+      <c r="R31" s="12"/>
+      <c r="S31" s="12"/>
+      <c r="T31" s="12"/>
+      <c r="U31" s="12"/>
+      <c r="V31" s="12"/>
+      <c r="W31" s="12"/>
+      <c r="X31" s="12"/>
+      <c r="Y31" s="12"/>
+      <c r="Z31" s="12"/>
+      <c r="AA31" s="12"/>
+      <c r="AB31" s="12"/>
+      <c r="AC31" s="12"/>
+      <c r="AD31" s="12"/>
+      <c r="AE31" s="12"/>
+      <c r="AF31" s="12"/>
+      <c r="AG31" s="12"/>
+      <c r="AH31" s="12"/>
+      <c r="AI31" s="12"/>
+      <c r="AJ31" s="12"/>
+      <c r="AK31" s="12"/>
+      <c r="AL31" s="12"/>
+      <c r="AM31" s="12"/>
+      <c r="AN31" s="12"/>
+      <c r="AO31" s="12"/>
+      <c r="AP31" s="12"/>
+      <c r="AQ31" s="19"/>
+    </row>
+    <row r="32" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A32" s="18"/>
+      <c r="B32" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="L32" s="12"/>
+      <c r="M32" s="12"/>
+      <c r="N32" s="12"/>
+      <c r="O32" s="12"/>
+      <c r="P32" s="12"/>
+      <c r="Q32" s="12"/>
+      <c r="R32" s="12"/>
+      <c r="S32" s="12"/>
+      <c r="T32" s="12"/>
+      <c r="U32" s="12"/>
+      <c r="V32" s="12"/>
+      <c r="W32" s="12"/>
+      <c r="X32" s="12"/>
+      <c r="Y32" s="12"/>
+      <c r="Z32" s="12"/>
+      <c r="AA32" s="12"/>
+      <c r="AB32" s="12"/>
+      <c r="AC32" s="12"/>
+      <c r="AD32" s="12"/>
+      <c r="AE32" s="12"/>
+      <c r="AF32" s="12"/>
+      <c r="AG32" s="12"/>
+      <c r="AH32" s="12"/>
+      <c r="AI32" s="12"/>
+      <c r="AJ32" s="12"/>
+      <c r="AK32" s="12"/>
+      <c r="AL32" s="12"/>
+      <c r="AM32" s="12"/>
+      <c r="AN32" s="12"/>
+      <c r="AO32" s="12"/>
+      <c r="AP32" s="12"/>
+      <c r="AQ32" s="19"/>
+    </row>
+    <row r="33" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A33" s="18"/>
+      <c r="B33" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="12"/>
+      <c r="K33" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="L33" s="12"/>
+      <c r="M33" s="12"/>
+      <c r="N33" s="12"/>
+      <c r="O33" s="12"/>
+      <c r="P33" s="12"/>
+      <c r="Q33" s="12"/>
+      <c r="R33" s="12"/>
+      <c r="S33" s="12"/>
+      <c r="T33" s="12"/>
+      <c r="U33" s="12"/>
+      <c r="V33" s="12"/>
+      <c r="W33" s="12"/>
+      <c r="X33" s="12"/>
+      <c r="Y33" s="12"/>
+      <c r="Z33" s="12"/>
+      <c r="AA33" s="12"/>
+      <c r="AB33" s="12"/>
+      <c r="AC33" s="12"/>
+      <c r="AD33" s="12"/>
+      <c r="AE33" s="12"/>
+      <c r="AF33" s="12"/>
+      <c r="AG33" s="12"/>
+      <c r="AH33" s="12"/>
+      <c r="AI33" s="12"/>
+      <c r="AJ33" s="12"/>
+      <c r="AK33" s="12"/>
+      <c r="AL33" s="12"/>
+      <c r="AM33" s="12"/>
+      <c r="AN33" s="12"/>
+      <c r="AO33" s="12"/>
+      <c r="AP33" s="12"/>
+      <c r="AQ33" s="19"/>
+    </row>
+    <row r="34" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A34" s="18"/>
+      <c r="B34" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="L34" s="12"/>
+      <c r="M34" s="12"/>
+      <c r="N34" s="12"/>
+      <c r="O34" s="12"/>
+      <c r="P34" s="12"/>
+      <c r="Q34" s="12"/>
+      <c r="R34" s="12"/>
+      <c r="S34" s="12"/>
+      <c r="T34" s="12"/>
+      <c r="U34" s="12"/>
+      <c r="V34" s="12"/>
+      <c r="W34" s="12"/>
+      <c r="X34" s="12"/>
+      <c r="Y34" s="12"/>
+      <c r="Z34" s="12"/>
+      <c r="AA34" s="12"/>
+      <c r="AB34" s="12"/>
+      <c r="AC34" s="12"/>
+      <c r="AD34" s="12"/>
+      <c r="AE34" s="12"/>
+      <c r="AF34" s="12"/>
+      <c r="AG34" s="12"/>
+      <c r="AH34" s="12"/>
+      <c r="AI34" s="12"/>
+      <c r="AJ34" s="12"/>
+      <c r="AK34" s="12"/>
+      <c r="AL34" s="12"/>
+      <c r="AM34" s="12"/>
+      <c r="AN34" s="12"/>
+      <c r="AO34" s="12"/>
+      <c r="AP34" s="12"/>
+      <c r="AQ34" s="19"/>
+    </row>
+    <row r="35" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A35" s="18"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="12"/>
+      <c r="K35" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="L35" s="12"/>
+      <c r="M35" s="12"/>
+      <c r="N35" s="12"/>
+      <c r="O35" s="12"/>
+      <c r="P35" s="12"/>
+      <c r="Q35" s="12"/>
+      <c r="R35" s="12"/>
+      <c r="S35" s="12"/>
+      <c r="T35" s="12"/>
+      <c r="U35" s="12"/>
+      <c r="V35" s="12"/>
+      <c r="W35" s="12"/>
+      <c r="X35" s="12"/>
+      <c r="Y35" s="12"/>
+      <c r="Z35" s="12"/>
+      <c r="AA35" s="12"/>
+      <c r="AB35" s="12"/>
+      <c r="AC35" s="12"/>
+      <c r="AD35" s="12"/>
+      <c r="AE35" s="12"/>
+      <c r="AF35" s="12"/>
+      <c r="AG35" s="12"/>
+      <c r="AH35" s="12"/>
+      <c r="AI35" s="12"/>
+      <c r="AJ35" s="12"/>
+      <c r="AK35" s="12"/>
+      <c r="AL35" s="12"/>
+      <c r="AM35" s="12"/>
+      <c r="AN35" s="12"/>
+      <c r="AO35" s="12"/>
+      <c r="AP35" s="12"/>
+      <c r="AQ35" s="19"/>
+    </row>
+    <row r="36" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A36" s="18"/>
+      <c r="B36" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="12"/>
+      <c r="K36" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="L36" s="12"/>
+      <c r="M36" s="12"/>
+      <c r="N36" s="12"/>
+      <c r="O36" s="12"/>
+      <c r="P36" s="12"/>
+      <c r="Q36" s="12"/>
+      <c r="R36" s="12"/>
+      <c r="S36" s="12"/>
+      <c r="T36" s="12"/>
+      <c r="U36" s="12"/>
+      <c r="V36" s="12"/>
+      <c r="W36" s="12"/>
+      <c r="X36" s="12"/>
+      <c r="Y36" s="12"/>
+      <c r="Z36" s="12"/>
+      <c r="AA36" s="12"/>
+      <c r="AB36" s="12"/>
+      <c r="AC36" s="12"/>
+      <c r="AD36" s="12"/>
+      <c r="AE36" s="12"/>
+      <c r="AF36" s="12"/>
+      <c r="AG36" s="12"/>
+      <c r="AH36" s="12"/>
+      <c r="AI36" s="12"/>
+      <c r="AJ36" s="12"/>
+      <c r="AK36" s="12"/>
+      <c r="AL36" s="12"/>
+      <c r="AM36" s="12"/>
+      <c r="AN36" s="12"/>
+      <c r="AO36" s="12"/>
+      <c r="AP36" s="12"/>
+      <c r="AQ36" s="19"/>
+    </row>
+    <row r="37" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A37" s="18"/>
+      <c r="B37" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="12"/>
+      <c r="K37" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="L37" s="12"/>
+      <c r="M37" s="12"/>
+      <c r="N37" s="12"/>
+      <c r="O37" s="12"/>
+      <c r="P37" s="12"/>
+      <c r="Q37" s="12"/>
+      <c r="R37" s="12"/>
+      <c r="S37" s="12"/>
+      <c r="T37" s="12"/>
+      <c r="U37" s="12"/>
+      <c r="V37" s="12"/>
+      <c r="W37" s="12"/>
+      <c r="X37" s="12"/>
+      <c r="Y37" s="12"/>
+      <c r="Z37" s="12"/>
+      <c r="AA37" s="12"/>
+      <c r="AB37" s="12"/>
+      <c r="AC37" s="12"/>
+      <c r="AD37" s="12"/>
+      <c r="AE37" s="12"/>
+      <c r="AF37" s="12"/>
+      <c r="AG37" s="12"/>
+      <c r="AH37" s="12"/>
+      <c r="AI37" s="12"/>
+      <c r="AJ37" s="12"/>
+      <c r="AK37" s="12"/>
+      <c r="AL37" s="12"/>
+      <c r="AM37" s="12"/>
+      <c r="AN37" s="12"/>
+      <c r="AO37" s="12"/>
+      <c r="AP37" s="12"/>
+      <c r="AQ37" s="19"/>
+    </row>
+    <row r="38" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A38" s="18"/>
+      <c r="B38" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="12"/>
+      <c r="K38" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="L38" s="12"/>
+      <c r="M38" s="12"/>
+      <c r="N38" s="12"/>
+      <c r="O38" s="12"/>
+      <c r="P38" s="12"/>
+      <c r="Q38" s="12"/>
+      <c r="R38" s="12"/>
+      <c r="S38" s="12"/>
+      <c r="T38" s="12"/>
+      <c r="U38" s="12"/>
+      <c r="V38" s="12"/>
+      <c r="W38" s="12"/>
+      <c r="X38" s="12"/>
+      <c r="Y38" s="12"/>
+      <c r="Z38" s="12"/>
+      <c r="AA38" s="12"/>
+      <c r="AB38" s="12"/>
+      <c r="AC38" s="12"/>
+      <c r="AD38" s="12"/>
+      <c r="AE38" s="12"/>
+      <c r="AF38" s="12"/>
+      <c r="AG38" s="12"/>
+      <c r="AH38" s="12"/>
+      <c r="AI38" s="12"/>
+      <c r="AJ38" s="12"/>
+      <c r="AK38" s="12"/>
+      <c r="AL38" s="12"/>
+      <c r="AM38" s="12"/>
+      <c r="AN38" s="12"/>
+      <c r="AO38" s="12"/>
+      <c r="AP38" s="12"/>
+      <c r="AQ38" s="19"/>
+    </row>
+    <row r="39" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A39" s="18"/>
+      <c r="B39" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="12"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="12"/>
+      <c r="K39" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="L39" s="12"/>
+      <c r="M39" s="12"/>
+      <c r="N39" s="12"/>
+      <c r="O39" s="12"/>
+      <c r="P39" s="12"/>
+      <c r="Q39" s="12"/>
+      <c r="R39" s="12"/>
+      <c r="S39" s="12"/>
+      <c r="T39" s="12"/>
+      <c r="U39" s="12"/>
+      <c r="V39" s="12"/>
+      <c r="W39" s="12"/>
+      <c r="X39" s="12"/>
+      <c r="Y39" s="12"/>
+      <c r="Z39" s="12"/>
+      <c r="AA39" s="12"/>
+      <c r="AB39" s="12"/>
+      <c r="AC39" s="12"/>
+      <c r="AD39" s="12"/>
+      <c r="AE39" s="12"/>
+      <c r="AF39" s="12"/>
+      <c r="AG39" s="12"/>
+      <c r="AH39" s="12"/>
+      <c r="AI39" s="12"/>
+      <c r="AJ39" s="12"/>
+      <c r="AK39" s="12"/>
+      <c r="AL39" s="12"/>
+      <c r="AM39" s="12"/>
+      <c r="AN39" s="12"/>
+      <c r="AO39" s="12"/>
+      <c r="AP39" s="12"/>
+      <c r="AQ39" s="19"/>
+    </row>
+    <row r="40" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A40" s="18"/>
+      <c r="B40" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="12"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="12"/>
+      <c r="K40" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="L40" s="12"/>
+      <c r="M40" s="12"/>
+      <c r="N40" s="12"/>
+      <c r="O40" s="12"/>
+      <c r="P40" s="12"/>
+      <c r="Q40" s="12"/>
+      <c r="R40" s="12"/>
+      <c r="S40" s="12"/>
+      <c r="T40" s="12"/>
+      <c r="U40" s="12"/>
+      <c r="V40" s="12"/>
+      <c r="W40" s="12"/>
+      <c r="X40" s="12"/>
+      <c r="Y40" s="12"/>
+      <c r="Z40" s="12"/>
+      <c r="AA40" s="12"/>
+      <c r="AB40" s="12"/>
+      <c r="AC40" s="12"/>
+      <c r="AD40" s="12"/>
+      <c r="AE40" s="12"/>
+      <c r="AF40" s="12"/>
+      <c r="AG40" s="12"/>
+      <c r="AH40" s="12"/>
+      <c r="AI40" s="12"/>
+      <c r="AJ40" s="12"/>
+      <c r="AK40" s="12"/>
+      <c r="AL40" s="12"/>
+      <c r="AM40" s="12"/>
+      <c r="AN40" s="12"/>
+      <c r="AO40" s="12"/>
+      <c r="AP40" s="12"/>
+      <c r="AQ40" s="19"/>
+    </row>
+    <row r="41" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A41" s="18"/>
+      <c r="B41" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="12"/>
+      <c r="K41" s="12"/>
+      <c r="L41" s="12"/>
+      <c r="M41" s="12"/>
+      <c r="N41" s="12"/>
+      <c r="O41" s="12"/>
+      <c r="P41" s="12"/>
+      <c r="Q41" s="12"/>
+      <c r="R41" s="12"/>
+      <c r="S41" s="12"/>
+      <c r="T41" s="12"/>
+      <c r="U41" s="12"/>
+      <c r="V41" s="12"/>
+      <c r="W41" s="12"/>
+      <c r="X41" s="12"/>
+      <c r="Y41" s="12"/>
+      <c r="Z41" s="12"/>
+      <c r="AA41" s="12"/>
+      <c r="AB41" s="12"/>
+      <c r="AC41" s="12"/>
+      <c r="AD41" s="12"/>
+      <c r="AE41" s="12"/>
+      <c r="AF41" s="12"/>
+      <c r="AG41" s="12"/>
+      <c r="AH41" s="12"/>
+      <c r="AI41" s="12"/>
+      <c r="AJ41" s="12"/>
+      <c r="AK41" s="12"/>
+      <c r="AL41" s="12"/>
+      <c r="AM41" s="12"/>
+      <c r="AN41" s="12"/>
+      <c r="AO41" s="12"/>
+      <c r="AP41" s="12"/>
+      <c r="AQ41" s="19"/>
+    </row>
+    <row r="42" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A42" s="18"/>
+      <c r="B42" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="12"/>
+      <c r="K42" s="12"/>
+      <c r="L42" s="12"/>
+      <c r="M42" s="12"/>
+      <c r="N42" s="12"/>
+      <c r="O42" s="12"/>
+      <c r="P42" s="12"/>
+      <c r="Q42" s="12"/>
+      <c r="R42" s="12"/>
+      <c r="S42" s="12"/>
+      <c r="T42" s="12"/>
+      <c r="U42" s="12"/>
+      <c r="V42" s="12"/>
+      <c r="W42" s="12"/>
+      <c r="X42" s="12"/>
+      <c r="Y42" s="12"/>
+      <c r="Z42" s="12"/>
+      <c r="AA42" s="12"/>
+      <c r="AB42" s="12"/>
+      <c r="AC42" s="12"/>
+      <c r="AD42" s="12"/>
+      <c r="AE42" s="12"/>
+      <c r="AF42" s="12"/>
+      <c r="AG42" s="12"/>
+      <c r="AH42" s="12"/>
+      <c r="AI42" s="12"/>
+      <c r="AJ42" s="12"/>
+      <c r="AK42" s="12"/>
+      <c r="AL42" s="12"/>
+      <c r="AM42" s="12"/>
+      <c r="AN42" s="12"/>
+      <c r="AO42" s="12"/>
+      <c r="AP42" s="12"/>
+      <c r="AQ42" s="19"/>
+    </row>
+    <row r="43" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A43" s="18"/>
+      <c r="B43" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="12"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="12"/>
+      <c r="K43" s="12"/>
+      <c r="L43" s="12"/>
+      <c r="M43" s="12"/>
+      <c r="N43" s="12"/>
+      <c r="O43" s="12"/>
+      <c r="P43" s="12"/>
+      <c r="Q43" s="12"/>
+      <c r="R43" s="12"/>
+      <c r="S43" s="12"/>
+      <c r="T43" s="12"/>
+      <c r="U43" s="12"/>
+      <c r="V43" s="12"/>
+      <c r="W43" s="12"/>
+      <c r="X43" s="12"/>
+      <c r="Y43" s="12"/>
+      <c r="Z43" s="12"/>
+      <c r="AA43" s="12"/>
+      <c r="AB43" s="12"/>
+      <c r="AC43" s="12"/>
+      <c r="AD43" s="12"/>
+      <c r="AE43" s="12"/>
+      <c r="AF43" s="12"/>
+      <c r="AG43" s="12"/>
+      <c r="AH43" s="12"/>
+      <c r="AI43" s="12"/>
+      <c r="AJ43" s="12"/>
+      <c r="AK43" s="12"/>
+      <c r="AL43" s="12"/>
+      <c r="AM43" s="12"/>
+      <c r="AN43" s="12"/>
+      <c r="AO43" s="12"/>
+      <c r="AP43" s="12"/>
+      <c r="AQ43" s="19"/>
+    </row>
+    <row r="44" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A44" s="18"/>
+      <c r="B44" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="12"/>
+      <c r="H44" s="12"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="12"/>
+      <c r="K44" s="12"/>
+      <c r="L44" s="12"/>
+      <c r="M44" s="12"/>
+      <c r="N44" s="12"/>
+      <c r="O44" s="12"/>
+      <c r="P44" s="12"/>
+      <c r="Q44" s="12"/>
+      <c r="R44" s="12"/>
+      <c r="S44" s="12"/>
+      <c r="T44" s="12"/>
+      <c r="U44" s="12"/>
+      <c r="V44" s="12"/>
+      <c r="W44" s="12"/>
+      <c r="X44" s="12"/>
+      <c r="Y44" s="12"/>
+      <c r="Z44" s="12"/>
+      <c r="AA44" s="12"/>
+      <c r="AB44" s="12"/>
+      <c r="AC44" s="12"/>
+      <c r="AD44" s="12"/>
+      <c r="AE44" s="12"/>
+      <c r="AF44" s="12"/>
+      <c r="AG44" s="12"/>
+      <c r="AH44" s="12"/>
+      <c r="AI44" s="12"/>
+      <c r="AJ44" s="12"/>
+      <c r="AK44" s="12"/>
+      <c r="AL44" s="12"/>
+      <c r="AM44" s="12"/>
+      <c r="AN44" s="12"/>
+      <c r="AO44" s="12"/>
+      <c r="AP44" s="12"/>
+      <c r="AQ44" s="19"/>
+    </row>
+    <row r="45" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A45" s="18"/>
+      <c r="B45" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="10"/>
+      <c r="J45" s="12"/>
+      <c r="K45" s="12"/>
+      <c r="L45" s="12"/>
+      <c r="M45" s="12"/>
+      <c r="N45" s="12"/>
+      <c r="O45" s="12"/>
+      <c r="P45" s="12"/>
+      <c r="Q45" s="12"/>
+      <c r="R45" s="12"/>
+      <c r="S45" s="12"/>
+      <c r="T45" s="12"/>
+      <c r="U45" s="12"/>
+      <c r="V45" s="12"/>
+      <c r="W45" s="12"/>
+      <c r="X45" s="12"/>
+      <c r="Y45" s="12"/>
+      <c r="Z45" s="12"/>
+      <c r="AA45" s="12"/>
+      <c r="AB45" s="12"/>
+      <c r="AC45" s="12"/>
+      <c r="AD45" s="12"/>
+      <c r="AE45" s="12"/>
+      <c r="AF45" s="12"/>
+      <c r="AG45" s="12"/>
+      <c r="AH45" s="12"/>
+      <c r="AI45" s="12"/>
+      <c r="AJ45" s="12"/>
+      <c r="AK45" s="12"/>
+      <c r="AL45" s="12"/>
+      <c r="AM45" s="12"/>
+      <c r="AN45" s="12"/>
+      <c r="AO45" s="12"/>
+      <c r="AP45" s="12"/>
+      <c r="AQ45" s="19"/>
+    </row>
+    <row r="46" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A46" s="18"/>
+      <c r="B46" s="12"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="12"/>
+      <c r="H46" s="12"/>
+      <c r="I46" s="12"/>
+      <c r="J46" s="12"/>
+      <c r="K46" s="12"/>
+      <c r="L46" s="12"/>
+      <c r="M46" s="12"/>
+      <c r="N46" s="12"/>
+      <c r="O46" s="12"/>
+      <c r="P46" s="12"/>
+      <c r="Q46" s="12"/>
+      <c r="R46" s="12"/>
+      <c r="S46" s="12"/>
+      <c r="T46" s="12"/>
+      <c r="U46" s="12"/>
+      <c r="V46" s="12"/>
+      <c r="W46" s="12"/>
+      <c r="X46" s="12"/>
+      <c r="Y46" s="12"/>
+      <c r="Z46" s="12"/>
+      <c r="AA46" s="12"/>
+      <c r="AB46" s="12"/>
+      <c r="AC46" s="12"/>
+      <c r="AD46" s="12"/>
+      <c r="AE46" s="12"/>
+      <c r="AF46" s="12"/>
+      <c r="AG46" s="12"/>
+      <c r="AH46" s="12"/>
+      <c r="AI46" s="12"/>
+      <c r="AJ46" s="12"/>
+      <c r="AK46" s="12"/>
+      <c r="AL46" s="12"/>
+      <c r="AM46" s="12"/>
+      <c r="AN46" s="12"/>
+      <c r="AO46" s="12"/>
+      <c r="AP46" s="12"/>
+      <c r="AQ46" s="19"/>
+    </row>
+    <row r="47" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A47" s="18"/>
+      <c r="B47" s="12"/>
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="12"/>
+      <c r="H47" s="12"/>
+      <c r="I47" s="12"/>
+      <c r="J47" s="12"/>
+      <c r="K47" s="12"/>
+      <c r="L47" s="12"/>
+      <c r="M47" s="12"/>
+      <c r="N47" s="12"/>
+      <c r="O47" s="12"/>
+      <c r="P47" s="12"/>
+      <c r="Q47" s="12"/>
+      <c r="R47" s="12"/>
+      <c r="S47" s="12"/>
+      <c r="T47" s="12"/>
+      <c r="U47" s="12"/>
+      <c r="V47" s="12"/>
+      <c r="W47" s="12"/>
+      <c r="X47" s="12"/>
+      <c r="Y47" s="12"/>
+      <c r="Z47" s="12"/>
+      <c r="AA47" s="12"/>
+      <c r="AB47" s="12"/>
+      <c r="AC47" s="12"/>
+      <c r="AD47" s="12"/>
+      <c r="AE47" s="12"/>
+      <c r="AF47" s="12"/>
+      <c r="AG47" s="12"/>
+      <c r="AH47" s="12"/>
+      <c r="AI47" s="12"/>
+      <c r="AJ47" s="12"/>
+      <c r="AK47" s="12"/>
+      <c r="AL47" s="12"/>
+      <c r="AM47" s="12"/>
+      <c r="AN47" s="12"/>
+      <c r="AO47" s="12"/>
+      <c r="AP47" s="12"/>
+      <c r="AQ47" s="19"/>
+    </row>
+    <row r="48" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A48" s="18"/>
+      <c r="B48" s="12"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="12"/>
+      <c r="H48" s="12"/>
+      <c r="I48" s="12"/>
+      <c r="J48" s="12"/>
+      <c r="K48" s="12"/>
+      <c r="L48" s="12"/>
+      <c r="M48" s="12"/>
+      <c r="N48" s="12"/>
+      <c r="O48" s="12"/>
+      <c r="P48" s="12"/>
+      <c r="Q48" s="12"/>
+      <c r="R48" s="12"/>
+      <c r="S48" s="12"/>
+      <c r="T48" s="12"/>
+      <c r="U48" s="12"/>
+      <c r="V48" s="12"/>
+      <c r="W48" s="12"/>
+      <c r="X48" s="12"/>
+      <c r="Y48" s="12"/>
+      <c r="Z48" s="12"/>
+      <c r="AA48" s="12"/>
+      <c r="AB48" s="12"/>
+      <c r="AC48" s="12"/>
+      <c r="AD48" s="12"/>
+      <c r="AE48" s="12"/>
+      <c r="AF48" s="12"/>
+      <c r="AG48" s="12"/>
+      <c r="AH48" s="12"/>
+      <c r="AI48" s="12"/>
+      <c r="AJ48" s="12"/>
+      <c r="AK48" s="12"/>
+      <c r="AL48" s="12"/>
+      <c r="AM48" s="12"/>
+      <c r="AN48" s="12"/>
+      <c r="AO48" s="12"/>
+      <c r="AP48" s="12"/>
+      <c r="AQ48" s="19"/>
+    </row>
+    <row r="49" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A49" s="18"/>
+      <c r="B49" s="12"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="12"/>
+      <c r="H49" s="12"/>
+      <c r="I49" s="12"/>
+      <c r="J49" s="12"/>
+      <c r="K49" s="12"/>
+      <c r="L49" s="12"/>
+      <c r="M49" s="12"/>
+      <c r="N49" s="12"/>
+      <c r="O49" s="12"/>
+      <c r="P49" s="12"/>
+      <c r="Q49" s="12"/>
+      <c r="R49" s="12"/>
+      <c r="S49" s="12"/>
+      <c r="T49" s="12"/>
+      <c r="U49" s="12"/>
+      <c r="V49" s="12"/>
+      <c r="W49" s="12"/>
+      <c r="X49" s="12"/>
+      <c r="Y49" s="12"/>
+      <c r="Z49" s="12"/>
+      <c r="AA49" s="12"/>
+      <c r="AB49" s="12"/>
+      <c r="AC49" s="12"/>
+      <c r="AD49" s="12"/>
+      <c r="AE49" s="12"/>
+      <c r="AF49" s="12"/>
+      <c r="AG49" s="12"/>
+      <c r="AH49" s="12"/>
+      <c r="AI49" s="12"/>
+      <c r="AJ49" s="12"/>
+      <c r="AK49" s="12"/>
+      <c r="AL49" s="12"/>
+      <c r="AM49" s="12"/>
+      <c r="AN49" s="12"/>
+      <c r="AO49" s="12"/>
+      <c r="AP49" s="12"/>
+      <c r="AQ49" s="19"/>
+    </row>
+    <row r="50" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A50" s="18"/>
+      <c r="B50" s="12"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="12"/>
+      <c r="H50" s="12"/>
+      <c r="I50" s="12"/>
+      <c r="J50" s="12"/>
+      <c r="K50" s="12"/>
+      <c r="L50" s="12"/>
+      <c r="M50" s="12"/>
+      <c r="N50" s="12"/>
+      <c r="O50" s="12"/>
+      <c r="P50" s="12"/>
+      <c r="Q50" s="12"/>
+      <c r="R50" s="12"/>
+      <c r="S50" s="12"/>
+      <c r="T50" s="12"/>
+      <c r="U50" s="12"/>
+      <c r="V50" s="12"/>
+      <c r="W50" s="12"/>
+      <c r="X50" s="12"/>
+      <c r="Y50" s="12"/>
+      <c r="Z50" s="12"/>
+      <c r="AA50" s="12"/>
+      <c r="AB50" s="12"/>
+      <c r="AC50" s="12"/>
+      <c r="AD50" s="12"/>
+      <c r="AE50" s="12"/>
+      <c r="AF50" s="12"/>
+      <c r="AG50" s="12"/>
+      <c r="AH50" s="12"/>
+      <c r="AI50" s="12"/>
+      <c r="AJ50" s="12"/>
+      <c r="AK50" s="12"/>
+      <c r="AL50" s="12"/>
+      <c r="AM50" s="12"/>
+      <c r="AN50" s="12"/>
+      <c r="AO50" s="12"/>
+      <c r="AP50" s="12"/>
+      <c r="AQ50" s="19"/>
+    </row>
+    <row r="51" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A51" s="18"/>
+      <c r="B51" s="12"/>
+      <c r="C51" s="12"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="12"/>
+      <c r="F51" s="12"/>
+      <c r="G51" s="12"/>
+      <c r="H51" s="12"/>
+      <c r="I51" s="12"/>
+      <c r="J51" s="12"/>
+      <c r="K51" s="12"/>
+      <c r="L51" s="12"/>
+      <c r="M51" s="12"/>
+      <c r="N51" s="12"/>
+      <c r="O51" s="12"/>
+      <c r="P51" s="12"/>
+      <c r="Q51" s="12"/>
+      <c r="R51" s="12"/>
+      <c r="S51" s="12"/>
+      <c r="T51" s="12"/>
+      <c r="U51" s="12"/>
+      <c r="V51" s="12"/>
+      <c r="W51" s="12"/>
+      <c r="X51" s="12"/>
+      <c r="Y51" s="12"/>
+      <c r="Z51" s="12"/>
+      <c r="AA51" s="12"/>
+      <c r="AB51" s="12"/>
+      <c r="AC51" s="12"/>
+      <c r="AD51" s="12"/>
+      <c r="AE51" s="12"/>
+      <c r="AF51" s="12"/>
+      <c r="AG51" s="12"/>
+      <c r="AH51" s="12"/>
+      <c r="AI51" s="12"/>
+      <c r="AJ51" s="12"/>
+      <c r="AK51" s="12"/>
+      <c r="AL51" s="12"/>
+      <c r="AM51" s="12"/>
+      <c r="AN51" s="12"/>
+      <c r="AO51" s="12"/>
+      <c r="AP51" s="12"/>
+      <c r="AQ51" s="19"/>
+    </row>
+    <row r="52" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A52" s="18"/>
+      <c r="B52" s="12"/>
+      <c r="C52" s="12"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="12"/>
+      <c r="F52" s="12"/>
+      <c r="G52" s="12"/>
+      <c r="H52" s="12"/>
+      <c r="I52" s="12"/>
+      <c r="J52" s="12"/>
+      <c r="K52" s="12"/>
+      <c r="L52" s="12"/>
+      <c r="M52" s="12"/>
+      <c r="N52" s="12"/>
+      <c r="O52" s="12"/>
+      <c r="P52" s="12"/>
+      <c r="Q52" s="12"/>
+      <c r="R52" s="12"/>
+      <c r="S52" s="12"/>
+      <c r="T52" s="12"/>
+      <c r="U52" s="12"/>
+      <c r="V52" s="12"/>
+      <c r="W52" s="12"/>
+      <c r="X52" s="12"/>
+      <c r="Y52" s="12"/>
+      <c r="Z52" s="12"/>
+      <c r="AA52" s="12"/>
+      <c r="AB52" s="12"/>
+      <c r="AC52" s="12"/>
+      <c r="AD52" s="12"/>
+      <c r="AE52" s="12"/>
+      <c r="AF52" s="12"/>
+      <c r="AG52" s="12"/>
+      <c r="AH52" s="12"/>
+      <c r="AI52" s="12"/>
+      <c r="AJ52" s="12"/>
+      <c r="AK52" s="12"/>
+      <c r="AL52" s="12"/>
+      <c r="AM52" s="12"/>
+      <c r="AN52" s="12"/>
+      <c r="AO52" s="12"/>
+      <c r="AP52" s="12"/>
+      <c r="AQ52" s="19"/>
+    </row>
+    <row r="53" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A53" s="18"/>
+      <c r="B53" s="12"/>
+      <c r="C53" s="12"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="12"/>
+      <c r="F53" s="12"/>
+      <c r="G53" s="12"/>
+      <c r="H53" s="12"/>
+      <c r="I53" s="12"/>
+      <c r="J53" s="12"/>
+      <c r="K53" s="12"/>
+      <c r="L53" s="12"/>
+      <c r="M53" s="12"/>
+      <c r="N53" s="12"/>
+      <c r="O53" s="12"/>
+      <c r="P53" s="12"/>
+      <c r="Q53" s="12"/>
+      <c r="R53" s="12"/>
+      <c r="S53" s="12"/>
+      <c r="T53" s="12"/>
+      <c r="U53" s="12"/>
+      <c r="V53" s="12"/>
+      <c r="W53" s="12"/>
+      <c r="X53" s="12"/>
+      <c r="Y53" s="12"/>
+      <c r="Z53" s="12"/>
+      <c r="AA53" s="12"/>
+      <c r="AB53" s="12"/>
+      <c r="AC53" s="12"/>
+      <c r="AD53" s="12"/>
+      <c r="AE53" s="12"/>
+      <c r="AF53" s="12"/>
+      <c r="AG53" s="12"/>
+      <c r="AH53" s="12"/>
+      <c r="AI53" s="12"/>
+      <c r="AJ53" s="12"/>
+      <c r="AK53" s="12"/>
+      <c r="AL53" s="12"/>
+      <c r="AM53" s="12"/>
+      <c r="AN53" s="12"/>
+      <c r="AO53" s="12"/>
+      <c r="AP53" s="12"/>
+      <c r="AQ53" s="19"/>
+    </row>
+    <row r="54" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A54" s="18"/>
+      <c r="B54" s="12"/>
+      <c r="C54" s="12"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="12"/>
+      <c r="G54" s="12"/>
+      <c r="H54" s="12"/>
+      <c r="I54" s="12"/>
+      <c r="J54" s="12"/>
+      <c r="K54" s="12"/>
+      <c r="L54" s="12"/>
+      <c r="M54" s="12"/>
+      <c r="N54" s="12"/>
+      <c r="O54" s="12"/>
+      <c r="P54" s="12"/>
+      <c r="Q54" s="12"/>
+      <c r="R54" s="12"/>
+      <c r="S54" s="12"/>
+      <c r="T54" s="12"/>
+      <c r="U54" s="12"/>
+      <c r="V54" s="12"/>
+      <c r="W54" s="12"/>
+      <c r="X54" s="12"/>
+      <c r="Y54" s="12"/>
+      <c r="Z54" s="12"/>
+      <c r="AA54" s="12"/>
+      <c r="AB54" s="12"/>
+      <c r="AC54" s="12"/>
+      <c r="AD54" s="12"/>
+      <c r="AE54" s="12"/>
+      <c r="AF54" s="12"/>
+      <c r="AG54" s="12"/>
+      <c r="AH54" s="12"/>
+      <c r="AI54" s="12"/>
+      <c r="AJ54" s="12"/>
+      <c r="AK54" s="12"/>
+      <c r="AL54" s="12"/>
+      <c r="AM54" s="12"/>
+      <c r="AN54" s="12"/>
+      <c r="AO54" s="12"/>
+      <c r="AP54" s="12"/>
+      <c r="AQ54" s="19"/>
+    </row>
+    <row r="55" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A55" s="18"/>
+      <c r="B55" s="12"/>
+      <c r="C55" s="12"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="12"/>
+      <c r="G55" s="12"/>
+      <c r="H55" s="12"/>
+      <c r="I55" s="12"/>
+      <c r="J55" s="12"/>
+      <c r="K55" s="12"/>
+      <c r="L55" s="12"/>
+      <c r="M55" s="12"/>
+      <c r="N55" s="12"/>
+      <c r="O55" s="12"/>
+      <c r="P55" s="12"/>
+      <c r="Q55" s="12"/>
+      <c r="R55" s="12"/>
+      <c r="S55" s="12"/>
+      <c r="T55" s="12"/>
+      <c r="U55" s="12"/>
+      <c r="V55" s="12"/>
+      <c r="W55" s="12"/>
+      <c r="X55" s="12"/>
+      <c r="Y55" s="12"/>
+      <c r="Z55" s="12"/>
+      <c r="AA55" s="12"/>
+      <c r="AB55" s="12"/>
+      <c r="AC55" s="12"/>
+      <c r="AD55" s="12"/>
+      <c r="AE55" s="12"/>
+      <c r="AF55" s="12"/>
+      <c r="AG55" s="12"/>
+      <c r="AH55" s="12"/>
+      <c r="AI55" s="12"/>
+      <c r="AJ55" s="12"/>
+      <c r="AK55" s="12"/>
+      <c r="AL55" s="12"/>
+      <c r="AM55" s="12"/>
+      <c r="AN55" s="12"/>
+      <c r="AO55" s="12"/>
+      <c r="AP55" s="12"/>
+      <c r="AQ55" s="19"/>
+    </row>
+    <row r="56" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A56" s="18"/>
+      <c r="B56" s="12"/>
+      <c r="C56" s="12"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="12"/>
+      <c r="F56" s="12"/>
+      <c r="G56" s="12"/>
+      <c r="H56" s="12"/>
+      <c r="I56" s="12"/>
+      <c r="J56" s="12"/>
+      <c r="K56" s="12"/>
+      <c r="L56" s="12"/>
+      <c r="M56" s="12"/>
+      <c r="N56" s="12"/>
+      <c r="O56" s="12"/>
+      <c r="P56" s="12"/>
+      <c r="Q56" s="12"/>
+      <c r="R56" s="12"/>
+      <c r="S56" s="12"/>
+      <c r="T56" s="12"/>
+      <c r="U56" s="12"/>
+      <c r="V56" s="12"/>
+      <c r="W56" s="12"/>
+      <c r="X56" s="12"/>
+      <c r="Y56" s="12"/>
+      <c r="Z56" s="12"/>
+      <c r="AA56" s="12"/>
+      <c r="AB56" s="12"/>
+      <c r="AC56" s="12"/>
+      <c r="AD56" s="12"/>
+      <c r="AE56" s="12"/>
+      <c r="AF56" s="12"/>
+      <c r="AG56" s="12"/>
+      <c r="AH56" s="12"/>
+      <c r="AI56" s="12"/>
+      <c r="AJ56" s="12"/>
+      <c r="AK56" s="12"/>
+      <c r="AL56" s="12"/>
+      <c r="AM56" s="12"/>
+      <c r="AN56" s="12"/>
+      <c r="AO56" s="12"/>
+      <c r="AP56" s="12"/>
+      <c r="AQ56" s="19"/>
+    </row>
+    <row r="57" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A57" s="18"/>
+      <c r="B57" s="12"/>
+      <c r="C57" s="12"/>
+      <c r="D57" s="12"/>
+      <c r="E57" s="12"/>
+      <c r="F57" s="12"/>
+      <c r="G57" s="12"/>
+      <c r="H57" s="12"/>
+      <c r="I57" s="12"/>
+      <c r="J57" s="12"/>
+      <c r="K57" s="12"/>
+      <c r="L57" s="12"/>
+      <c r="M57" s="12"/>
+      <c r="N57" s="12"/>
+      <c r="O57" s="12"/>
+      <c r="P57" s="12"/>
+      <c r="Q57" s="12"/>
+      <c r="R57" s="12"/>
+      <c r="S57" s="12"/>
+      <c r="T57" s="12"/>
+      <c r="U57" s="12"/>
+      <c r="V57" s="12"/>
+      <c r="W57" s="12"/>
+      <c r="X57" s="12"/>
+      <c r="Y57" s="12"/>
+      <c r="Z57" s="12"/>
+      <c r="AA57" s="12"/>
+      <c r="AB57" s="12"/>
+      <c r="AC57" s="12"/>
+      <c r="AD57" s="12"/>
+      <c r="AE57" s="12"/>
+      <c r="AF57" s="12"/>
+      <c r="AG57" s="12"/>
+      <c r="AH57" s="12"/>
+      <c r="AI57" s="12"/>
+      <c r="AJ57" s="12"/>
+      <c r="AK57" s="12"/>
+      <c r="AL57" s="12"/>
+      <c r="AM57" s="12"/>
+      <c r="AN57" s="12"/>
+      <c r="AO57" s="12"/>
+      <c r="AP57" s="12"/>
+      <c r="AQ57" s="19"/>
+    </row>
+    <row r="58" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="21"/>
+      <c r="B58" s="22"/>
+      <c r="C58" s="22"/>
+      <c r="D58" s="22"/>
+      <c r="E58" s="22"/>
+      <c r="F58" s="22"/>
+      <c r="G58" s="22"/>
+      <c r="H58" s="22"/>
+      <c r="I58" s="22"/>
+      <c r="J58" s="22"/>
+      <c r="K58" s="22"/>
+      <c r="L58" s="22"/>
+      <c r="M58" s="22"/>
+      <c r="N58" s="22"/>
+      <c r="O58" s="22"/>
+      <c r="P58" s="22"/>
+      <c r="Q58" s="22"/>
+      <c r="R58" s="22"/>
+      <c r="S58" s="22"/>
+      <c r="T58" s="22"/>
+      <c r="U58" s="22"/>
+      <c r="V58" s="22"/>
+      <c r="W58" s="22"/>
+      <c r="X58" s="22"/>
+      <c r="Y58" s="22"/>
+      <c r="Z58" s="22"/>
+      <c r="AA58" s="22"/>
+      <c r="AB58" s="22"/>
+      <c r="AC58" s="22"/>
+      <c r="AD58" s="22"/>
+      <c r="AE58" s="22"/>
+      <c r="AF58" s="22"/>
+      <c r="AG58" s="22"/>
+      <c r="AH58" s="22"/>
+      <c r="AI58" s="22"/>
+      <c r="AJ58" s="22"/>
+      <c r="AK58" s="22"/>
+      <c r="AL58" s="22"/>
+      <c r="AM58" s="22"/>
+      <c r="AN58" s="22"/>
+      <c r="AO58" s="22"/>
+      <c r="AP58" s="22"/>
+      <c r="AQ58" s="23"/>
+    </row>
+    <row r="59" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="60" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A60" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="B60" s="16"/>
+      <c r="C60" s="16"/>
+      <c r="D60" s="16"/>
+      <c r="E60" s="16"/>
+      <c r="F60" s="16"/>
+      <c r="G60" s="16"/>
+      <c r="H60" s="16"/>
+      <c r="I60" s="16"/>
+      <c r="J60" s="16"/>
+      <c r="K60" s="16"/>
+      <c r="L60" s="16"/>
+      <c r="M60" s="16"/>
+      <c r="N60" s="16"/>
+      <c r="O60" s="16"/>
+      <c r="P60" s="16"/>
+      <c r="Q60" s="16"/>
+      <c r="R60" s="16"/>
+      <c r="S60" s="16"/>
+      <c r="T60" s="16"/>
+      <c r="U60" s="16"/>
+      <c r="V60" s="16"/>
+      <c r="W60" s="16"/>
+      <c r="X60" s="17"/>
+    </row>
+    <row r="61" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A61" s="18"/>
+      <c r="B61" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
+      <c r="I61" s="3"/>
+      <c r="J61" s="12"/>
+      <c r="K61" s="12"/>
+      <c r="L61" s="12"/>
+      <c r="M61" s="12"/>
+      <c r="N61" s="12"/>
+      <c r="O61" s="12"/>
+      <c r="P61" s="12"/>
+      <c r="Q61" s="12"/>
+      <c r="R61" s="12"/>
+      <c r="S61" s="12"/>
+      <c r="T61" s="12"/>
+      <c r="U61" s="12"/>
+      <c r="V61" s="12"/>
+      <c r="W61" s="12"/>
+      <c r="X61" s="19"/>
+    </row>
+    <row r="62" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A62" s="18"/>
+      <c r="B62" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C62" s="12"/>
+      <c r="D62" s="12"/>
+      <c r="E62" s="12"/>
+      <c r="F62" s="12"/>
+      <c r="G62" s="12"/>
+      <c r="H62" s="12"/>
+      <c r="I62" s="5"/>
+      <c r="J62" s="12"/>
+      <c r="K62" s="12"/>
+      <c r="L62" s="12"/>
+      <c r="M62" s="12"/>
+      <c r="N62" s="12"/>
+      <c r="O62" s="12"/>
+      <c r="P62" s="12"/>
+      <c r="Q62" s="12"/>
+      <c r="R62" s="12"/>
+      <c r="S62" s="12"/>
+      <c r="T62" s="12"/>
+      <c r="U62" s="12"/>
+      <c r="V62" s="12"/>
+      <c r="W62" s="12"/>
+      <c r="X62" s="19"/>
+    </row>
+    <row r="63" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A63" s="18"/>
+      <c r="B63" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C63" s="12"/>
+      <c r="D63" s="12"/>
+      <c r="E63" s="12"/>
+      <c r="F63" s="12"/>
+      <c r="G63" s="12"/>
+      <c r="H63" s="12"/>
+      <c r="I63" s="5"/>
+      <c r="J63" s="12"/>
+      <c r="K63" s="12"/>
+      <c r="L63" s="12"/>
+      <c r="M63" s="12"/>
+      <c r="N63" s="12"/>
+      <c r="O63" s="12"/>
+      <c r="P63" s="12"/>
+      <c r="Q63" s="12"/>
+      <c r="R63" s="12"/>
+      <c r="S63" s="12"/>
+      <c r="T63" s="12"/>
+      <c r="U63" s="12"/>
+      <c r="V63" s="12"/>
+      <c r="W63" s="12"/>
+      <c r="X63" s="19"/>
+    </row>
+    <row r="64" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A64" s="18"/>
+      <c r="B64" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C64" s="12"/>
+      <c r="D64" s="12"/>
+      <c r="E64" s="12"/>
+      <c r="F64" s="12"/>
+      <c r="G64" s="12"/>
+      <c r="H64" s="12"/>
+      <c r="I64" s="5"/>
+      <c r="J64" s="12"/>
+      <c r="K64" s="12"/>
+      <c r="L64" s="12"/>
+      <c r="M64" s="12"/>
+      <c r="N64" s="12"/>
+      <c r="O64" s="12"/>
+      <c r="P64" s="12"/>
+      <c r="Q64" s="12"/>
+      <c r="R64" s="12"/>
+      <c r="S64" s="12"/>
+      <c r="T64" s="12"/>
+      <c r="U64" s="12"/>
+      <c r="V64" s="12"/>
+      <c r="W64" s="12"/>
+      <c r="X64" s="19"/>
+    </row>
+    <row r="65" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A65" s="18"/>
+      <c r="B65" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C65" s="12"/>
+      <c r="D65" s="12"/>
+      <c r="E65" s="12"/>
+      <c r="F65" s="12"/>
+      <c r="G65" s="12"/>
+      <c r="H65" s="12"/>
+      <c r="I65" s="5"/>
+      <c r="J65" s="12"/>
+      <c r="K65" s="12"/>
+      <c r="L65" s="12"/>
+      <c r="M65" s="12"/>
+      <c r="N65" s="12"/>
+      <c r="O65" s="12"/>
+      <c r="P65" s="12"/>
+      <c r="Q65" s="12"/>
+      <c r="R65" s="12"/>
+      <c r="S65" s="12"/>
+      <c r="T65" s="12"/>
+      <c r="U65" s="12"/>
+      <c r="V65" s="12"/>
+      <c r="W65" s="12"/>
+      <c r="X65" s="19"/>
+    </row>
+    <row r="66" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A66" s="18"/>
+      <c r="B66" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C66" s="12"/>
+      <c r="D66" s="12"/>
+      <c r="E66" s="12"/>
+      <c r="F66" s="12"/>
+      <c r="G66" s="12"/>
+      <c r="H66" s="12"/>
+      <c r="I66" s="5"/>
+      <c r="J66" s="12"/>
+      <c r="K66" s="12"/>
+      <c r="L66" s="12"/>
+      <c r="M66" s="12"/>
+      <c r="N66" s="12"/>
+      <c r="O66" s="12"/>
+      <c r="P66" s="12"/>
+      <c r="Q66" s="12"/>
+      <c r="R66" s="12"/>
+      <c r="S66" s="12"/>
+      <c r="T66" s="12"/>
+      <c r="U66" s="12"/>
+      <c r="V66" s="12"/>
+      <c r="W66" s="12"/>
+      <c r="X66" s="19"/>
+    </row>
+    <row r="67" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A67" s="18"/>
+      <c r="B67" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C67" s="12"/>
+      <c r="D67" s="12"/>
+      <c r="E67" s="12"/>
+      <c r="F67" s="12"/>
+      <c r="G67" s="12"/>
+      <c r="H67" s="12"/>
+      <c r="I67" s="5"/>
+      <c r="J67" s="12"/>
+      <c r="K67" s="12"/>
+      <c r="L67" s="12"/>
+      <c r="M67" s="12"/>
+      <c r="N67" s="12"/>
+      <c r="O67" s="12"/>
+      <c r="P67" s="12"/>
+      <c r="Q67" s="12"/>
+      <c r="R67" s="12"/>
+      <c r="S67" s="12"/>
+      <c r="T67" s="12"/>
+      <c r="U67" s="12"/>
+      <c r="V67" s="12"/>
+      <c r="W67" s="12"/>
+      <c r="X67" s="19"/>
+    </row>
+    <row r="68" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A68" s="18"/>
+      <c r="B68" s="4"/>
+      <c r="C68" s="12"/>
+      <c r="D68" s="12"/>
+      <c r="E68" s="12"/>
+      <c r="F68" s="12"/>
+      <c r="G68" s="12"/>
+      <c r="H68" s="12"/>
+      <c r="I68" s="5"/>
+      <c r="J68" s="12"/>
+      <c r="K68" s="12"/>
+      <c r="L68" s="12"/>
+      <c r="M68" s="12"/>
+      <c r="N68" s="12"/>
+      <c r="O68" s="12"/>
+      <c r="P68" s="12"/>
+      <c r="Q68" s="12"/>
+      <c r="R68" s="12"/>
+      <c r="S68" s="12"/>
+      <c r="T68" s="12"/>
+      <c r="U68" s="12"/>
+      <c r="V68" s="12"/>
+      <c r="W68" s="12"/>
+      <c r="X68" s="19"/>
+    </row>
+    <row r="69" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A69" s="18"/>
+      <c r="B69" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C69" s="12"/>
+      <c r="D69" s="12"/>
+      <c r="E69" s="12"/>
+      <c r="F69" s="12"/>
+      <c r="G69" s="12"/>
+      <c r="H69" s="12"/>
+      <c r="I69" s="5"/>
+      <c r="J69" s="12"/>
+      <c r="K69" s="12"/>
+      <c r="L69" s="12"/>
+      <c r="M69" s="12"/>
+      <c r="N69" s="12"/>
+      <c r="O69" s="12"/>
+      <c r="P69" s="12"/>
+      <c r="Q69" s="12"/>
+      <c r="R69" s="12"/>
+      <c r="S69" s="12"/>
+      <c r="T69" s="12"/>
+      <c r="U69" s="12"/>
+      <c r="V69" s="12"/>
+      <c r="W69" s="12"/>
+      <c r="X69" s="19"/>
+    </row>
+    <row r="70" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A70" s="18"/>
+      <c r="B70" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C70" s="12"/>
+      <c r="D70" s="12"/>
+      <c r="E70" s="12"/>
+      <c r="F70" s="12"/>
+      <c r="G70" s="12"/>
+      <c r="H70" s="12"/>
+      <c r="I70" s="5"/>
+      <c r="J70" s="12"/>
+      <c r="K70" s="12"/>
+      <c r="L70" s="12"/>
+      <c r="M70" s="12"/>
+      <c r="N70" s="12"/>
+      <c r="O70" s="12"/>
+      <c r="P70" s="12"/>
+      <c r="Q70" s="12"/>
+      <c r="R70" s="12"/>
+      <c r="S70" s="12"/>
+      <c r="T70" s="12"/>
+      <c r="U70" s="12"/>
+      <c r="V70" s="12"/>
+      <c r="W70" s="12"/>
+      <c r="X70" s="19"/>
+    </row>
+    <row r="71" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A71" s="18"/>
+      <c r="B71" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C71" s="12"/>
+      <c r="D71" s="12"/>
+      <c r="E71" s="12"/>
+      <c r="F71" s="12"/>
+      <c r="G71" s="12"/>
+      <c r="H71" s="12"/>
+      <c r="I71" s="5"/>
+      <c r="J71" s="12"/>
+      <c r="K71" s="12"/>
+      <c r="L71" s="12"/>
+      <c r="M71" s="12"/>
+      <c r="N71" s="12"/>
+      <c r="O71" s="12"/>
+      <c r="P71" s="12"/>
+      <c r="Q71" s="12"/>
+      <c r="R71" s="12"/>
+      <c r="S71" s="12"/>
+      <c r="T71" s="12"/>
+      <c r="U71" s="12"/>
+      <c r="V71" s="12"/>
+      <c r="W71" s="12"/>
+      <c r="X71" s="19"/>
+    </row>
+    <row r="72" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A72" s="18"/>
+      <c r="B72" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C72" s="12"/>
+      <c r="D72" s="12"/>
+      <c r="E72" s="12"/>
+      <c r="F72" s="12"/>
+      <c r="G72" s="12"/>
+      <c r="H72" s="12"/>
+      <c r="I72" s="5"/>
+      <c r="J72" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K72" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="L72" s="12"/>
+      <c r="M72" s="12"/>
+      <c r="N72" s="12"/>
+      <c r="O72" s="12"/>
+      <c r="P72" s="12"/>
+      <c r="Q72" s="12"/>
+      <c r="R72" s="12"/>
+      <c r="S72" s="12"/>
+      <c r="T72" s="12"/>
+      <c r="U72" s="12"/>
+      <c r="V72" s="12"/>
+      <c r="W72" s="12"/>
+      <c r="X72" s="19"/>
+    </row>
+    <row r="73" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A73" s="18"/>
+      <c r="B73" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C73" s="12"/>
+      <c r="D73" s="12"/>
+      <c r="E73" s="12"/>
+      <c r="F73" s="12"/>
+      <c r="G73" s="12"/>
+      <c r="H73" s="12"/>
+      <c r="I73" s="5"/>
+      <c r="J73" s="12"/>
+      <c r="K73" s="12"/>
+      <c r="L73" s="12"/>
+      <c r="M73" s="12"/>
+      <c r="N73" s="12"/>
+      <c r="O73" s="12"/>
+      <c r="P73" s="12"/>
+      <c r="Q73" s="12"/>
+      <c r="R73" s="12"/>
+      <c r="S73" s="12"/>
+      <c r="T73" s="12"/>
+      <c r="U73" s="12"/>
+      <c r="V73" s="12"/>
+      <c r="W73" s="12"/>
+      <c r="X73" s="19"/>
+    </row>
+    <row r="74" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A74" s="18"/>
+      <c r="B74" s="4"/>
+      <c r="C74" s="12"/>
+      <c r="D74" s="12"/>
+      <c r="E74" s="12"/>
+      <c r="F74" s="12"/>
+      <c r="G74" s="12"/>
+      <c r="H74" s="12"/>
+      <c r="I74" s="5"/>
+      <c r="J74" s="12"/>
+      <c r="K74" s="12"/>
+      <c r="L74" s="12"/>
+      <c r="M74" s="12"/>
+      <c r="N74" s="12"/>
+      <c r="O74" s="12"/>
+      <c r="P74" s="12"/>
+      <c r="Q74" s="12"/>
+      <c r="R74" s="12"/>
+      <c r="S74" s="12"/>
+      <c r="T74" s="12"/>
+      <c r="U74" s="12"/>
+      <c r="V74" s="12"/>
+      <c r="W74" s="12"/>
+      <c r="X74" s="19"/>
+    </row>
+    <row r="75" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A75" s="18"/>
+      <c r="B75" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C75" s="12"/>
+      <c r="D75" s="12"/>
+      <c r="E75" s="12"/>
+      <c r="F75" s="12"/>
+      <c r="G75" s="12"/>
+      <c r="H75" s="12"/>
+      <c r="I75" s="5"/>
+      <c r="J75" s="12"/>
+      <c r="K75" s="12"/>
+      <c r="L75" s="12"/>
+      <c r="M75" s="12"/>
+      <c r="N75" s="12"/>
+      <c r="O75" s="12"/>
+      <c r="P75" s="12"/>
+      <c r="Q75" s="12"/>
+      <c r="R75" s="12"/>
+      <c r="S75" s="12"/>
+      <c r="T75" s="12"/>
+      <c r="U75" s="12"/>
+      <c r="V75" s="12"/>
+      <c r="W75" s="12"/>
+      <c r="X75" s="19"/>
+    </row>
+    <row r="76" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A76" s="18"/>
+      <c r="B76" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C76" s="12"/>
+      <c r="D76" s="12"/>
+      <c r="E76" s="12"/>
+      <c r="F76" s="12"/>
+      <c r="G76" s="12"/>
+      <c r="H76" s="12"/>
+      <c r="I76" s="5"/>
+      <c r="J76" s="12"/>
+      <c r="K76" s="12"/>
+      <c r="L76" s="12"/>
+      <c r="M76" s="12"/>
+      <c r="N76" s="12"/>
+      <c r="O76" s="12"/>
+      <c r="P76" s="12"/>
+      <c r="Q76" s="12"/>
+      <c r="R76" s="12"/>
+      <c r="S76" s="12"/>
+      <c r="T76" s="12"/>
+      <c r="U76" s="12"/>
+      <c r="V76" s="12"/>
+      <c r="W76" s="12"/>
+      <c r="X76" s="19"/>
+    </row>
+    <row r="77" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A77" s="18"/>
+      <c r="B77" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C77" s="12"/>
+      <c r="D77" s="12"/>
+      <c r="E77" s="12"/>
+      <c r="F77" s="12"/>
+      <c r="G77" s="12"/>
+      <c r="H77" s="12"/>
+      <c r="I77" s="5"/>
+      <c r="J77" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K77" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="L77" s="12"/>
+      <c r="M77" s="12"/>
+      <c r="N77" s="12"/>
+      <c r="O77" s="12"/>
+      <c r="P77" s="12"/>
+      <c r="Q77" s="12"/>
+      <c r="R77" s="12"/>
+      <c r="S77" s="12"/>
+      <c r="T77" s="12"/>
+      <c r="U77" s="12"/>
+      <c r="V77" s="12"/>
+      <c r="W77" s="12"/>
+      <c r="X77" s="19"/>
+    </row>
+    <row r="78" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A78" s="18"/>
+      <c r="B78" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C78" s="12"/>
+      <c r="D78" s="12"/>
+      <c r="E78" s="12"/>
+      <c r="F78" s="12"/>
+      <c r="G78" s="12"/>
+      <c r="H78" s="12"/>
+      <c r="I78" s="5"/>
+      <c r="J78" s="12"/>
+      <c r="K78" s="12"/>
+      <c r="L78" s="12"/>
+      <c r="M78" s="12"/>
+      <c r="N78" s="12"/>
+      <c r="O78" s="12"/>
+      <c r="P78" s="12"/>
+      <c r="Q78" s="12"/>
+      <c r="R78" s="12"/>
+      <c r="S78" s="12"/>
+      <c r="T78" s="12"/>
+      <c r="U78" s="12"/>
+      <c r="V78" s="12"/>
+      <c r="W78" s="12"/>
+      <c r="X78" s="19"/>
+    </row>
+    <row r="79" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A79" s="18"/>
+      <c r="B79" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C79" s="12"/>
+      <c r="D79" s="12"/>
+      <c r="E79" s="12"/>
+      <c r="F79" s="12"/>
+      <c r="G79" s="12"/>
+      <c r="H79" s="12"/>
+      <c r="I79" s="5"/>
+      <c r="J79" s="12"/>
+      <c r="K79" s="12"/>
+      <c r="L79" s="12"/>
+      <c r="M79" s="12"/>
+      <c r="N79" s="12"/>
+      <c r="O79" s="12"/>
+      <c r="P79" s="12"/>
+      <c r="Q79" s="12"/>
+      <c r="R79" s="12"/>
+      <c r="S79" s="12"/>
+      <c r="T79" s="12"/>
+      <c r="U79" s="12"/>
+      <c r="V79" s="12"/>
+      <c r="W79" s="12"/>
+      <c r="X79" s="19"/>
+    </row>
+    <row r="80" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A80" s="18"/>
+      <c r="B80" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C80" s="12"/>
+      <c r="D80" s="12"/>
+      <c r="E80" s="12"/>
+      <c r="F80" s="12"/>
+      <c r="G80" s="12"/>
+      <c r="H80" s="12"/>
+      <c r="I80" s="5"/>
+      <c r="J80" s="12"/>
+      <c r="K80" s="12"/>
+      <c r="L80" s="12"/>
+      <c r="M80" s="12"/>
+      <c r="N80" s="12"/>
+      <c r="O80" s="12"/>
+      <c r="P80" s="12"/>
+      <c r="Q80" s="12"/>
+      <c r="R80" s="12"/>
+      <c r="S80" s="12"/>
+      <c r="T80" s="12"/>
+      <c r="U80" s="12"/>
+      <c r="V80" s="12"/>
+      <c r="W80" s="12"/>
+      <c r="X80" s="19"/>
+    </row>
+    <row r="81" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A81" s="18"/>
+      <c r="B81" s="4"/>
+      <c r="C81" s="12"/>
+      <c r="D81" s="12"/>
+      <c r="E81" s="12"/>
+      <c r="F81" s="12"/>
+      <c r="G81" s="12"/>
+      <c r="H81" s="12"/>
+      <c r="I81" s="5"/>
+      <c r="J81" s="12"/>
+      <c r="K81" s="12"/>
+      <c r="L81" s="12"/>
+      <c r="M81" s="12"/>
+      <c r="N81" s="12"/>
+      <c r="O81" s="12"/>
+      <c r="P81" s="12"/>
+      <c r="Q81" s="12"/>
+      <c r="R81" s="12"/>
+      <c r="S81" s="12"/>
+      <c r="T81" s="12"/>
+      <c r="U81" s="12"/>
+      <c r="V81" s="12"/>
+      <c r="W81" s="12"/>
+      <c r="X81" s="19"/>
+    </row>
+    <row r="82" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A82" s="18"/>
+      <c r="B82" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C82" s="12"/>
+      <c r="D82" s="12"/>
+      <c r="E82" s="12"/>
+      <c r="F82" s="12"/>
+      <c r="G82" s="12"/>
+      <c r="H82" s="12"/>
+      <c r="I82" s="5"/>
+      <c r="J82" s="12"/>
+      <c r="K82" s="12"/>
+      <c r="L82" s="12"/>
+      <c r="M82" s="12"/>
+      <c r="N82" s="12"/>
+      <c r="O82" s="12"/>
+      <c r="P82" s="12"/>
+      <c r="Q82" s="12"/>
+      <c r="R82" s="12"/>
+      <c r="S82" s="12"/>
+      <c r="T82" s="12"/>
+      <c r="U82" s="12"/>
+      <c r="V82" s="12"/>
+      <c r="W82" s="12"/>
+      <c r="X82" s="19"/>
+    </row>
+    <row r="83" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A83" s="18"/>
+      <c r="B83" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C83" s="12"/>
+      <c r="D83" s="12"/>
+      <c r="E83" s="12"/>
+      <c r="F83" s="12"/>
+      <c r="G83" s="12"/>
+      <c r="H83" s="12"/>
+      <c r="I83" s="5"/>
+      <c r="J83" s="12"/>
+      <c r="K83" s="12"/>
+      <c r="L83" s="12"/>
+      <c r="M83" s="12"/>
+      <c r="N83" s="12"/>
+      <c r="O83" s="12"/>
+      <c r="P83" s="12"/>
+      <c r="Q83" s="12"/>
+      <c r="R83" s="12"/>
+      <c r="S83" s="12"/>
+      <c r="T83" s="12"/>
+      <c r="U83" s="12"/>
+      <c r="V83" s="12"/>
+      <c r="W83" s="12"/>
+      <c r="X83" s="19"/>
+    </row>
+    <row r="84" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A84" s="18"/>
+      <c r="B84" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C84" s="12"/>
+      <c r="D84" s="12"/>
+      <c r="E84" s="12"/>
+      <c r="F84" s="12"/>
+      <c r="G84" s="12"/>
+      <c r="H84" s="12"/>
+      <c r="I84" s="5"/>
+      <c r="J84" s="12"/>
+      <c r="K84" s="12"/>
+      <c r="L84" s="12"/>
+      <c r="M84" s="12"/>
+      <c r="N84" s="12"/>
+      <c r="O84" s="12"/>
+      <c r="P84" s="12"/>
+      <c r="Q84" s="12"/>
+      <c r="R84" s="12"/>
+      <c r="S84" s="12"/>
+      <c r="T84" s="12"/>
+      <c r="U84" s="12"/>
+      <c r="V84" s="12"/>
+      <c r="W84" s="12"/>
+      <c r="X84" s="19"/>
+    </row>
+    <row r="85" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A85" s="18"/>
+      <c r="B85" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C85" s="12"/>
+      <c r="D85" s="12"/>
+      <c r="E85" s="12"/>
+      <c r="F85" s="12"/>
+      <c r="G85" s="12"/>
+      <c r="H85" s="12"/>
+      <c r="I85" s="5"/>
+      <c r="J85" s="12"/>
+      <c r="K85" s="12"/>
+      <c r="L85" s="12"/>
+      <c r="M85" s="12"/>
+      <c r="N85" s="12"/>
+      <c r="O85" s="12"/>
+      <c r="P85" s="12"/>
+      <c r="Q85" s="12"/>
+      <c r="R85" s="12"/>
+      <c r="S85" s="12"/>
+      <c r="T85" s="12"/>
+      <c r="U85" s="12"/>
+      <c r="V85" s="12"/>
+      <c r="W85" s="12"/>
+      <c r="X85" s="19"/>
+    </row>
+    <row r="86" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A86" s="18"/>
+      <c r="B86" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C86" s="12"/>
+      <c r="D86" s="12"/>
+      <c r="E86" s="12"/>
+      <c r="F86" s="12"/>
+      <c r="G86" s="12"/>
+      <c r="H86" s="12"/>
+      <c r="I86" s="5"/>
+      <c r="J86" s="12"/>
+      <c r="K86" s="12"/>
+      <c r="L86" s="12"/>
+      <c r="M86" s="12"/>
+      <c r="N86" s="12"/>
+      <c r="O86" s="12"/>
+      <c r="P86" s="12"/>
+      <c r="Q86" s="12"/>
+      <c r="R86" s="12"/>
+      <c r="S86" s="12"/>
+      <c r="T86" s="12"/>
+      <c r="U86" s="12"/>
+      <c r="V86" s="12"/>
+      <c r="W86" s="12"/>
+      <c r="X86" s="19"/>
+    </row>
+    <row r="87" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A87" s="18"/>
+      <c r="B87" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C87" s="12"/>
+      <c r="D87" s="12"/>
+      <c r="E87" s="12"/>
+      <c r="F87" s="12"/>
+      <c r="G87" s="12"/>
+      <c r="H87" s="12"/>
+      <c r="I87" s="5"/>
+      <c r="J87" s="12"/>
+      <c r="K87" s="12"/>
+      <c r="L87" s="12"/>
+      <c r="M87" s="12"/>
+      <c r="N87" s="12"/>
+      <c r="O87" s="12"/>
+      <c r="P87" s="12"/>
+      <c r="Q87" s="12"/>
+      <c r="R87" s="12"/>
+      <c r="S87" s="12"/>
+      <c r="T87" s="12"/>
+      <c r="U87" s="12"/>
+      <c r="V87" s="12"/>
+      <c r="W87" s="12"/>
+      <c r="X87" s="19"/>
+    </row>
+    <row r="88" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A88" s="18"/>
+      <c r="B88" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C88" s="12"/>
+      <c r="D88" s="12"/>
+      <c r="E88" s="12"/>
+      <c r="F88" s="12"/>
+      <c r="G88" s="12"/>
+      <c r="H88" s="12"/>
+      <c r="I88" s="5"/>
+      <c r="J88" s="12"/>
+      <c r="K88" s="12"/>
+      <c r="L88" s="12"/>
+      <c r="M88" s="12"/>
+      <c r="N88" s="12"/>
+      <c r="O88" s="12"/>
+      <c r="P88" s="12"/>
+      <c r="Q88" s="12"/>
+      <c r="R88" s="12"/>
+      <c r="S88" s="12"/>
+      <c r="T88" s="12"/>
+      <c r="U88" s="12"/>
+      <c r="V88" s="12"/>
+      <c r="W88" s="12"/>
+      <c r="X88" s="19"/>
+    </row>
+    <row r="89" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A89" s="18"/>
+      <c r="B89" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C89" s="12"/>
+      <c r="D89" s="12"/>
+      <c r="E89" s="12"/>
+      <c r="F89" s="12"/>
+      <c r="G89" s="12"/>
+      <c r="H89" s="12"/>
+      <c r="I89" s="5"/>
+      <c r="J89" s="12"/>
+      <c r="K89" s="12"/>
+      <c r="L89" s="12"/>
+      <c r="M89" s="12"/>
+      <c r="N89" s="12"/>
+      <c r="O89" s="12"/>
+      <c r="P89" s="12"/>
+      <c r="Q89" s="12"/>
+      <c r="R89" s="12"/>
+      <c r="S89" s="12"/>
+      <c r="T89" s="12"/>
+      <c r="U89" s="12"/>
+      <c r="V89" s="12"/>
+      <c r="W89" s="12"/>
+      <c r="X89" s="19"/>
+    </row>
+    <row r="90" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A90" s="18"/>
+      <c r="B90" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C90" s="12"/>
+      <c r="D90" s="12"/>
+      <c r="E90" s="12"/>
+      <c r="F90" s="12"/>
+      <c r="G90" s="12"/>
+      <c r="H90" s="12"/>
+      <c r="I90" s="5"/>
+      <c r="J90" s="12"/>
+      <c r="K90" s="12"/>
+      <c r="L90" s="12"/>
+      <c r="M90" s="12"/>
+      <c r="N90" s="12"/>
+      <c r="O90" s="12"/>
+      <c r="P90" s="12"/>
+      <c r="Q90" s="12"/>
+      <c r="R90" s="12"/>
+      <c r="S90" s="12"/>
+      <c r="T90" s="12"/>
+      <c r="U90" s="12"/>
+      <c r="V90" s="12"/>
+      <c r="W90" s="12"/>
+      <c r="X90" s="19"/>
+    </row>
+    <row r="91" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A91" s="18"/>
+      <c r="B91" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C91" s="8"/>
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8"/>
+      <c r="H91" s="8"/>
+      <c r="I91" s="10"/>
+      <c r="J91" s="12"/>
+      <c r="K91" s="12"/>
+      <c r="L91" s="12"/>
+      <c r="M91" s="12"/>
+      <c r="N91" s="12"/>
+      <c r="O91" s="12"/>
+      <c r="P91" s="12"/>
+      <c r="Q91" s="12"/>
+      <c r="R91" s="12"/>
+      <c r="S91" s="12"/>
+      <c r="T91" s="12"/>
+      <c r="U91" s="12"/>
+      <c r="V91" s="12"/>
+      <c r="W91" s="12"/>
+      <c r="X91" s="19"/>
+    </row>
+    <row r="92" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A92" s="18"/>
+      <c r="B92" s="12"/>
+      <c r="C92" s="12"/>
+      <c r="D92" s="12"/>
+      <c r="E92" s="12"/>
+      <c r="F92" s="12"/>
+      <c r="G92" s="12"/>
+      <c r="H92" s="12"/>
+      <c r="I92" s="12"/>
+      <c r="J92" s="12"/>
+      <c r="K92" s="12"/>
+      <c r="L92" s="12"/>
+      <c r="M92" s="12"/>
+      <c r="N92" s="12"/>
+      <c r="O92" s="12"/>
+      <c r="P92" s="12"/>
+      <c r="Q92" s="12"/>
+      <c r="R92" s="12"/>
+      <c r="S92" s="12"/>
+      <c r="T92" s="12"/>
+      <c r="U92" s="12"/>
+      <c r="V92" s="12"/>
+      <c r="W92" s="12"/>
+      <c r="X92" s="19"/>
+    </row>
+    <row r="93" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A93" s="18"/>
+      <c r="B93" s="12"/>
+      <c r="C93" s="12"/>
+      <c r="D93" s="12"/>
+      <c r="E93" s="12"/>
+      <c r="F93" s="12"/>
+      <c r="G93" s="12"/>
+      <c r="H93" s="12"/>
+      <c r="I93" s="12"/>
+      <c r="J93" s="12"/>
+      <c r="K93" s="12"/>
+      <c r="L93" s="12"/>
+      <c r="M93" s="12"/>
+      <c r="N93" s="12"/>
+      <c r="O93" s="12"/>
+      <c r="P93" s="12"/>
+      <c r="Q93" s="12"/>
+      <c r="R93" s="12"/>
+      <c r="S93" s="12"/>
+      <c r="T93" s="12"/>
+      <c r="U93" s="12"/>
+      <c r="V93" s="12"/>
+      <c r="W93" s="12"/>
+      <c r="X93" s="19"/>
+    </row>
+    <row r="94" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A94" s="18"/>
+      <c r="B94" s="12"/>
+      <c r="C94" s="12"/>
+      <c r="D94" s="12"/>
+      <c r="E94" s="12"/>
+      <c r="F94" s="12"/>
+      <c r="G94" s="12"/>
+      <c r="H94" s="12"/>
+      <c r="I94" s="12"/>
+      <c r="J94" s="12"/>
+      <c r="K94" s="12"/>
+      <c r="L94" s="12"/>
+      <c r="M94" s="12"/>
+      <c r="N94" s="12"/>
+      <c r="O94" s="12"/>
+      <c r="P94" s="12"/>
+      <c r="Q94" s="12"/>
+      <c r="R94" s="12"/>
+      <c r="S94" s="12"/>
+      <c r="T94" s="12"/>
+      <c r="U94" s="12"/>
+      <c r="V94" s="12"/>
+      <c r="W94" s="12"/>
+      <c r="X94" s="19"/>
+    </row>
+    <row r="95" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A95" s="18"/>
+      <c r="B95" s="12"/>
+      <c r="C95" s="12"/>
+      <c r="D95" s="12"/>
+      <c r="E95" s="12"/>
+      <c r="F95" s="12"/>
+      <c r="G95" s="12"/>
+      <c r="H95" s="12"/>
+      <c r="I95" s="12"/>
+      <c r="J95" s="12"/>
+      <c r="K95" s="12"/>
+      <c r="L95" s="12"/>
+      <c r="M95" s="12"/>
+      <c r="N95" s="12"/>
+      <c r="O95" s="12"/>
+      <c r="P95" s="12"/>
+      <c r="Q95" s="12"/>
+      <c r="R95" s="12"/>
+      <c r="S95" s="12"/>
+      <c r="T95" s="12"/>
+      <c r="U95" s="12"/>
+      <c r="V95" s="12"/>
+      <c r="W95" s="12"/>
+      <c r="X95" s="19"/>
+    </row>
+    <row r="96" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A96" s="18"/>
+      <c r="B96" s="12"/>
+      <c r="C96" s="12"/>
+      <c r="D96" s="12"/>
+      <c r="E96" s="12"/>
+      <c r="F96" s="12"/>
+      <c r="G96" s="12"/>
+      <c r="H96" s="12"/>
+      <c r="I96" s="12"/>
+      <c r="J96" s="12"/>
+      <c r="K96" s="12"/>
+      <c r="L96" s="12"/>
+      <c r="M96" s="12"/>
+      <c r="N96" s="12"/>
+      <c r="O96" s="12"/>
+      <c r="P96" s="12"/>
+      <c r="Q96" s="12"/>
+      <c r="R96" s="12"/>
+      <c r="S96" s="12"/>
+      <c r="T96" s="12"/>
+      <c r="U96" s="12"/>
+      <c r="V96" s="12"/>
+      <c r="W96" s="12"/>
+      <c r="X96" s="19"/>
+    </row>
+    <row r="97" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A97" s="18"/>
+      <c r="B97" s="12"/>
+      <c r="C97" s="12"/>
+      <c r="D97" s="12"/>
+      <c r="E97" s="12"/>
+      <c r="F97" s="12"/>
+      <c r="G97" s="12"/>
+      <c r="H97" s="12"/>
+      <c r="I97" s="12"/>
+      <c r="J97" s="12"/>
+      <c r="K97" s="12"/>
+      <c r="L97" s="12"/>
+      <c r="M97" s="12"/>
+      <c r="N97" s="12"/>
+      <c r="O97" s="12"/>
+      <c r="P97" s="12"/>
+      <c r="Q97" s="12"/>
+      <c r="R97" s="12"/>
+      <c r="S97" s="12"/>
+      <c r="T97" s="12"/>
+      <c r="U97" s="12"/>
+      <c r="V97" s="12"/>
+      <c r="W97" s="12"/>
+      <c r="X97" s="19"/>
+    </row>
+    <row r="98" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A98" s="18"/>
+      <c r="B98" s="12"/>
+      <c r="C98" s="12"/>
+      <c r="D98" s="12"/>
+      <c r="E98" s="12"/>
+      <c r="F98" s="12"/>
+      <c r="G98" s="12"/>
+      <c r="H98" s="12"/>
+      <c r="I98" s="12"/>
+      <c r="J98" s="12"/>
+      <c r="K98" s="12"/>
+      <c r="L98" s="12"/>
+      <c r="M98" s="12"/>
+      <c r="N98" s="12"/>
+      <c r="O98" s="12"/>
+      <c r="P98" s="12"/>
+      <c r="Q98" s="12"/>
+      <c r="R98" s="12"/>
+      <c r="S98" s="12"/>
+      <c r="T98" s="12"/>
+      <c r="U98" s="12"/>
+      <c r="V98" s="12"/>
+      <c r="W98" s="12"/>
+      <c r="X98" s="19"/>
+    </row>
+    <row r="99" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A99" s="18"/>
+      <c r="B99" s="12"/>
+      <c r="C99" s="12"/>
+      <c r="D99" s="12"/>
+      <c r="E99" s="12"/>
+      <c r="F99" s="12"/>
+      <c r="G99" s="12"/>
+      <c r="H99" s="12"/>
+      <c r="I99" s="12"/>
+      <c r="J99" s="12"/>
+      <c r="K99" s="12"/>
+      <c r="L99" s="12"/>
+      <c r="M99" s="12"/>
+      <c r="N99" s="12"/>
+      <c r="O99" s="12"/>
+      <c r="P99" s="12"/>
+      <c r="Q99" s="12"/>
+      <c r="R99" s="12"/>
+      <c r="S99" s="12"/>
+      <c r="T99" s="12"/>
+      <c r="U99" s="12"/>
+      <c r="V99" s="12"/>
+      <c r="W99" s="12"/>
+      <c r="X99" s="19"/>
+    </row>
+    <row r="100" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="21"/>
+      <c r="B100" s="22"/>
+      <c r="C100" s="22"/>
+      <c r="D100" s="22"/>
+      <c r="E100" s="22"/>
+      <c r="F100" s="22"/>
+      <c r="G100" s="22"/>
+      <c r="H100" s="22"/>
+      <c r="I100" s="22"/>
+      <c r="J100" s="22"/>
+      <c r="K100" s="22"/>
+      <c r="L100" s="22"/>
+      <c r="M100" s="22"/>
+      <c r="N100" s="22"/>
+      <c r="O100" s="22"/>
+      <c r="P100" s="22"/>
+      <c r="Q100" s="22"/>
+      <c r="R100" s="22"/>
+      <c r="S100" s="22"/>
+      <c r="T100" s="22"/>
+      <c r="U100" s="22"/>
+      <c r="V100" s="22"/>
+      <c r="W100" s="22"/>
+      <c r="X100" s="23"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/me/3.Flex-Items.xlsx
+++ b/me/3.Flex-Items.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\flexbox\me\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9765D44D-FC30-4A7E-95A8-475D09778079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDFB2886-FD7C-45B4-B713-247775CBAFF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Order" sheetId="1" r:id="rId1"/>
     <sheet name="Flex basis" sheetId="2" r:id="rId2"/>
+    <sheet name="Flex grow" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="87">
   <si>
     <t>構成</t>
   </si>
@@ -234,6 +235,60 @@
   <si>
     <t>Chiều cao của các flex item sẽ có giá trị là 120px</t>
   </si>
+  <si>
+    <t>Thuộc tính flex-grow cho phép tự động giãn các phần tử flex item để phủ đầy flex container bên ngoài</t>
+  </si>
+  <si>
+    <t>3.Flex-grow</t>
+  </si>
+  <si>
+    <t>flexbox\3.Flex-Items\3.Flex-grow\index.html</t>
+  </si>
+  <si>
+    <t>      /* flex-grow: default value - 0 */</t>
+  </si>
+  <si>
+    <t>        max-width: 600px;</t>
+  </si>
+  <si>
+    <t>        flex-basis: 100px;</t>
+  </si>
+  <si>
+    <t>        flex-grow: 1;</t>
+  </si>
+  <si>
+    <t>        flex-grow: 3;</t>
+  </si>
+  <si>
+    <t>flex-grow cho biết tỷ lệ cộng vào chiều rộng của các flex item để lấp đầy flex container</t>
+  </si>
+  <si>
+    <t>box1: 100px, flex-grow: 1;</t>
+  </si>
+  <si>
+    <t>box2: 100px, flex-grow: 3;</t>
+  </si>
+  <si>
+    <t>dư: 600-6-200=394px</t>
+  </si>
+  <si>
+    <t>box1 after: 100 + 394/4 = 198.5px</t>
+  </si>
+  <si>
+    <t>box2 after: 100 + 394*3/4 = 395.5px</t>
+  </si>
+  <si>
+    <t>100px là chiều rộng ban đầu, 394/4 là phần được cộng thêm</t>
+  </si>
+  <si>
+    <t>100px là chiều rộng ban đầu, 394*3/4 là phần được cộng thêm</t>
+  </si>
+  <si>
+    <t>6px là tổng border 2 bên mỗi bên là 3px</t>
+  </si>
+  <si>
+    <t>200px là tổng chiều rộng ban đầu của 2 flex item</t>
+  </si>
 </sst>
 </file>
 
@@ -263,7 +318,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -431,11 +486,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -460,6 +541,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1465,6 +1548,585 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Arrow Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53FAF19E-26A9-207C-38B7-493F68B344D0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1876425" y="6581775"/>
+          <a:ext cx="4705350" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Arrow Connector 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDBE4A04-6670-6A2E-2BEE-0500BB551940}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1885950" y="6581775"/>
+          <a:ext cx="4657725" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>454629</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82F20E92-3F4B-D7D7-6DF6-276EB784E6BF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5724525" y="7896224"/>
+          <a:ext cx="11246454" cy="5743576"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Straight Arrow Connector 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B89A1B91-EE45-71F5-5C60-5A0601697A92}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9086850" y="7200900"/>
+          <a:ext cx="5314950" cy="4486275"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Straight Arrow Connector 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D270872-AB0C-E814-BBB6-3CFAC4834917}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="8620125" y="6477000"/>
+          <a:ext cx="438150" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="Straight Arrow Connector 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C75A72CE-01FA-B573-CE71-40CEBF0F9B1F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7286625" y="6819900"/>
+          <a:ext cx="4724400" cy="2066925"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="Straight Arrow Connector 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F19DB1B-994F-C2EF-8DE2-CE427B4E8E15}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="10725150" y="7591425"/>
+          <a:ext cx="1428750" cy="1362075"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="Straight Arrow Connector 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3D5C818-3EB7-D146-33E6-73A45719FEC5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="8867775" y="6267450"/>
+          <a:ext cx="390525" cy="847725"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="Straight Arrow Connector 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E6A7255-6C5F-160B-8D4B-E0FBDADAD543}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6791325" y="6219825"/>
+          <a:ext cx="1771650" cy="533400"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0314F30-4030-0DE0-A431-D98491D0B1D2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6772275" y="6229350"/>
+          <a:ext cx="1800225" cy="1266825"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="Straight Arrow Connector 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2AD6584-E945-CBAB-0EFE-A5EEC7F39C3C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1943100" y="5638800"/>
+          <a:ext cx="6877050" cy="1504950"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -3103,8 +3765,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17FBB2D9-C532-4D48-94F3-751676684EB1}">
   <dimension ref="A2:AQ100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V26" sqref="V26"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6391,4 +7053,1918 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF4F6427-B0A5-4E3E-BE91-72AE0B6BAAAB}">
+  <dimension ref="A2:AB73"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="L30" sqref="L30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="16" max="16" width="10" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="4"/>
+      <c r="C9" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="4"/>
+      <c r="C10" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="4"/>
+      <c r="C11" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" s="5"/>
+      <c r="G11" t="s">
+        <v>4</v>
+      </c>
+      <c r="H11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="4"/>
+      <c r="D12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="4"/>
+      <c r="E13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="7"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="8"/>
+      <c r="F14" s="10"/>
+      <c r="G14" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="16"/>
+      <c r="O17" s="16"/>
+      <c r="P17" s="16"/>
+      <c r="Q17" s="16"/>
+      <c r="R17" s="16"/>
+      <c r="S17" s="16"/>
+      <c r="T17" s="16"/>
+      <c r="U17" s="16"/>
+      <c r="V17" s="16"/>
+      <c r="W17" s="16"/>
+      <c r="X17" s="16"/>
+      <c r="Y17" s="16"/>
+      <c r="Z17" s="16"/>
+      <c r="AA17" s="16"/>
+      <c r="AB17" s="17"/>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A18" s="18"/>
+      <c r="B18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="12"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="12"/>
+      <c r="R18" s="12"/>
+      <c r="S18" s="12"/>
+      <c r="T18" s="12"/>
+      <c r="U18" s="12"/>
+      <c r="V18" s="12"/>
+      <c r="W18" s="12"/>
+      <c r="X18" s="12"/>
+      <c r="Y18" s="12"/>
+      <c r="Z18" s="12"/>
+      <c r="AA18" s="12"/>
+      <c r="AB18" s="19"/>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A19" s="18"/>
+      <c r="B19" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="12"/>
+      <c r="P19" s="12"/>
+      <c r="Q19" s="12"/>
+      <c r="R19" s="12"/>
+      <c r="S19" s="12"/>
+      <c r="T19" s="12"/>
+      <c r="U19" s="12"/>
+      <c r="V19" s="12"/>
+      <c r="W19" s="12"/>
+      <c r="X19" s="12"/>
+      <c r="Y19" s="12"/>
+      <c r="Z19" s="12"/>
+      <c r="AA19" s="12"/>
+      <c r="AB19" s="19"/>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A20" s="18"/>
+      <c r="B20" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="12"/>
+      <c r="R20" s="12"/>
+      <c r="S20" s="12"/>
+      <c r="T20" s="12"/>
+      <c r="U20" s="12"/>
+      <c r="V20" s="12"/>
+      <c r="W20" s="12"/>
+      <c r="X20" s="12"/>
+      <c r="Y20" s="12"/>
+      <c r="Z20" s="12"/>
+      <c r="AA20" s="12"/>
+      <c r="AB20" s="19"/>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A21" s="18"/>
+      <c r="B21" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="12"/>
+      <c r="P21" s="12"/>
+      <c r="Q21" s="12"/>
+      <c r="R21" s="12"/>
+      <c r="S21" s="12"/>
+      <c r="T21" s="12"/>
+      <c r="U21" s="12"/>
+      <c r="V21" s="12"/>
+      <c r="W21" s="12"/>
+      <c r="X21" s="12"/>
+      <c r="Y21" s="12"/>
+      <c r="Z21" s="12"/>
+      <c r="AA21" s="12"/>
+      <c r="AB21" s="19"/>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A22" s="18"/>
+      <c r="B22" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="12"/>
+      <c r="P22" s="12"/>
+      <c r="Q22" s="12"/>
+      <c r="R22" s="12"/>
+      <c r="S22" s="12"/>
+      <c r="T22" s="12"/>
+      <c r="U22" s="12"/>
+      <c r="V22" s="12"/>
+      <c r="W22" s="12"/>
+      <c r="X22" s="12"/>
+      <c r="Y22" s="12"/>
+      <c r="Z22" s="12"/>
+      <c r="AA22" s="12"/>
+      <c r="AB22" s="19"/>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A23" s="18"/>
+      <c r="B23" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="12"/>
+      <c r="P23" s="12"/>
+      <c r="Q23" s="12"/>
+      <c r="R23" s="12"/>
+      <c r="S23" s="12"/>
+      <c r="T23" s="12"/>
+      <c r="U23" s="12"/>
+      <c r="V23" s="12"/>
+      <c r="W23" s="12"/>
+      <c r="X23" s="12"/>
+      <c r="Y23" s="12"/>
+      <c r="Z23" s="12"/>
+      <c r="AA23" s="12"/>
+      <c r="AB23" s="19"/>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A24" s="18"/>
+      <c r="B24" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="12"/>
+      <c r="O24" s="12"/>
+      <c r="P24" s="12"/>
+      <c r="Q24" s="12"/>
+      <c r="R24" s="12"/>
+      <c r="S24" s="12"/>
+      <c r="T24" s="12"/>
+      <c r="U24" s="12"/>
+      <c r="V24" s="12"/>
+      <c r="W24" s="12"/>
+      <c r="X24" s="12"/>
+      <c r="Y24" s="12"/>
+      <c r="Z24" s="12"/>
+      <c r="AA24" s="12"/>
+      <c r="AB24" s="19"/>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A25" s="18"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="12"/>
+      <c r="O25" s="12"/>
+      <c r="P25" s="12"/>
+      <c r="Q25" s="12"/>
+      <c r="R25" s="12"/>
+      <c r="S25" s="12"/>
+      <c r="T25" s="12"/>
+      <c r="U25" s="12"/>
+      <c r="V25" s="12"/>
+      <c r="W25" s="12"/>
+      <c r="X25" s="12"/>
+      <c r="Y25" s="12"/>
+      <c r="Z25" s="12"/>
+      <c r="AA25" s="12"/>
+      <c r="AB25" s="19"/>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A26" s="18"/>
+      <c r="B26" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="12"/>
+      <c r="O26" s="12"/>
+      <c r="P26" s="12"/>
+      <c r="Q26" s="12"/>
+      <c r="R26" s="12"/>
+      <c r="S26" s="12"/>
+      <c r="T26" s="12"/>
+      <c r="U26" s="12"/>
+      <c r="V26" s="12"/>
+      <c r="W26" s="12"/>
+      <c r="X26" s="12"/>
+      <c r="Y26" s="12"/>
+      <c r="Z26" s="12"/>
+      <c r="AA26" s="12"/>
+      <c r="AB26" s="19"/>
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A27" s="18"/>
+      <c r="B27" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="12"/>
+      <c r="N27" s="12"/>
+      <c r="O27" s="12"/>
+      <c r="P27" s="12"/>
+      <c r="Q27" s="12"/>
+      <c r="R27" s="12"/>
+      <c r="S27" s="12"/>
+      <c r="T27" s="12"/>
+      <c r="U27" s="12"/>
+      <c r="V27" s="12"/>
+      <c r="W27" s="12"/>
+      <c r="X27" s="12"/>
+      <c r="Y27" s="12"/>
+      <c r="Z27" s="12"/>
+      <c r="AA27" s="12"/>
+      <c r="AB27" s="19"/>
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A28" s="18"/>
+      <c r="B28" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="12"/>
+      <c r="N28" s="12"/>
+      <c r="O28" s="12"/>
+      <c r="P28" s="12"/>
+      <c r="Q28" s="12"/>
+      <c r="R28" s="12"/>
+      <c r="S28" s="12"/>
+      <c r="T28" s="12"/>
+      <c r="U28" s="12"/>
+      <c r="V28" s="12"/>
+      <c r="W28" s="12"/>
+      <c r="X28" s="12"/>
+      <c r="Y28" s="12"/>
+      <c r="Z28" s="12"/>
+      <c r="AA28" s="12"/>
+      <c r="AB28" s="19"/>
+    </row>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A29" s="18"/>
+      <c r="B29" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="12"/>
+      <c r="N29" s="12"/>
+      <c r="O29" s="12"/>
+      <c r="P29" s="12"/>
+      <c r="Q29" s="12"/>
+      <c r="R29" s="12"/>
+      <c r="S29" s="12"/>
+      <c r="T29" s="12"/>
+      <c r="U29" s="12"/>
+      <c r="V29" s="12"/>
+      <c r="W29" s="12"/>
+      <c r="X29" s="12"/>
+      <c r="Y29" s="12"/>
+      <c r="Z29" s="12"/>
+      <c r="AA29" s="12"/>
+      <c r="AB29" s="19"/>
+    </row>
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A30" s="18"/>
+      <c r="B30" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="12"/>
+      <c r="N30" s="12"/>
+      <c r="O30" s="12"/>
+      <c r="P30" s="12"/>
+      <c r="Q30" s="12"/>
+      <c r="R30" s="12"/>
+      <c r="S30" s="12"/>
+      <c r="T30" s="12"/>
+      <c r="U30" s="12"/>
+      <c r="V30" s="12"/>
+      <c r="W30" s="12"/>
+      <c r="X30" s="12"/>
+      <c r="Y30" s="12"/>
+      <c r="Z30" s="12"/>
+      <c r="AA30" s="12"/>
+      <c r="AB30" s="19"/>
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A31" s="18"/>
+      <c r="B31" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="12"/>
+      <c r="M31" s="12"/>
+      <c r="N31" s="12"/>
+      <c r="O31" s="12"/>
+      <c r="P31" s="12"/>
+      <c r="Q31" s="12"/>
+      <c r="R31" s="12"/>
+      <c r="S31" s="12"/>
+      <c r="T31" s="12"/>
+      <c r="U31" s="12"/>
+      <c r="V31" s="12"/>
+      <c r="W31" s="12"/>
+      <c r="X31" s="12"/>
+      <c r="Y31" s="12"/>
+      <c r="Z31" s="12"/>
+      <c r="AA31" s="12"/>
+      <c r="AB31" s="19"/>
+    </row>
+    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A32" s="18"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="12"/>
+      <c r="M32" s="12"/>
+      <c r="N32" s="12"/>
+      <c r="O32" s="12"/>
+      <c r="P32" s="12"/>
+      <c r="Q32" s="12"/>
+      <c r="R32" s="12"/>
+      <c r="S32" s="12"/>
+      <c r="T32" s="12"/>
+      <c r="U32" s="12"/>
+      <c r="V32" s="12"/>
+      <c r="W32" s="12"/>
+      <c r="X32" s="12"/>
+      <c r="Y32" s="12"/>
+      <c r="Z32" s="12"/>
+      <c r="AA32" s="12"/>
+      <c r="AB32" s="19"/>
+    </row>
+    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A33" s="18"/>
+      <c r="B33" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="12"/>
+      <c r="K33" s="12"/>
+      <c r="L33" s="12"/>
+      <c r="M33" s="12"/>
+      <c r="N33" s="12"/>
+      <c r="O33" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="P33" s="12"/>
+      <c r="Q33" s="12"/>
+      <c r="R33" s="12"/>
+      <c r="S33" s="12"/>
+      <c r="T33" s="12"/>
+      <c r="U33" s="12"/>
+      <c r="V33" s="12"/>
+      <c r="W33" s="12"/>
+      <c r="X33" s="12"/>
+      <c r="Y33" s="12"/>
+      <c r="Z33" s="12"/>
+      <c r="AA33" s="12"/>
+      <c r="AB33" s="19"/>
+    </row>
+    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A34" s="18"/>
+      <c r="B34" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="12"/>
+      <c r="L34" s="12"/>
+      <c r="M34" s="12"/>
+      <c r="N34" s="12"/>
+      <c r="O34" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="P34" s="12"/>
+      <c r="Q34" s="12"/>
+      <c r="R34" s="12"/>
+      <c r="S34" s="12"/>
+      <c r="T34" s="12"/>
+      <c r="U34" s="12"/>
+      <c r="V34" s="12"/>
+      <c r="W34" s="12"/>
+      <c r="X34" s="12"/>
+      <c r="Y34" s="12"/>
+      <c r="Z34" s="12"/>
+      <c r="AA34" s="12"/>
+      <c r="AB34" s="19"/>
+    </row>
+    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A35" s="18"/>
+      <c r="B35" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="12"/>
+      <c r="K35" s="12"/>
+      <c r="L35" s="12"/>
+      <c r="M35" s="12"/>
+      <c r="N35" s="12"/>
+      <c r="O35" s="12"/>
+      <c r="P35" s="12"/>
+      <c r="Q35" s="12"/>
+      <c r="R35" s="12"/>
+      <c r="S35" s="12"/>
+      <c r="T35" s="12"/>
+      <c r="U35" s="12"/>
+      <c r="V35" s="12"/>
+      <c r="W35" s="12"/>
+      <c r="X35" s="12"/>
+      <c r="Y35" s="12"/>
+      <c r="Z35" s="12"/>
+      <c r="AA35" s="12"/>
+      <c r="AB35" s="19"/>
+    </row>
+    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A36" s="18"/>
+      <c r="B36" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="L36" s="2"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="12"/>
+      <c r="O36" s="12"/>
+      <c r="P36" s="12"/>
+      <c r="Q36" s="12"/>
+      <c r="R36" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="S36" s="2"/>
+      <c r="T36" s="2"/>
+      <c r="U36" s="3"/>
+      <c r="V36" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="W36" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="X36" s="12"/>
+      <c r="Y36" s="12"/>
+      <c r="Z36" s="12"/>
+      <c r="AA36" s="12"/>
+      <c r="AB36" s="19"/>
+    </row>
+    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A37" s="18"/>
+      <c r="B37" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="12"/>
+      <c r="L37" s="12"/>
+      <c r="M37" s="5"/>
+      <c r="N37" s="12"/>
+      <c r="O37" s="12"/>
+      <c r="P37" s="12"/>
+      <c r="Q37" s="12"/>
+      <c r="R37" s="4"/>
+      <c r="S37" s="12"/>
+      <c r="T37" s="12"/>
+      <c r="U37" s="5"/>
+      <c r="V37" s="12"/>
+      <c r="W37" s="12"/>
+      <c r="X37" s="12"/>
+      <c r="Y37" s="12"/>
+      <c r="Z37" s="12"/>
+      <c r="AA37" s="12"/>
+      <c r="AB37" s="19"/>
+    </row>
+    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A38" s="18"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="12"/>
+      <c r="L38" s="12"/>
+      <c r="M38" s="5"/>
+      <c r="N38" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="O38" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="P38" s="25"/>
+      <c r="Q38" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="R38" s="4"/>
+      <c r="S38" s="12"/>
+      <c r="T38" s="12"/>
+      <c r="U38" s="5"/>
+      <c r="V38" s="12"/>
+      <c r="W38" s="12"/>
+      <c r="X38" s="12"/>
+      <c r="Y38" s="12"/>
+      <c r="Z38" s="12"/>
+      <c r="AA38" s="12"/>
+      <c r="AB38" s="19"/>
+    </row>
+    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A39" s="18"/>
+      <c r="B39" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="12"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="12"/>
+      <c r="L39" s="12"/>
+      <c r="M39" s="5"/>
+      <c r="N39" s="12"/>
+      <c r="O39" s="12"/>
+      <c r="P39" s="12"/>
+      <c r="Q39" s="12"/>
+      <c r="R39" s="4"/>
+      <c r="S39" s="12"/>
+      <c r="T39" s="12"/>
+      <c r="U39" s="5"/>
+      <c r="V39" s="12"/>
+      <c r="W39" s="12"/>
+      <c r="X39" s="12"/>
+      <c r="Y39" s="12"/>
+      <c r="Z39" s="12"/>
+      <c r="AA39" s="12"/>
+      <c r="AB39" s="19"/>
+    </row>
+    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A40" s="18"/>
+      <c r="B40" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="12"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="K40" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="L40" s="8"/>
+      <c r="M40" s="10"/>
+      <c r="N40" s="12"/>
+      <c r="O40" s="12"/>
+      <c r="P40" s="12"/>
+      <c r="Q40" s="12"/>
+      <c r="R40" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="S40" s="8"/>
+      <c r="T40" s="8"/>
+      <c r="U40" s="10"/>
+      <c r="V40" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="W40" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="X40" s="12"/>
+      <c r="Y40" s="12"/>
+      <c r="Z40" s="12"/>
+      <c r="AA40" s="12"/>
+      <c r="AB40" s="19"/>
+    </row>
+    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A41" s="18"/>
+      <c r="B41" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="12"/>
+      <c r="K41" s="12"/>
+      <c r="L41" s="12"/>
+      <c r="M41" s="12"/>
+      <c r="N41" s="12"/>
+      <c r="O41" s="12"/>
+      <c r="P41" s="12"/>
+      <c r="Q41" s="12"/>
+      <c r="R41" s="12"/>
+      <c r="S41" s="12"/>
+      <c r="T41" s="12"/>
+      <c r="U41" s="12"/>
+      <c r="V41" s="12"/>
+      <c r="W41" s="12"/>
+      <c r="X41" s="12"/>
+      <c r="Y41" s="12"/>
+      <c r="Z41" s="12"/>
+      <c r="AA41" s="12"/>
+      <c r="AB41" s="19"/>
+    </row>
+    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A42" s="18"/>
+      <c r="B42" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="12"/>
+      <c r="K42" s="12"/>
+      <c r="L42" s="12"/>
+      <c r="M42" s="12"/>
+      <c r="N42" s="12"/>
+      <c r="O42" s="12"/>
+      <c r="P42" s="12"/>
+      <c r="Q42" s="12"/>
+      <c r="R42" s="12"/>
+      <c r="S42" s="12"/>
+      <c r="T42" s="12"/>
+      <c r="U42" s="12"/>
+      <c r="V42" s="12"/>
+      <c r="W42" s="12"/>
+      <c r="X42" s="12"/>
+      <c r="Y42" s="12"/>
+      <c r="Z42" s="12"/>
+      <c r="AA42" s="12"/>
+      <c r="AB42" s="19"/>
+    </row>
+    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A43" s="18"/>
+      <c r="B43" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="12"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="12"/>
+      <c r="K43" s="12"/>
+      <c r="L43" s="12"/>
+      <c r="M43" s="12"/>
+      <c r="N43" s="12"/>
+      <c r="O43" s="12"/>
+      <c r="P43" s="12"/>
+      <c r="Q43" s="12"/>
+      <c r="R43" s="12"/>
+      <c r="S43" s="12"/>
+      <c r="T43" s="12"/>
+      <c r="U43" s="12"/>
+      <c r="V43" s="12"/>
+      <c r="W43" s="12"/>
+      <c r="X43" s="12"/>
+      <c r="Y43" s="12"/>
+      <c r="Z43" s="12"/>
+      <c r="AA43" s="12"/>
+      <c r="AB43" s="19"/>
+    </row>
+    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A44" s="18"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="12"/>
+      <c r="H44" s="12"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="12"/>
+      <c r="K44" s="12"/>
+      <c r="L44" s="12"/>
+      <c r="M44" s="12"/>
+      <c r="N44" s="12"/>
+      <c r="O44" s="12"/>
+      <c r="P44" s="12"/>
+      <c r="Q44" s="12"/>
+      <c r="R44" s="12"/>
+      <c r="S44" s="12"/>
+      <c r="T44" s="12"/>
+      <c r="U44" s="12"/>
+      <c r="V44" s="12"/>
+      <c r="W44" s="12"/>
+      <c r="X44" s="12"/>
+      <c r="Y44" s="12"/>
+      <c r="Z44" s="12"/>
+      <c r="AA44" s="12"/>
+      <c r="AB44" s="19"/>
+    </row>
+    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A45" s="18"/>
+      <c r="B45" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="12"/>
+      <c r="H45" s="12"/>
+      <c r="I45" s="5"/>
+      <c r="J45" s="12"/>
+      <c r="K45" s="12"/>
+      <c r="L45" s="12"/>
+      <c r="M45" s="12"/>
+      <c r="N45" s="12"/>
+      <c r="O45" s="12"/>
+      <c r="P45" s="12"/>
+      <c r="Q45" s="12"/>
+      <c r="R45" s="12"/>
+      <c r="S45" s="12"/>
+      <c r="T45" s="12"/>
+      <c r="U45" s="12"/>
+      <c r="V45" s="12"/>
+      <c r="W45" s="12"/>
+      <c r="X45" s="12"/>
+      <c r="Y45" s="12"/>
+      <c r="Z45" s="12"/>
+      <c r="AA45" s="12"/>
+      <c r="AB45" s="19"/>
+    </row>
+    <row r="46" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A46" s="18"/>
+      <c r="B46" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="12"/>
+      <c r="H46" s="12"/>
+      <c r="I46" s="5"/>
+      <c r="J46" s="12"/>
+      <c r="K46" s="12"/>
+      <c r="L46" s="12"/>
+      <c r="M46" s="12"/>
+      <c r="N46" s="12"/>
+      <c r="O46" s="12"/>
+      <c r="P46" s="12"/>
+      <c r="Q46" s="12"/>
+      <c r="R46" s="12"/>
+      <c r="S46" s="12"/>
+      <c r="T46" s="12"/>
+      <c r="U46" s="12"/>
+      <c r="V46" s="12"/>
+      <c r="W46" s="12"/>
+      <c r="X46" s="12"/>
+      <c r="Y46" s="12"/>
+      <c r="Z46" s="12"/>
+      <c r="AA46" s="12"/>
+      <c r="AB46" s="19"/>
+    </row>
+    <row r="47" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A47" s="18"/>
+      <c r="B47" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="12"/>
+      <c r="H47" s="12"/>
+      <c r="I47" s="5"/>
+      <c r="J47" s="12"/>
+      <c r="K47" s="12"/>
+      <c r="L47" s="12"/>
+      <c r="M47" s="12"/>
+      <c r="N47" s="12"/>
+      <c r="O47" s="12"/>
+      <c r="P47" s="12"/>
+      <c r="Q47" s="12"/>
+      <c r="R47" s="12"/>
+      <c r="S47" s="12"/>
+      <c r="T47" s="12"/>
+      <c r="U47" s="12"/>
+      <c r="V47" s="12"/>
+      <c r="W47" s="12"/>
+      <c r="X47" s="12"/>
+      <c r="Y47" s="12"/>
+      <c r="Z47" s="12"/>
+      <c r="AA47" s="12"/>
+      <c r="AB47" s="19"/>
+    </row>
+    <row r="48" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A48" s="18"/>
+      <c r="B48" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="12"/>
+      <c r="H48" s="12"/>
+      <c r="I48" s="5"/>
+      <c r="J48" s="12"/>
+      <c r="K48" s="12"/>
+      <c r="L48" s="12"/>
+      <c r="M48" s="12"/>
+      <c r="N48" s="12"/>
+      <c r="O48" s="12"/>
+      <c r="P48" s="12"/>
+      <c r="Q48" s="12"/>
+      <c r="R48" s="12"/>
+      <c r="S48" s="12"/>
+      <c r="T48" s="12"/>
+      <c r="U48" s="12"/>
+      <c r="V48" s="12"/>
+      <c r="W48" s="12"/>
+      <c r="X48" s="12"/>
+      <c r="Y48" s="12"/>
+      <c r="Z48" s="12"/>
+      <c r="AA48" s="12"/>
+      <c r="AB48" s="19"/>
+    </row>
+    <row r="49" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A49" s="18"/>
+      <c r="B49" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="12"/>
+      <c r="H49" s="12"/>
+      <c r="I49" s="5"/>
+      <c r="J49" s="12"/>
+      <c r="K49" s="12"/>
+      <c r="L49" s="12"/>
+      <c r="M49" s="12"/>
+      <c r="N49" s="12"/>
+      <c r="O49" s="12"/>
+      <c r="P49" s="12"/>
+      <c r="Q49" s="12"/>
+      <c r="R49" s="12"/>
+      <c r="S49" s="12"/>
+      <c r="T49" s="12"/>
+      <c r="U49" s="12"/>
+      <c r="V49" s="12"/>
+      <c r="W49" s="12"/>
+      <c r="X49" s="12"/>
+      <c r="Y49" s="12"/>
+      <c r="Z49" s="12"/>
+      <c r="AA49" s="12"/>
+      <c r="AB49" s="19"/>
+    </row>
+    <row r="50" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A50" s="18"/>
+      <c r="B50" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C50" s="12"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="12"/>
+      <c r="H50" s="12"/>
+      <c r="I50" s="5"/>
+      <c r="J50" s="12"/>
+      <c r="K50" s="12"/>
+      <c r="L50" s="12"/>
+      <c r="M50" s="12"/>
+      <c r="N50" s="12"/>
+      <c r="O50" s="12"/>
+      <c r="P50" s="12"/>
+      <c r="Q50" s="12"/>
+      <c r="R50" s="12"/>
+      <c r="S50" s="12"/>
+      <c r="T50" s="12"/>
+      <c r="U50" s="12"/>
+      <c r="V50" s="12"/>
+      <c r="W50" s="12"/>
+      <c r="X50" s="12"/>
+      <c r="Y50" s="12"/>
+      <c r="Z50" s="12"/>
+      <c r="AA50" s="12"/>
+      <c r="AB50" s="19"/>
+    </row>
+    <row r="51" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A51" s="18"/>
+      <c r="B51" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c r="H51" s="8"/>
+      <c r="I51" s="10"/>
+      <c r="J51" s="12"/>
+      <c r="K51" s="12"/>
+      <c r="L51" s="12"/>
+      <c r="M51" s="12"/>
+      <c r="N51" s="12"/>
+      <c r="O51" s="12"/>
+      <c r="P51" s="12"/>
+      <c r="Q51" s="12"/>
+      <c r="R51" s="12"/>
+      <c r="S51" s="12"/>
+      <c r="T51" s="12"/>
+      <c r="U51" s="12"/>
+      <c r="V51" s="12"/>
+      <c r="W51" s="12"/>
+      <c r="X51" s="12"/>
+      <c r="Y51" s="12"/>
+      <c r="Z51" s="12"/>
+      <c r="AA51" s="12"/>
+      <c r="AB51" s="19"/>
+    </row>
+    <row r="52" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A52" s="18"/>
+      <c r="B52" s="12"/>
+      <c r="C52" s="12"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="12"/>
+      <c r="F52" s="12"/>
+      <c r="G52" s="12"/>
+      <c r="H52" s="12"/>
+      <c r="I52" s="12"/>
+      <c r="J52" s="12"/>
+      <c r="K52" s="12"/>
+      <c r="L52" s="12"/>
+      <c r="M52" s="12"/>
+      <c r="N52" s="12"/>
+      <c r="O52" s="12"/>
+      <c r="P52" s="12"/>
+      <c r="Q52" s="12"/>
+      <c r="R52" s="12"/>
+      <c r="S52" s="12"/>
+      <c r="T52" s="12"/>
+      <c r="U52" s="12"/>
+      <c r="V52" s="12"/>
+      <c r="W52" s="12"/>
+      <c r="X52" s="12"/>
+      <c r="Y52" s="12"/>
+      <c r="Z52" s="12"/>
+      <c r="AA52" s="12"/>
+      <c r="AB52" s="19"/>
+    </row>
+    <row r="53" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A53" s="18"/>
+      <c r="B53" s="12"/>
+      <c r="C53" s="12"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="12"/>
+      <c r="F53" s="12"/>
+      <c r="G53" s="12"/>
+      <c r="H53" s="12"/>
+      <c r="I53" s="12"/>
+      <c r="J53" s="12"/>
+      <c r="K53" s="12"/>
+      <c r="L53" s="12"/>
+      <c r="M53" s="12"/>
+      <c r="N53" s="12"/>
+      <c r="O53" s="12"/>
+      <c r="P53" s="12"/>
+      <c r="Q53" s="12"/>
+      <c r="R53" s="12"/>
+      <c r="S53" s="12"/>
+      <c r="T53" s="12"/>
+      <c r="U53" s="12"/>
+      <c r="V53" s="12"/>
+      <c r="W53" s="12"/>
+      <c r="X53" s="12"/>
+      <c r="Y53" s="12"/>
+      <c r="Z53" s="12"/>
+      <c r="AA53" s="12"/>
+      <c r="AB53" s="19"/>
+    </row>
+    <row r="54" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A54" s="18"/>
+      <c r="B54" s="12"/>
+      <c r="C54" s="12"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="12"/>
+      <c r="G54" s="12"/>
+      <c r="H54" s="12"/>
+      <c r="I54" s="12"/>
+      <c r="J54" s="12"/>
+      <c r="K54" s="12"/>
+      <c r="L54" s="12"/>
+      <c r="M54" s="12"/>
+      <c r="N54" s="12"/>
+      <c r="O54" s="12"/>
+      <c r="P54" s="12"/>
+      <c r="Q54" s="12"/>
+      <c r="R54" s="12"/>
+      <c r="S54" s="12"/>
+      <c r="T54" s="12"/>
+      <c r="U54" s="12"/>
+      <c r="V54" s="12"/>
+      <c r="W54" s="12"/>
+      <c r="X54" s="12"/>
+      <c r="Y54" s="12"/>
+      <c r="Z54" s="12"/>
+      <c r="AA54" s="12"/>
+      <c r="AB54" s="19"/>
+    </row>
+    <row r="55" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A55" s="18"/>
+      <c r="B55" s="12"/>
+      <c r="C55" s="12"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="12"/>
+      <c r="G55" s="12"/>
+      <c r="H55" s="12"/>
+      <c r="I55" s="12"/>
+      <c r="J55" s="12"/>
+      <c r="K55" s="12"/>
+      <c r="L55" s="12"/>
+      <c r="M55" s="12"/>
+      <c r="N55" s="12"/>
+      <c r="O55" s="12"/>
+      <c r="P55" s="12"/>
+      <c r="Q55" s="12"/>
+      <c r="R55" s="12"/>
+      <c r="S55" s="12"/>
+      <c r="T55" s="12"/>
+      <c r="U55" s="12"/>
+      <c r="V55" s="12"/>
+      <c r="W55" s="12"/>
+      <c r="X55" s="12"/>
+      <c r="Y55" s="12"/>
+      <c r="Z55" s="12"/>
+      <c r="AA55" s="12"/>
+      <c r="AB55" s="19"/>
+    </row>
+    <row r="56" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A56" s="18"/>
+      <c r="B56" s="12"/>
+      <c r="C56" s="12"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="12"/>
+      <c r="F56" s="12"/>
+      <c r="G56" s="12"/>
+      <c r="H56" s="12"/>
+      <c r="I56" s="12"/>
+      <c r="J56" s="12"/>
+      <c r="K56" s="12"/>
+      <c r="L56" s="12"/>
+      <c r="M56" s="12"/>
+      <c r="N56" s="12"/>
+      <c r="O56" s="12"/>
+      <c r="P56" s="12"/>
+      <c r="Q56" s="12"/>
+      <c r="R56" s="12"/>
+      <c r="S56" s="12"/>
+      <c r="T56" s="12"/>
+      <c r="U56" s="12"/>
+      <c r="V56" s="12"/>
+      <c r="W56" s="12"/>
+      <c r="X56" s="12"/>
+      <c r="Y56" s="12"/>
+      <c r="Z56" s="12"/>
+      <c r="AA56" s="12"/>
+      <c r="AB56" s="19"/>
+    </row>
+    <row r="57" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A57" s="18"/>
+      <c r="B57" s="12"/>
+      <c r="C57" s="12"/>
+      <c r="D57" s="12"/>
+      <c r="E57" s="12"/>
+      <c r="F57" s="12"/>
+      <c r="G57" s="12"/>
+      <c r="H57" s="12"/>
+      <c r="I57" s="12"/>
+      <c r="J57" s="12"/>
+      <c r="K57" s="12"/>
+      <c r="L57" s="12"/>
+      <c r="M57" s="12"/>
+      <c r="N57" s="12"/>
+      <c r="O57" s="12"/>
+      <c r="P57" s="12"/>
+      <c r="Q57" s="12"/>
+      <c r="R57" s="12"/>
+      <c r="S57" s="12"/>
+      <c r="T57" s="12"/>
+      <c r="U57" s="12"/>
+      <c r="V57" s="12"/>
+      <c r="W57" s="12"/>
+      <c r="X57" s="12"/>
+      <c r="Y57" s="12"/>
+      <c r="Z57" s="12"/>
+      <c r="AA57" s="12"/>
+      <c r="AB57" s="19"/>
+    </row>
+    <row r="58" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A58" s="18"/>
+      <c r="B58" s="12"/>
+      <c r="C58" s="12"/>
+      <c r="D58" s="12"/>
+      <c r="E58" s="12"/>
+      <c r="F58" s="12"/>
+      <c r="G58" s="12"/>
+      <c r="H58" s="12"/>
+      <c r="I58" s="12"/>
+      <c r="J58" s="12"/>
+      <c r="K58" s="12"/>
+      <c r="L58" s="12"/>
+      <c r="M58" s="12"/>
+      <c r="N58" s="12"/>
+      <c r="O58" s="12"/>
+      <c r="P58" s="12"/>
+      <c r="Q58" s="12"/>
+      <c r="R58" s="12"/>
+      <c r="S58" s="12"/>
+      <c r="T58" s="12"/>
+      <c r="U58" s="12"/>
+      <c r="V58" s="12"/>
+      <c r="W58" s="12"/>
+      <c r="X58" s="12"/>
+      <c r="Y58" s="12"/>
+      <c r="Z58" s="12"/>
+      <c r="AA58" s="12"/>
+      <c r="AB58" s="19"/>
+    </row>
+    <row r="59" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A59" s="18"/>
+      <c r="B59" s="12"/>
+      <c r="C59" s="12"/>
+      <c r="D59" s="12"/>
+      <c r="E59" s="12"/>
+      <c r="F59" s="12"/>
+      <c r="G59" s="12"/>
+      <c r="H59" s="12"/>
+      <c r="I59" s="12"/>
+      <c r="J59" s="12"/>
+      <c r="K59" s="12"/>
+      <c r="L59" s="12"/>
+      <c r="M59" s="12"/>
+      <c r="N59" s="12"/>
+      <c r="O59" s="12"/>
+      <c r="P59" s="12"/>
+      <c r="Q59" s="12"/>
+      <c r="R59" s="12"/>
+      <c r="S59" s="12"/>
+      <c r="T59" s="12"/>
+      <c r="U59" s="12"/>
+      <c r="V59" s="12"/>
+      <c r="W59" s="12"/>
+      <c r="X59" s="12"/>
+      <c r="Y59" s="12"/>
+      <c r="Z59" s="12"/>
+      <c r="AA59" s="12"/>
+      <c r="AB59" s="19"/>
+    </row>
+    <row r="60" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A60" s="18"/>
+      <c r="B60" s="12"/>
+      <c r="C60" s="12"/>
+      <c r="D60" s="12"/>
+      <c r="E60" s="12"/>
+      <c r="F60" s="12"/>
+      <c r="G60" s="12"/>
+      <c r="H60" s="12"/>
+      <c r="I60" s="12"/>
+      <c r="J60" s="12"/>
+      <c r="K60" s="12"/>
+      <c r="L60" s="12"/>
+      <c r="M60" s="12"/>
+      <c r="N60" s="12"/>
+      <c r="O60" s="12"/>
+      <c r="P60" s="12"/>
+      <c r="Q60" s="12"/>
+      <c r="R60" s="12"/>
+      <c r="S60" s="12"/>
+      <c r="T60" s="12"/>
+      <c r="U60" s="12"/>
+      <c r="V60" s="12"/>
+      <c r="W60" s="12"/>
+      <c r="X60" s="12"/>
+      <c r="Y60" s="12"/>
+      <c r="Z60" s="12"/>
+      <c r="AA60" s="12"/>
+      <c r="AB60" s="19"/>
+    </row>
+    <row r="61" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A61" s="18"/>
+      <c r="B61" s="12"/>
+      <c r="C61" s="12"/>
+      <c r="D61" s="12"/>
+      <c r="E61" s="12"/>
+      <c r="F61" s="12"/>
+      <c r="G61" s="12"/>
+      <c r="H61" s="12"/>
+      <c r="I61" s="12"/>
+      <c r="J61" s="12"/>
+      <c r="K61" s="12"/>
+      <c r="L61" s="12"/>
+      <c r="M61" s="12"/>
+      <c r="N61" s="12"/>
+      <c r="O61" s="12"/>
+      <c r="P61" s="12"/>
+      <c r="Q61" s="12"/>
+      <c r="R61" s="12"/>
+      <c r="S61" s="12"/>
+      <c r="T61" s="12"/>
+      <c r="U61" s="12"/>
+      <c r="V61" s="12"/>
+      <c r="W61" s="12"/>
+      <c r="X61" s="12"/>
+      <c r="Y61" s="12"/>
+      <c r="Z61" s="12"/>
+      <c r="AA61" s="12"/>
+      <c r="AB61" s="19"/>
+    </row>
+    <row r="62" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A62" s="18"/>
+      <c r="B62" s="12"/>
+      <c r="C62" s="12"/>
+      <c r="D62" s="12"/>
+      <c r="E62" s="12"/>
+      <c r="F62" s="12"/>
+      <c r="G62" s="12"/>
+      <c r="H62" s="12"/>
+      <c r="I62" s="12"/>
+      <c r="J62" s="12"/>
+      <c r="K62" s="12"/>
+      <c r="L62" s="12"/>
+      <c r="M62" s="12"/>
+      <c r="N62" s="12"/>
+      <c r="O62" s="12"/>
+      <c r="P62" s="12"/>
+      <c r="Q62" s="12"/>
+      <c r="R62" s="12"/>
+      <c r="S62" s="12"/>
+      <c r="T62" s="12"/>
+      <c r="U62" s="12"/>
+      <c r="V62" s="12"/>
+      <c r="W62" s="12"/>
+      <c r="X62" s="12"/>
+      <c r="Y62" s="12"/>
+      <c r="Z62" s="12"/>
+      <c r="AA62" s="12"/>
+      <c r="AB62" s="19"/>
+    </row>
+    <row r="63" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A63" s="18"/>
+      <c r="B63" s="12"/>
+      <c r="C63" s="12"/>
+      <c r="D63" s="12"/>
+      <c r="E63" s="12"/>
+      <c r="F63" s="12"/>
+      <c r="G63" s="12"/>
+      <c r="H63" s="12"/>
+      <c r="I63" s="12"/>
+      <c r="J63" s="12"/>
+      <c r="K63" s="12"/>
+      <c r="L63" s="12"/>
+      <c r="M63" s="12"/>
+      <c r="N63" s="12"/>
+      <c r="O63" s="12"/>
+      <c r="P63" s="12"/>
+      <c r="Q63" s="12"/>
+      <c r="R63" s="12"/>
+      <c r="S63" s="12"/>
+      <c r="T63" s="12"/>
+      <c r="U63" s="12"/>
+      <c r="V63" s="12"/>
+      <c r="W63" s="12"/>
+      <c r="X63" s="12"/>
+      <c r="Y63" s="12"/>
+      <c r="Z63" s="12"/>
+      <c r="AA63" s="12"/>
+      <c r="AB63" s="19"/>
+    </row>
+    <row r="64" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A64" s="18"/>
+      <c r="B64" s="12"/>
+      <c r="C64" s="12"/>
+      <c r="D64" s="12"/>
+      <c r="E64" s="12"/>
+      <c r="F64" s="12"/>
+      <c r="G64" s="12"/>
+      <c r="H64" s="12"/>
+      <c r="I64" s="12"/>
+      <c r="J64" s="12"/>
+      <c r="K64" s="12"/>
+      <c r="L64" s="12"/>
+      <c r="M64" s="12"/>
+      <c r="N64" s="12"/>
+      <c r="O64" s="12"/>
+      <c r="P64" s="12"/>
+      <c r="Q64" s="12"/>
+      <c r="R64" s="12"/>
+      <c r="S64" s="12"/>
+      <c r="T64" s="12"/>
+      <c r="U64" s="12"/>
+      <c r="V64" s="12"/>
+      <c r="W64" s="12"/>
+      <c r="X64" s="12"/>
+      <c r="Y64" s="12"/>
+      <c r="Z64" s="12"/>
+      <c r="AA64" s="12"/>
+      <c r="AB64" s="19"/>
+    </row>
+    <row r="65" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A65" s="18"/>
+      <c r="B65" s="12"/>
+      <c r="C65" s="12"/>
+      <c r="D65" s="12"/>
+      <c r="E65" s="12"/>
+      <c r="F65" s="12"/>
+      <c r="G65" s="12"/>
+      <c r="H65" s="12"/>
+      <c r="I65" s="12"/>
+      <c r="J65" s="12"/>
+      <c r="K65" s="12"/>
+      <c r="L65" s="12"/>
+      <c r="M65" s="12"/>
+      <c r="N65" s="12"/>
+      <c r="O65" s="12"/>
+      <c r="P65" s="12"/>
+      <c r="Q65" s="12"/>
+      <c r="R65" s="12"/>
+      <c r="S65" s="12"/>
+      <c r="T65" s="12"/>
+      <c r="U65" s="12"/>
+      <c r="V65" s="12"/>
+      <c r="W65" s="12"/>
+      <c r="X65" s="12"/>
+      <c r="Y65" s="12"/>
+      <c r="Z65" s="12"/>
+      <c r="AA65" s="12"/>
+      <c r="AB65" s="19"/>
+    </row>
+    <row r="66" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A66" s="18"/>
+      <c r="B66" s="12"/>
+      <c r="C66" s="12"/>
+      <c r="D66" s="12"/>
+      <c r="E66" s="12"/>
+      <c r="F66" s="12"/>
+      <c r="G66" s="12"/>
+      <c r="H66" s="12"/>
+      <c r="I66" s="12"/>
+      <c r="J66" s="12"/>
+      <c r="K66" s="12"/>
+      <c r="L66" s="12"/>
+      <c r="M66" s="12"/>
+      <c r="N66" s="12"/>
+      <c r="O66" s="12"/>
+      <c r="P66" s="12"/>
+      <c r="Q66" s="12"/>
+      <c r="R66" s="12"/>
+      <c r="S66" s="12"/>
+      <c r="T66" s="12"/>
+      <c r="U66" s="12"/>
+      <c r="V66" s="12"/>
+      <c r="W66" s="12"/>
+      <c r="X66" s="12"/>
+      <c r="Y66" s="12"/>
+      <c r="Z66" s="12"/>
+      <c r="AA66" s="12"/>
+      <c r="AB66" s="19"/>
+    </row>
+    <row r="67" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A67" s="18"/>
+      <c r="B67" s="12"/>
+      <c r="C67" s="12"/>
+      <c r="D67" s="12"/>
+      <c r="E67" s="12"/>
+      <c r="F67" s="12"/>
+      <c r="G67" s="12"/>
+      <c r="H67" s="12"/>
+      <c r="I67" s="12"/>
+      <c r="J67" s="12"/>
+      <c r="K67" s="12"/>
+      <c r="L67" s="12"/>
+      <c r="M67" s="12"/>
+      <c r="N67" s="12"/>
+      <c r="O67" s="12"/>
+      <c r="P67" s="12"/>
+      <c r="Q67" s="12"/>
+      <c r="R67" s="12"/>
+      <c r="S67" s="12"/>
+      <c r="T67" s="12"/>
+      <c r="U67" s="12"/>
+      <c r="V67" s="12"/>
+      <c r="W67" s="12"/>
+      <c r="X67" s="12"/>
+      <c r="Y67" s="12"/>
+      <c r="Z67" s="12"/>
+      <c r="AA67" s="12"/>
+      <c r="AB67" s="19"/>
+    </row>
+    <row r="68" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A68" s="18"/>
+      <c r="B68" s="12"/>
+      <c r="C68" s="12"/>
+      <c r="D68" s="12"/>
+      <c r="E68" s="12"/>
+      <c r="F68" s="12"/>
+      <c r="G68" s="12"/>
+      <c r="H68" s="12"/>
+      <c r="I68" s="12"/>
+      <c r="J68" s="12"/>
+      <c r="K68" s="12"/>
+      <c r="L68" s="12"/>
+      <c r="M68" s="12"/>
+      <c r="N68" s="12"/>
+      <c r="O68" s="12"/>
+      <c r="P68" s="12"/>
+      <c r="Q68" s="12"/>
+      <c r="R68" s="12"/>
+      <c r="S68" s="12"/>
+      <c r="T68" s="12"/>
+      <c r="U68" s="12"/>
+      <c r="V68" s="12"/>
+      <c r="W68" s="12"/>
+      <c r="X68" s="12"/>
+      <c r="Y68" s="12"/>
+      <c r="Z68" s="12"/>
+      <c r="AA68" s="12"/>
+      <c r="AB68" s="19"/>
+    </row>
+    <row r="69" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A69" s="18"/>
+      <c r="B69" s="12"/>
+      <c r="C69" s="12"/>
+      <c r="D69" s="12"/>
+      <c r="E69" s="12"/>
+      <c r="F69" s="12"/>
+      <c r="G69" s="12"/>
+      <c r="H69" s="12"/>
+      <c r="I69" s="12"/>
+      <c r="J69" s="12"/>
+      <c r="K69" s="12"/>
+      <c r="L69" s="12"/>
+      <c r="M69" s="12"/>
+      <c r="N69" s="12"/>
+      <c r="O69" s="12"/>
+      <c r="P69" s="12"/>
+      <c r="Q69" s="12"/>
+      <c r="R69" s="12"/>
+      <c r="S69" s="12"/>
+      <c r="T69" s="12"/>
+      <c r="U69" s="12"/>
+      <c r="V69" s="12"/>
+      <c r="W69" s="12"/>
+      <c r="X69" s="12"/>
+      <c r="Y69" s="12"/>
+      <c r="Z69" s="12"/>
+      <c r="AA69" s="12"/>
+      <c r="AB69" s="19"/>
+    </row>
+    <row r="70" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A70" s="18"/>
+      <c r="B70" s="12"/>
+      <c r="C70" s="12"/>
+      <c r="D70" s="12"/>
+      <c r="E70" s="12"/>
+      <c r="F70" s="12"/>
+      <c r="G70" s="12"/>
+      <c r="H70" s="12"/>
+      <c r="I70" s="12"/>
+      <c r="J70" s="12"/>
+      <c r="K70" s="12"/>
+      <c r="L70" s="12"/>
+      <c r="M70" s="12"/>
+      <c r="N70" s="12"/>
+      <c r="O70" s="12"/>
+      <c r="P70" s="12"/>
+      <c r="Q70" s="12"/>
+      <c r="R70" s="12"/>
+      <c r="S70" s="12"/>
+      <c r="T70" s="12"/>
+      <c r="U70" s="12"/>
+      <c r="V70" s="12"/>
+      <c r="W70" s="12"/>
+      <c r="X70" s="12"/>
+      <c r="Y70" s="12"/>
+      <c r="Z70" s="12"/>
+      <c r="AA70" s="12"/>
+      <c r="AB70" s="19"/>
+    </row>
+    <row r="71" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A71" s="18"/>
+      <c r="B71" s="12"/>
+      <c r="C71" s="12"/>
+      <c r="D71" s="12"/>
+      <c r="E71" s="12"/>
+      <c r="F71" s="12"/>
+      <c r="G71" s="12"/>
+      <c r="H71" s="12"/>
+      <c r="I71" s="12"/>
+      <c r="J71" s="12"/>
+      <c r="K71" s="12"/>
+      <c r="L71" s="12"/>
+      <c r="M71" s="12"/>
+      <c r="N71" s="12"/>
+      <c r="O71" s="12"/>
+      <c r="P71" s="12"/>
+      <c r="Q71" s="12"/>
+      <c r="R71" s="12"/>
+      <c r="S71" s="12"/>
+      <c r="T71" s="12"/>
+      <c r="U71" s="12"/>
+      <c r="V71" s="12"/>
+      <c r="W71" s="12"/>
+      <c r="X71" s="12"/>
+      <c r="Y71" s="12"/>
+      <c r="Z71" s="12"/>
+      <c r="AA71" s="12"/>
+      <c r="AB71" s="19"/>
+    </row>
+    <row r="72" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A72" s="18"/>
+      <c r="B72" s="12"/>
+      <c r="C72" s="12"/>
+      <c r="D72" s="12"/>
+      <c r="E72" s="12"/>
+      <c r="F72" s="12"/>
+      <c r="G72" s="12"/>
+      <c r="H72" s="12"/>
+      <c r="I72" s="12"/>
+      <c r="J72" s="12"/>
+      <c r="K72" s="12"/>
+      <c r="L72" s="12"/>
+      <c r="M72" s="12"/>
+      <c r="N72" s="12"/>
+      <c r="O72" s="12"/>
+      <c r="P72" s="12"/>
+      <c r="Q72" s="12"/>
+      <c r="R72" s="12"/>
+      <c r="S72" s="12"/>
+      <c r="T72" s="12"/>
+      <c r="U72" s="12"/>
+      <c r="V72" s="12"/>
+      <c r="W72" s="12"/>
+      <c r="X72" s="12"/>
+      <c r="Y72" s="12"/>
+      <c r="Z72" s="12"/>
+      <c r="AA72" s="12"/>
+      <c r="AB72" s="19"/>
+    </row>
+    <row r="73" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="21"/>
+      <c r="B73" s="22"/>
+      <c r="C73" s="22"/>
+      <c r="D73" s="22"/>
+      <c r="E73" s="22"/>
+      <c r="F73" s="22"/>
+      <c r="G73" s="22"/>
+      <c r="H73" s="22"/>
+      <c r="I73" s="22"/>
+      <c r="J73" s="22"/>
+      <c r="K73" s="22"/>
+      <c r="L73" s="22"/>
+      <c r="M73" s="22"/>
+      <c r="N73" s="22"/>
+      <c r="O73" s="22"/>
+      <c r="P73" s="22"/>
+      <c r="Q73" s="22"/>
+      <c r="R73" s="22"/>
+      <c r="S73" s="22"/>
+      <c r="T73" s="22"/>
+      <c r="U73" s="22"/>
+      <c r="V73" s="22"/>
+      <c r="W73" s="22"/>
+      <c r="X73" s="22"/>
+      <c r="Y73" s="22"/>
+      <c r="Z73" s="22"/>
+      <c r="AA73" s="22"/>
+      <c r="AB73" s="23"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/me/3.Flex-Items.xlsx
+++ b/me/3.Flex-Items.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\flexbox\me\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDFB2886-FD7C-45B4-B713-247775CBAFF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C67FE060-DE3C-4299-B327-C110213CAF6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Order" sheetId="1" r:id="rId1"/>
     <sheet name="Flex basis" sheetId="2" r:id="rId2"/>
     <sheet name="Flex grow" sheetId="3" r:id="rId3"/>
+    <sheet name="Flex shrink" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="104">
   <si>
     <t>構成</t>
   </si>
@@ -288,6 +289,57 @@
   </si>
   <si>
     <t>200px là tổng chiều rộng ban đầu của 2 flex item</t>
+  </si>
+  <si>
+    <t>4.Flex-shrink</t>
+  </si>
+  <si>
+    <t>flexbox\3.Flex-Items\4.Flex-shrink\index.html</t>
+  </si>
+  <si>
+    <t>Giá trị mặc định là 0</t>
+  </si>
+  <si>
+    <t>      /* flex-shrink: default value - 1 */</t>
+  </si>
+  <si>
+    <t>        max-width: 800px;</t>
+  </si>
+  <si>
+    <t>        flex-basis: 300px;</t>
+  </si>
+  <si>
+    <t>        flex-shrink: 1;</t>
+  </si>
+  <si>
+    <t>        flex-shrink: 4;</t>
+  </si>
+  <si>
+    <t>Thuộc tính flex-shrink ngược lại với thuộc tính flex-grow. Thuộc tính flex-grow áp dụng khi muốn giãn các phần tử flex item để lấp đầy độ rộng của flex container</t>
+  </si>
+  <si>
+    <t>Thuộc tính flex-shrink được áp dụng khi muốn co độ rộng các flex item khi độ rộng của flex container giảm xuống</t>
+  </si>
+  <si>
+    <t>Giá trị mặc định là 1</t>
+  </si>
+  <si>
+    <t>Ban đầu mỗi box có chiều rộng là 300px</t>
+  </si>
+  <si>
+    <t>Trạng thái ban đầu của trình duyệt thì flex container rộng 800px</t>
+  </si>
+  <si>
+    <t>Vậy phần co lại là 300-292.8=7.2px</t>
+  </si>
+  <si>
+    <t>Vậy phần co lại là 300-271.2=28.8px(gấp 4 lần phần co lại của box 1)</t>
+  </si>
+  <si>
+    <t>Sau khi co trình duyệt lại để flex container có chiều rộng là 564px(ko tính border) thì box 1 co lại rộng 292.8px</t>
+  </si>
+  <si>
+    <t>Sau khi co trình duyệt lại để flex container có chiều rộng là 564px(ko tính border) thì box 1 co lại rộng 271.2px</t>
   </si>
 </sst>
 </file>
@@ -1554,13 +1606,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1576,7 +1628,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1876425" y="6581775"/>
+          <a:off x="1876425" y="6781800"/>
           <a:ext cx="4705350" cy="142875"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -1607,13 +1659,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1629,7 +1681,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1885950" y="6581775"/>
+          <a:off x="1885950" y="6781800"/>
           <a:ext cx="4657725" cy="914400"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -1660,13 +1712,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>85724</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>454629</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1690,7 +1742,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5724525" y="7896224"/>
+          <a:off x="5724525" y="8096249"/>
           <a:ext cx="11246454" cy="5743576"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1704,13 +1756,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1726,7 +1778,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9086850" y="7200900"/>
+          <a:off x="9086850" y="7400925"/>
           <a:ext cx="5314950" cy="4486275"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -1757,13 +1809,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1779,7 +1831,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="8620125" y="6477000"/>
+          <a:off x="8620125" y="6677025"/>
           <a:ext cx="438150" cy="609600"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -1810,13 +1862,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1832,7 +1884,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="7286625" y="6819900"/>
+          <a:off x="7286625" y="7019925"/>
           <a:ext cx="4724400" cy="2066925"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -1863,13 +1915,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1885,7 +1937,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="10725150" y="7591425"/>
+          <a:off x="10725150" y="7791450"/>
           <a:ext cx="1428750" cy="1362075"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -1916,13 +1968,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1938,7 +1990,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="8867775" y="6267450"/>
+          <a:off x="8867775" y="6457950"/>
           <a:ext cx="390525" cy="847725"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -1969,13 +2021,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1991,7 +2043,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="6791325" y="6219825"/>
+          <a:off x="6791325" y="6410325"/>
           <a:ext cx="1771650" cy="533400"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -2022,13 +2074,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2044,7 +2096,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="6772275" y="6229350"/>
+          <a:off x="6772275" y="6419850"/>
           <a:ext cx="1800225" cy="1266825"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -2075,13 +2127,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2097,8 +2149,631 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1943100" y="5638800"/>
+          <a:off x="1943100" y="5829300"/>
           <a:ext cx="6877050" cy="1504950"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>33399</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D63DC286-65F0-9438-7225-92B4AF09F6CC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6172200" y="8877299"/>
+          <a:ext cx="4276725" cy="4110100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>456963</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>142586</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9F18284-02E0-BC42-9AD0-2F45C027AFAD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6124575" y="3552825"/>
+          <a:ext cx="7743588" cy="2114261"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Arrow Connector 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A86AD4B-CA06-B23C-359D-CEAB97E1AB1D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1990725" y="5324475"/>
+          <a:ext cx="9782175" cy="704850"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Straight Arrow Connector 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AFCBBE2-4116-408C-3850-50777BB75135}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1914525" y="5038725"/>
+          <a:ext cx="6143625" cy="1943100"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Straight Arrow Connector 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB1F7FB6-F4A5-236F-58C5-5609D3D12BA3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1914525" y="5076825"/>
+          <a:ext cx="8039100" cy="1914525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Straight Arrow Connector 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A692657-451E-924A-97B2-382A85B2779F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7372350" y="7762875"/>
+          <a:ext cx="2305050" cy="2676525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="Straight Arrow Connector 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEC213B7-1550-2819-68CC-A0E1A9058C1C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7362825" y="8543925"/>
+          <a:ext cx="2343150" cy="1924050"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="Straight Arrow Connector 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1E0956E-58DE-C5DF-AC73-C42A403E5055}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1828800" y="7029450"/>
+          <a:ext cx="5362575" cy="866775"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="Straight Arrow Connector 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0384A215-2775-5106-949F-A96D6AB52B30}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1828800" y="7048500"/>
+          <a:ext cx="5334000" cy="1590675"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="Straight Arrow Connector 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7144E1A0-CF2C-50E5-D037-023A39F5FC3F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7334250" y="7743825"/>
+          <a:ext cx="4762500" cy="1924050"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="Straight Arrow Connector 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBB181B9-2F66-1A32-54B1-E3AB1A47E620}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="10058400" y="8543925"/>
+          <a:ext cx="2076450" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DBC237D-C138-98BB-CF35-4B24B13C7891}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1695450" y="8515350"/>
+          <a:ext cx="6753225" cy="209550"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -7057,10 +7732,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF4F6427-B0A5-4E3E-BE91-72AE0B6BAAAB}">
-  <dimension ref="A2:AB73"/>
+  <dimension ref="A2:AB74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="L30" sqref="L30"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7078,165 +7753,138 @@
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="4" t="s">
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="5"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="13" t="s">
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="13" t="s">
         <v>10</v>
-      </c>
-      <c r="F8" s="5"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="4"/>
-      <c r="C9" s="14" t="s">
-        <v>3</v>
       </c>
       <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B10" s="4"/>
       <c r="C10" s="14" t="s">
-        <v>49</v>
+        <v>3</v>
       </c>
       <c r="F10" s="5"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" s="4"/>
-      <c r="C11" s="6" t="s">
-        <v>70</v>
+      <c r="C11" s="14" t="s">
+        <v>49</v>
       </c>
       <c r="F11" s="5"/>
-      <c r="G11" t="s">
-        <v>4</v>
-      </c>
-      <c r="H11" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B12" s="4"/>
-      <c r="D12" t="s">
-        <v>6</v>
+      <c r="C12" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="F12" s="5"/>
+      <c r="G12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H12" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13" s="4"/>
-      <c r="E13" t="s">
+      <c r="D13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="4"/>
+      <c r="E14" t="s">
         <v>7</v>
       </c>
-      <c r="F13" s="5"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="7"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="9" t="s">
+      <c r="F14" s="5"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="7"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="10"/>
-      <c r="G14" t="s">
+      <c r="E15" s="8"/>
+      <c r="F15" s="10"/>
+      <c r="G15" t="s">
         <v>4</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H15" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A17" s="15" t="s">
+    <row r="17" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A18" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="16"/>
-      <c r="M17" s="16"/>
-      <c r="N17" s="16"/>
-      <c r="O17" s="16"/>
-      <c r="P17" s="16"/>
-      <c r="Q17" s="16"/>
-      <c r="R17" s="16"/>
-      <c r="S17" s="16"/>
-      <c r="T17" s="16"/>
-      <c r="U17" s="16"/>
-      <c r="V17" s="16"/>
-      <c r="W17" s="16"/>
-      <c r="X17" s="16"/>
-      <c r="Y17" s="16"/>
-      <c r="Z17" s="16"/>
-      <c r="AA17" s="16"/>
-      <c r="AB17" s="17"/>
-    </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A18" s="18"/>
-      <c r="B18" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="12"/>
-      <c r="O18" s="12"/>
-      <c r="P18" s="12"/>
-      <c r="Q18" s="12"/>
-      <c r="R18" s="12"/>
-      <c r="S18" s="12"/>
-      <c r="T18" s="12"/>
-      <c r="U18" s="12"/>
-      <c r="V18" s="12"/>
-      <c r="W18" s="12"/>
-      <c r="X18" s="12"/>
-      <c r="Y18" s="12"/>
-      <c r="Z18" s="12"/>
-      <c r="AA18" s="12"/>
-      <c r="AB18" s="19"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="16"/>
+      <c r="O18" s="16"/>
+      <c r="P18" s="16"/>
+      <c r="Q18" s="16"/>
+      <c r="R18" s="16"/>
+      <c r="S18" s="16"/>
+      <c r="T18" s="16"/>
+      <c r="U18" s="16"/>
+      <c r="V18" s="16"/>
+      <c r="W18" s="16"/>
+      <c r="X18" s="16"/>
+      <c r="Y18" s="16"/>
+      <c r="Z18" s="16"/>
+      <c r="AA18" s="16"/>
+      <c r="AB18" s="17"/>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" s="18"/>
-      <c r="B19" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="5"/>
+      <c r="B19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="3"/>
       <c r="J19" s="12"/>
       <c r="K19" s="12"/>
       <c r="L19" s="12"/>
@@ -7260,7 +7908,7 @@
     <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20" s="18"/>
       <c r="B20" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C20" s="12"/>
       <c r="D20" s="12"/>
@@ -7292,7 +7940,7 @@
     <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21" s="18"/>
       <c r="B21" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C21" s="12"/>
       <c r="D21" s="12"/>
@@ -7324,7 +7972,7 @@
     <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22" s="18"/>
       <c r="B22" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C22" s="12"/>
       <c r="D22" s="12"/>
@@ -7356,7 +8004,7 @@
     <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23" s="18"/>
       <c r="B23" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C23" s="12"/>
       <c r="D23" s="12"/>
@@ -7388,7 +8036,7 @@
     <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24" s="18"/>
       <c r="B24" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C24" s="12"/>
       <c r="D24" s="12"/>
@@ -7419,7 +8067,9 @@
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A25" s="18"/>
-      <c r="B25" s="4"/>
+      <c r="B25" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="C25" s="12"/>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
@@ -7449,9 +8099,7 @@
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26" s="18"/>
-      <c r="B26" s="4" t="s">
-        <v>21</v>
-      </c>
+      <c r="B26" s="4"/>
       <c r="C26" s="12"/>
       <c r="D26" s="12"/>
       <c r="E26" s="12"/>
@@ -7482,7 +8130,7 @@
     <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27" s="18"/>
       <c r="B27" s="4" t="s">
-        <v>72</v>
+        <v>21</v>
       </c>
       <c r="C27" s="12"/>
       <c r="D27" s="12"/>
@@ -7514,7 +8162,7 @@
     <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A28" s="18"/>
       <c r="B28" s="4" t="s">
-        <v>24</v>
+        <v>72</v>
       </c>
       <c r="C28" s="12"/>
       <c r="D28" s="12"/>
@@ -7546,7 +8194,7 @@
     <row r="29" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A29" s="18"/>
       <c r="B29" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C29" s="12"/>
       <c r="D29" s="12"/>
@@ -7578,7 +8226,7 @@
     <row r="30" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A30" s="18"/>
       <c r="B30" s="4" t="s">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="C30" s="12"/>
       <c r="D30" s="12"/>
@@ -7610,7 +8258,7 @@
     <row r="31" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A31" s="18"/>
       <c r="B31" s="4" t="s">
-        <v>26</v>
+        <v>73</v>
       </c>
       <c r="C31" s="12"/>
       <c r="D31" s="12"/>
@@ -7641,7 +8289,9 @@
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A32" s="18"/>
-      <c r="B32" s="4"/>
+      <c r="B32" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="C32" s="12"/>
       <c r="D32" s="12"/>
       <c r="E32" s="12"/>
@@ -7671,9 +8321,7 @@
     </row>
     <row r="33" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A33" s="18"/>
-      <c r="B33" s="4" t="s">
-        <v>51</v>
-      </c>
+      <c r="B33" s="4"/>
       <c r="C33" s="12"/>
       <c r="D33" s="12"/>
       <c r="E33" s="12"/>
@@ -7686,9 +8334,7 @@
       <c r="L33" s="12"/>
       <c r="M33" s="12"/>
       <c r="N33" s="12"/>
-      <c r="O33" s="12" t="s">
-        <v>86</v>
-      </c>
+      <c r="O33" s="12"/>
       <c r="P33" s="12"/>
       <c r="Q33" s="12"/>
       <c r="R33" s="12"/>
@@ -7706,7 +8352,7 @@
     <row r="34" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A34" s="18"/>
       <c r="B34" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C34" s="12"/>
       <c r="D34" s="12"/>
@@ -7721,7 +8367,7 @@
       <c r="M34" s="12"/>
       <c r="N34" s="12"/>
       <c r="O34" s="12" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P34" s="12"/>
       <c r="Q34" s="12"/>
@@ -7740,7 +8386,7 @@
     <row r="35" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A35" s="18"/>
       <c r="B35" s="4" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="C35" s="12"/>
       <c r="D35" s="12"/>
@@ -7754,7 +8400,9 @@
       <c r="L35" s="12"/>
       <c r="M35" s="12"/>
       <c r="N35" s="12"/>
-      <c r="O35" s="12"/>
+      <c r="O35" s="12" t="s">
+        <v>85</v>
+      </c>
       <c r="P35" s="12"/>
       <c r="Q35" s="12"/>
       <c r="R35" s="12"/>
@@ -7771,8 +8419,8 @@
     </row>
     <row r="36" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A36" s="18"/>
-      <c r="B36" s="11" t="s">
-        <v>75</v>
+      <c r="B36" s="4" t="s">
+        <v>74</v>
       </c>
       <c r="C36" s="12"/>
       <c r="D36" s="12"/>
@@ -7781,30 +8429,20 @@
       <c r="G36" s="12"/>
       <c r="H36" s="12"/>
       <c r="I36" s="5"/>
-      <c r="J36" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K36" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="L36" s="2"/>
-      <c r="M36" s="3"/>
+      <c r="J36" s="12"/>
+      <c r="K36" s="12"/>
+      <c r="L36" s="12"/>
+      <c r="M36" s="12"/>
       <c r="N36" s="12"/>
       <c r="O36" s="12"/>
       <c r="P36" s="12"/>
       <c r="Q36" s="12"/>
-      <c r="R36" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="S36" s="2"/>
-      <c r="T36" s="2"/>
-      <c r="U36" s="3"/>
-      <c r="V36" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="W36" s="12" t="s">
-        <v>83</v>
-      </c>
+      <c r="R36" s="12"/>
+      <c r="S36" s="12"/>
+      <c r="T36" s="12"/>
+      <c r="U36" s="12"/>
+      <c r="V36" s="12"/>
+      <c r="W36" s="12"/>
       <c r="X36" s="12"/>
       <c r="Y36" s="12"/>
       <c r="Z36" s="12"/>
@@ -7813,8 +8451,8 @@
     </row>
     <row r="37" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A37" s="18"/>
-      <c r="B37" s="4" t="s">
-        <v>26</v>
+      <c r="B37" s="11" t="s">
+        <v>75</v>
       </c>
       <c r="C37" s="12"/>
       <c r="D37" s="12"/>
@@ -7823,20 +8461,30 @@
       <c r="G37" s="12"/>
       <c r="H37" s="12"/>
       <c r="I37" s="5"/>
-      <c r="J37" s="4"/>
-      <c r="K37" s="12"/>
-      <c r="L37" s="12"/>
-      <c r="M37" s="5"/>
+      <c r="J37" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="L37" s="2"/>
+      <c r="M37" s="3"/>
       <c r="N37" s="12"/>
       <c r="O37" s="12"/>
       <c r="P37" s="12"/>
       <c r="Q37" s="12"/>
-      <c r="R37" s="4"/>
-      <c r="S37" s="12"/>
-      <c r="T37" s="12"/>
-      <c r="U37" s="5"/>
-      <c r="V37" s="12"/>
-      <c r="W37" s="12"/>
+      <c r="R37" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="S37" s="2"/>
+      <c r="T37" s="2"/>
+      <c r="U37" s="3"/>
+      <c r="V37" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="W37" s="12" t="s">
+        <v>83</v>
+      </c>
       <c r="X37" s="12"/>
       <c r="Y37" s="12"/>
       <c r="Z37" s="12"/>
@@ -7845,7 +8493,9 @@
     </row>
     <row r="38" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A38" s="18"/>
-      <c r="B38" s="4"/>
+      <c r="B38" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="C38" s="12"/>
       <c r="D38" s="12"/>
       <c r="E38" s="12"/>
@@ -7857,16 +8507,10 @@
       <c r="K38" s="12"/>
       <c r="L38" s="12"/>
       <c r="M38" s="5"/>
-      <c r="N38" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="O38" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="P38" s="25"/>
-      <c r="Q38" s="12" t="s">
-        <v>4</v>
-      </c>
+      <c r="N38" s="12"/>
+      <c r="O38" s="12"/>
+      <c r="P38" s="12"/>
+      <c r="Q38" s="12"/>
       <c r="R38" s="4"/>
       <c r="S38" s="12"/>
       <c r="T38" s="12"/>
@@ -7881,9 +8525,7 @@
     </row>
     <row r="39" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A39" s="18"/>
-      <c r="B39" s="4" t="s">
-        <v>46</v>
-      </c>
+      <c r="B39" s="4"/>
       <c r="C39" s="12"/>
       <c r="D39" s="12"/>
       <c r="E39" s="12"/>
@@ -7895,10 +8537,16 @@
       <c r="K39" s="12"/>
       <c r="L39" s="12"/>
       <c r="M39" s="5"/>
-      <c r="N39" s="12"/>
-      <c r="O39" s="12"/>
-      <c r="P39" s="12"/>
-      <c r="Q39" s="12"/>
+      <c r="N39" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="O39" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="P39" s="25"/>
+      <c r="Q39" s="12" t="s">
+        <v>4</v>
+      </c>
       <c r="R39" s="4"/>
       <c r="S39" s="12"/>
       <c r="T39" s="12"/>
@@ -7913,8 +8561,8 @@
     </row>
     <row r="40" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A40" s="18"/>
-      <c r="B40" s="11" t="s">
-        <v>76</v>
+      <c r="B40" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="C40" s="12"/>
       <c r="D40" s="12"/>
@@ -7923,30 +8571,20 @@
       <c r="G40" s="12"/>
       <c r="H40" s="12"/>
       <c r="I40" s="5"/>
-      <c r="J40" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="K40" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="L40" s="8"/>
-      <c r="M40" s="10"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="12"/>
+      <c r="L40" s="12"/>
+      <c r="M40" s="5"/>
       <c r="N40" s="12"/>
       <c r="O40" s="12"/>
       <c r="P40" s="12"/>
       <c r="Q40" s="12"/>
-      <c r="R40" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="S40" s="8"/>
-      <c r="T40" s="8"/>
-      <c r="U40" s="10"/>
-      <c r="V40" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="W40" s="12" t="s">
-        <v>84</v>
-      </c>
+      <c r="R40" s="4"/>
+      <c r="S40" s="12"/>
+      <c r="T40" s="12"/>
+      <c r="U40" s="5"/>
+      <c r="V40" s="12"/>
+      <c r="W40" s="12"/>
       <c r="X40" s="12"/>
       <c r="Y40" s="12"/>
       <c r="Z40" s="12"/>
@@ -7955,8 +8593,8 @@
     </row>
     <row r="41" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A41" s="18"/>
-      <c r="B41" s="4" t="s">
-        <v>26</v>
+      <c r="B41" s="11" t="s">
+        <v>76</v>
       </c>
       <c r="C41" s="12"/>
       <c r="D41" s="12"/>
@@ -7965,20 +8603,30 @@
       <c r="G41" s="12"/>
       <c r="H41" s="12"/>
       <c r="I41" s="5"/>
-      <c r="J41" s="12"/>
-      <c r="K41" s="12"/>
-      <c r="L41" s="12"/>
-      <c r="M41" s="12"/>
+      <c r="J41" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="K41" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="L41" s="8"/>
+      <c r="M41" s="10"/>
       <c r="N41" s="12"/>
       <c r="O41" s="12"/>
       <c r="P41" s="12"/>
       <c r="Q41" s="12"/>
-      <c r="R41" s="12"/>
-      <c r="S41" s="12"/>
-      <c r="T41" s="12"/>
-      <c r="U41" s="12"/>
-      <c r="V41" s="12"/>
-      <c r="W41" s="12"/>
+      <c r="R41" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="S41" s="8"/>
+      <c r="T41" s="8"/>
+      <c r="U41" s="10"/>
+      <c r="V41" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="W41" s="12" t="s">
+        <v>84</v>
+      </c>
       <c r="X41" s="12"/>
       <c r="Y41" s="12"/>
       <c r="Z41" s="12"/>
@@ -7988,7 +8636,7 @@
     <row r="42" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A42" s="18"/>
       <c r="B42" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C42" s="12"/>
       <c r="D42" s="12"/>
@@ -8020,7 +8668,7 @@
     <row r="43" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A43" s="18"/>
       <c r="B43" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C43" s="12"/>
       <c r="D43" s="12"/>
@@ -8051,7 +8699,9 @@
     </row>
     <row r="44" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A44" s="18"/>
-      <c r="B44" s="4"/>
+      <c r="B44" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="C44" s="12"/>
       <c r="D44" s="12"/>
       <c r="E44" s="12"/>
@@ -8081,9 +8731,7 @@
     </row>
     <row r="45" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A45" s="18"/>
-      <c r="B45" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="B45" s="4"/>
       <c r="C45" s="12"/>
       <c r="D45" s="12"/>
       <c r="E45" s="12"/>
@@ -8114,7 +8762,7 @@
     <row r="46" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A46" s="18"/>
       <c r="B46" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C46" s="12"/>
       <c r="D46" s="12"/>
@@ -8146,7 +8794,7 @@
     <row r="47" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A47" s="18"/>
       <c r="B47" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C47" s="12"/>
       <c r="D47" s="12"/>
@@ -8178,7 +8826,7 @@
     <row r="48" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A48" s="18"/>
       <c r="B48" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C48" s="12"/>
       <c r="D48" s="12"/>
@@ -8210,7 +8858,7 @@
     <row r="49" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A49" s="18"/>
       <c r="B49" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C49" s="12"/>
       <c r="D49" s="12"/>
@@ -8242,7 +8890,7 @@
     <row r="50" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A50" s="18"/>
       <c r="B50" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C50" s="12"/>
       <c r="D50" s="12"/>
@@ -8273,16 +8921,16 @@
     </row>
     <row r="51" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A51" s="18"/>
-      <c r="B51" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C51" s="8"/>
-      <c r="D51" s="8"/>
-      <c r="E51" s="8"/>
-      <c r="F51" s="8"/>
-      <c r="G51" s="8"/>
-      <c r="H51" s="8"/>
-      <c r="I51" s="10"/>
+      <c r="B51" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C51" s="12"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="12"/>
+      <c r="F51" s="12"/>
+      <c r="G51" s="12"/>
+      <c r="H51" s="12"/>
+      <c r="I51" s="5"/>
       <c r="J51" s="12"/>
       <c r="K51" s="12"/>
       <c r="L51" s="12"/>
@@ -8305,14 +8953,16 @@
     </row>
     <row r="52" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A52" s="18"/>
-      <c r="B52" s="12"/>
-      <c r="C52" s="12"/>
-      <c r="D52" s="12"/>
-      <c r="E52" s="12"/>
-      <c r="F52" s="12"/>
-      <c r="G52" s="12"/>
-      <c r="H52" s="12"/>
-      <c r="I52" s="12"/>
+      <c r="B52" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C52" s="8"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="8"/>
+      <c r="I52" s="10"/>
       <c r="J52" s="12"/>
       <c r="K52" s="12"/>
       <c r="L52" s="12"/>
@@ -8933,35 +9583,1535 @@
       <c r="AA72" s="12"/>
       <c r="AB72" s="19"/>
     </row>
-    <row r="73" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="21"/>
-      <c r="B73" s="22"/>
-      <c r="C73" s="22"/>
-      <c r="D73" s="22"/>
-      <c r="E73" s="22"/>
-      <c r="F73" s="22"/>
-      <c r="G73" s="22"/>
-      <c r="H73" s="22"/>
-      <c r="I73" s="22"/>
-      <c r="J73" s="22"/>
-      <c r="K73" s="22"/>
-      <c r="L73" s="22"/>
-      <c r="M73" s="22"/>
-      <c r="N73" s="22"/>
-      <c r="O73" s="22"/>
-      <c r="P73" s="22"/>
-      <c r="Q73" s="22"/>
-      <c r="R73" s="22"/>
-      <c r="S73" s="22"/>
-      <c r="T73" s="22"/>
-      <c r="U73" s="22"/>
-      <c r="V73" s="22"/>
-      <c r="W73" s="22"/>
-      <c r="X73" s="22"/>
-      <c r="Y73" s="22"/>
-      <c r="Z73" s="22"/>
-      <c r="AA73" s="22"/>
-      <c r="AB73" s="23"/>
+    <row r="73" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A73" s="18"/>
+      <c r="B73" s="12"/>
+      <c r="C73" s="12"/>
+      <c r="D73" s="12"/>
+      <c r="E73" s="12"/>
+      <c r="F73" s="12"/>
+      <c r="G73" s="12"/>
+      <c r="H73" s="12"/>
+      <c r="I73" s="12"/>
+      <c r="J73" s="12"/>
+      <c r="K73" s="12"/>
+      <c r="L73" s="12"/>
+      <c r="M73" s="12"/>
+      <c r="N73" s="12"/>
+      <c r="O73" s="12"/>
+      <c r="P73" s="12"/>
+      <c r="Q73" s="12"/>
+      <c r="R73" s="12"/>
+      <c r="S73" s="12"/>
+      <c r="T73" s="12"/>
+      <c r="U73" s="12"/>
+      <c r="V73" s="12"/>
+      <c r="W73" s="12"/>
+      <c r="X73" s="12"/>
+      <c r="Y73" s="12"/>
+      <c r="Z73" s="12"/>
+      <c r="AA73" s="12"/>
+      <c r="AB73" s="19"/>
+    </row>
+    <row r="74" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="21"/>
+      <c r="B74" s="22"/>
+      <c r="C74" s="22"/>
+      <c r="D74" s="22"/>
+      <c r="E74" s="22"/>
+      <c r="F74" s="22"/>
+      <c r="G74" s="22"/>
+      <c r="H74" s="22"/>
+      <c r="I74" s="22"/>
+      <c r="J74" s="22"/>
+      <c r="K74" s="22"/>
+      <c r="L74" s="22"/>
+      <c r="M74" s="22"/>
+      <c r="N74" s="22"/>
+      <c r="O74" s="22"/>
+      <c r="P74" s="22"/>
+      <c r="Q74" s="22"/>
+      <c r="R74" s="22"/>
+      <c r="S74" s="22"/>
+      <c r="T74" s="22"/>
+      <c r="U74" s="22"/>
+      <c r="V74" s="22"/>
+      <c r="W74" s="22"/>
+      <c r="X74" s="22"/>
+      <c r="Y74" s="22"/>
+      <c r="Z74" s="22"/>
+      <c r="AA74" s="22"/>
+      <c r="AB74" s="23"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD25ADF1-2530-4D32-926E-C0C8ED66891F}">
+  <dimension ref="A2:W69"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="M39" sqref="M39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="4"/>
+      <c r="C10" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="4"/>
+      <c r="C11" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="5"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="4"/>
+      <c r="C12" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="4"/>
+      <c r="C13" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="4"/>
+      <c r="D14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" s="5"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="4"/>
+      <c r="E15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="5"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="7"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="8"/>
+      <c r="F16" s="10"/>
+    </row>
+    <row r="18" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A19" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="16"/>
+      <c r="O19" s="16"/>
+      <c r="P19" s="16"/>
+      <c r="Q19" s="16"/>
+      <c r="R19" s="16"/>
+      <c r="S19" s="16"/>
+      <c r="T19" s="16"/>
+      <c r="U19" s="16"/>
+      <c r="V19" s="16"/>
+      <c r="W19" s="17"/>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A20" s="18"/>
+      <c r="B20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="12"/>
+      <c r="R20" s="12"/>
+      <c r="S20" s="12"/>
+      <c r="T20" s="12"/>
+      <c r="U20" s="12"/>
+      <c r="V20" s="12"/>
+      <c r="W20" s="19"/>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A21" s="18"/>
+      <c r="B21" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="12"/>
+      <c r="P21" s="12"/>
+      <c r="Q21" s="12"/>
+      <c r="R21" s="12"/>
+      <c r="S21" s="12"/>
+      <c r="T21" s="12"/>
+      <c r="U21" s="12"/>
+      <c r="V21" s="12"/>
+      <c r="W21" s="19"/>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A22" s="18"/>
+      <c r="B22" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="12"/>
+      <c r="P22" s="12"/>
+      <c r="Q22" s="12"/>
+      <c r="R22" s="12"/>
+      <c r="S22" s="12"/>
+      <c r="T22" s="12"/>
+      <c r="U22" s="12"/>
+      <c r="V22" s="12"/>
+      <c r="W22" s="19"/>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A23" s="18"/>
+      <c r="B23" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="12"/>
+      <c r="P23" s="12"/>
+      <c r="Q23" s="12"/>
+      <c r="R23" s="12"/>
+      <c r="S23" s="12"/>
+      <c r="T23" s="12"/>
+      <c r="U23" s="12"/>
+      <c r="V23" s="12"/>
+      <c r="W23" s="19"/>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A24" s="18"/>
+      <c r="B24" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="12"/>
+      <c r="O24" s="12"/>
+      <c r="P24" s="12"/>
+      <c r="Q24" s="12"/>
+      <c r="R24" s="12"/>
+      <c r="S24" s="12"/>
+      <c r="T24" s="12"/>
+      <c r="U24" s="12"/>
+      <c r="V24" s="12"/>
+      <c r="W24" s="19"/>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A25" s="18"/>
+      <c r="B25" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="12"/>
+      <c r="O25" s="12"/>
+      <c r="P25" s="12"/>
+      <c r="Q25" s="12"/>
+      <c r="R25" s="12"/>
+      <c r="S25" s="12"/>
+      <c r="T25" s="12"/>
+      <c r="U25" s="12"/>
+      <c r="V25" s="12"/>
+      <c r="W25" s="19"/>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A26" s="18"/>
+      <c r="B26" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="12"/>
+      <c r="O26" s="12"/>
+      <c r="P26" s="12"/>
+      <c r="Q26" s="12"/>
+      <c r="R26" s="12"/>
+      <c r="S26" s="12"/>
+      <c r="T26" s="12"/>
+      <c r="U26" s="12"/>
+      <c r="V26" s="12"/>
+      <c r="W26" s="19"/>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A27" s="18"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="12"/>
+      <c r="N27" s="12"/>
+      <c r="O27" s="12"/>
+      <c r="P27" s="12"/>
+      <c r="Q27" s="12"/>
+      <c r="R27" s="12"/>
+      <c r="S27" s="12"/>
+      <c r="T27" s="12"/>
+      <c r="U27" s="12"/>
+      <c r="V27" s="12"/>
+      <c r="W27" s="19"/>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A28" s="18"/>
+      <c r="B28" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="12"/>
+      <c r="N28" s="12"/>
+      <c r="O28" s="12"/>
+      <c r="P28" s="12"/>
+      <c r="Q28" s="12"/>
+      <c r="R28" s="12"/>
+      <c r="S28" s="12"/>
+      <c r="T28" s="12"/>
+      <c r="U28" s="12"/>
+      <c r="V28" s="12"/>
+      <c r="W28" s="19"/>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A29" s="18"/>
+      <c r="B29" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="12"/>
+      <c r="N29" s="12"/>
+      <c r="O29" s="12"/>
+      <c r="P29" s="12"/>
+      <c r="Q29" s="12"/>
+      <c r="R29" s="12"/>
+      <c r="S29" s="12"/>
+      <c r="T29" s="12"/>
+      <c r="U29" s="12"/>
+      <c r="V29" s="12"/>
+      <c r="W29" s="19"/>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A30" s="18"/>
+      <c r="B30" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="12"/>
+      <c r="N30" s="12"/>
+      <c r="O30" s="12"/>
+      <c r="P30" s="12"/>
+      <c r="Q30" s="12"/>
+      <c r="R30" s="12"/>
+      <c r="S30" s="12"/>
+      <c r="T30" s="12"/>
+      <c r="U30" s="12"/>
+      <c r="V30" s="12"/>
+      <c r="W30" s="19"/>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A31" s="18"/>
+      <c r="B31" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="12"/>
+      <c r="M31" s="12"/>
+      <c r="N31" s="12"/>
+      <c r="O31" s="12"/>
+      <c r="P31" s="12"/>
+      <c r="Q31" s="12"/>
+      <c r="R31" s="12"/>
+      <c r="S31" s="12"/>
+      <c r="T31" s="12"/>
+      <c r="U31" s="12"/>
+      <c r="V31" s="12"/>
+      <c r="W31" s="19"/>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A32" s="18"/>
+      <c r="B32" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K32" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="L32" s="12"/>
+      <c r="M32" s="12"/>
+      <c r="N32" s="12"/>
+      <c r="O32" s="12"/>
+      <c r="P32" s="12"/>
+      <c r="Q32" s="12"/>
+      <c r="R32" s="12"/>
+      <c r="S32" s="12"/>
+      <c r="T32" s="12"/>
+      <c r="U32" s="12"/>
+      <c r="V32" s="12"/>
+      <c r="W32" s="19"/>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A33" s="18"/>
+      <c r="B33" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="12"/>
+      <c r="K33" s="12"/>
+      <c r="L33" s="12"/>
+      <c r="M33" s="12"/>
+      <c r="N33" s="12"/>
+      <c r="O33" s="12"/>
+      <c r="P33" s="12"/>
+      <c r="Q33" s="12"/>
+      <c r="R33" s="12"/>
+      <c r="S33" s="12"/>
+      <c r="T33" s="12"/>
+      <c r="U33" s="12"/>
+      <c r="V33" s="12"/>
+      <c r="W33" s="19"/>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A34" s="18"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="12"/>
+      <c r="L34" s="12"/>
+      <c r="M34" s="12"/>
+      <c r="N34" s="12"/>
+      <c r="O34" s="12"/>
+      <c r="P34" s="12"/>
+      <c r="Q34" s="12"/>
+      <c r="R34" s="12"/>
+      <c r="S34" s="12"/>
+      <c r="T34" s="12"/>
+      <c r="U34" s="12"/>
+      <c r="V34" s="12"/>
+      <c r="W34" s="19"/>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A35" s="18"/>
+      <c r="B35" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="12"/>
+      <c r="K35" s="12"/>
+      <c r="L35" s="12"/>
+      <c r="M35" s="12"/>
+      <c r="N35" s="12"/>
+      <c r="O35" s="12"/>
+      <c r="P35" s="12"/>
+      <c r="Q35" s="12"/>
+      <c r="R35" s="12"/>
+      <c r="S35" s="12"/>
+      <c r="T35" s="12"/>
+      <c r="U35" s="12"/>
+      <c r="V35" s="12"/>
+      <c r="W35" s="19"/>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A36" s="18"/>
+      <c r="B36" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="12"/>
+      <c r="K36" s="12"/>
+      <c r="L36" s="12"/>
+      <c r="M36" s="12"/>
+      <c r="N36" s="12"/>
+      <c r="O36" s="12"/>
+      <c r="P36" s="12"/>
+      <c r="Q36" s="12"/>
+      <c r="R36" s="12"/>
+      <c r="S36" s="12"/>
+      <c r="T36" s="12"/>
+      <c r="U36" s="12"/>
+      <c r="V36" s="12"/>
+      <c r="W36" s="19"/>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A37" s="18"/>
+      <c r="B37" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K37" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="L37" s="12"/>
+      <c r="M37" s="12"/>
+      <c r="N37" s="12"/>
+      <c r="O37" s="12"/>
+      <c r="P37" s="12"/>
+      <c r="Q37" s="12"/>
+      <c r="R37" s="12"/>
+      <c r="S37" s="12"/>
+      <c r="T37" s="12"/>
+      <c r="U37" s="12"/>
+      <c r="V37" s="12"/>
+      <c r="W37" s="19"/>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A38" s="18"/>
+      <c r="B38" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="12"/>
+      <c r="K38" s="12"/>
+      <c r="L38" s="12"/>
+      <c r="M38" s="12"/>
+      <c r="N38" s="12"/>
+      <c r="O38" s="12"/>
+      <c r="P38" s="12"/>
+      <c r="Q38" s="12"/>
+      <c r="R38" s="12"/>
+      <c r="S38" s="12"/>
+      <c r="T38" s="12"/>
+      <c r="U38" s="12"/>
+      <c r="V38" s="12"/>
+      <c r="W38" s="19"/>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A39" s="18"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="12"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="12"/>
+      <c r="K39" s="12"/>
+      <c r="L39" s="12"/>
+      <c r="M39" s="12"/>
+      <c r="N39" s="12"/>
+      <c r="O39" s="12"/>
+      <c r="P39" s="12"/>
+      <c r="Q39" s="12"/>
+      <c r="R39" s="12"/>
+      <c r="S39" s="12"/>
+      <c r="T39" s="12"/>
+      <c r="U39" s="12"/>
+      <c r="V39" s="12"/>
+      <c r="W39" s="19"/>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A40" s="18"/>
+      <c r="B40" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="12"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="12"/>
+      <c r="K40" s="12"/>
+      <c r="L40" s="12"/>
+      <c r="M40" s="12"/>
+      <c r="N40" s="12"/>
+      <c r="O40" s="12"/>
+      <c r="P40" s="12"/>
+      <c r="Q40" s="12"/>
+      <c r="R40" s="12"/>
+      <c r="S40" s="12"/>
+      <c r="T40" s="12"/>
+      <c r="U40" s="12"/>
+      <c r="V40" s="12"/>
+      <c r="W40" s="19"/>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A41" s="18"/>
+      <c r="B41" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K41" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="L41" s="12"/>
+      <c r="M41" s="12"/>
+      <c r="N41" s="12"/>
+      <c r="O41" s="12"/>
+      <c r="P41" s="12"/>
+      <c r="Q41" s="12"/>
+      <c r="R41" s="12"/>
+      <c r="S41" s="12"/>
+      <c r="T41" s="12"/>
+      <c r="U41" s="12"/>
+      <c r="V41" s="12"/>
+      <c r="W41" s="19"/>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A42" s="18"/>
+      <c r="B42" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="12"/>
+      <c r="K42" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="L42" s="12"/>
+      <c r="M42" s="12"/>
+      <c r="N42" s="12"/>
+      <c r="O42" s="12"/>
+      <c r="P42" s="12"/>
+      <c r="Q42" s="12"/>
+      <c r="R42" s="12"/>
+      <c r="S42" s="12"/>
+      <c r="T42" s="12"/>
+      <c r="U42" s="12"/>
+      <c r="V42" s="12"/>
+      <c r="W42" s="19"/>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A43" s="18"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="12"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="12"/>
+      <c r="K43" s="12"/>
+      <c r="L43" s="12"/>
+      <c r="M43" s="12"/>
+      <c r="N43" s="12"/>
+      <c r="O43" s="12"/>
+      <c r="P43" s="12"/>
+      <c r="Q43" s="12"/>
+      <c r="R43" s="12"/>
+      <c r="S43" s="12"/>
+      <c r="T43" s="12"/>
+      <c r="U43" s="12"/>
+      <c r="V43" s="12"/>
+      <c r="W43" s="19"/>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A44" s="18"/>
+      <c r="B44" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="12"/>
+      <c r="H44" s="12"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="12"/>
+      <c r="K44" s="12"/>
+      <c r="L44" s="12"/>
+      <c r="M44" s="12"/>
+      <c r="N44" s="12"/>
+      <c r="O44" s="12"/>
+      <c r="P44" s="12"/>
+      <c r="Q44" s="12"/>
+      <c r="R44" s="12"/>
+      <c r="S44" s="12"/>
+      <c r="T44" s="12"/>
+      <c r="U44" s="12"/>
+      <c r="V44" s="12"/>
+      <c r="W44" s="19"/>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A45" s="18"/>
+      <c r="B45" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="12"/>
+      <c r="H45" s="12"/>
+      <c r="I45" s="5"/>
+      <c r="J45" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K45" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="L45" s="12"/>
+      <c r="M45" s="12"/>
+      <c r="N45" s="12"/>
+      <c r="O45" s="12"/>
+      <c r="P45" s="12"/>
+      <c r="Q45" s="12"/>
+      <c r="R45" s="12"/>
+      <c r="S45" s="12"/>
+      <c r="T45" s="12"/>
+      <c r="U45" s="12"/>
+      <c r="V45" s="12"/>
+      <c r="W45" s="19"/>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A46" s="18"/>
+      <c r="B46" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="12"/>
+      <c r="H46" s="12"/>
+      <c r="I46" s="5"/>
+      <c r="J46" s="12"/>
+      <c r="K46" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="L46" s="12"/>
+      <c r="M46" s="12"/>
+      <c r="N46" s="12"/>
+      <c r="O46" s="12"/>
+      <c r="P46" s="12"/>
+      <c r="Q46" s="12"/>
+      <c r="R46" s="12"/>
+      <c r="S46" s="12"/>
+      <c r="T46" s="12"/>
+      <c r="U46" s="12"/>
+      <c r="V46" s="12"/>
+      <c r="W46" s="19"/>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A47" s="18"/>
+      <c r="B47" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="12"/>
+      <c r="H47" s="12"/>
+      <c r="I47" s="5"/>
+      <c r="J47" s="12"/>
+      <c r="K47" s="12"/>
+      <c r="L47" s="12"/>
+      <c r="M47" s="12"/>
+      <c r="N47" s="12"/>
+      <c r="O47" s="12"/>
+      <c r="P47" s="12"/>
+      <c r="Q47" s="12"/>
+      <c r="R47" s="12"/>
+      <c r="S47" s="12"/>
+      <c r="T47" s="12"/>
+      <c r="U47" s="12"/>
+      <c r="V47" s="12"/>
+      <c r="W47" s="19"/>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A48" s="18"/>
+      <c r="B48" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="12"/>
+      <c r="H48" s="12"/>
+      <c r="I48" s="5"/>
+      <c r="J48" s="12"/>
+      <c r="K48" s="12"/>
+      <c r="L48" s="12"/>
+      <c r="M48" s="12"/>
+      <c r="N48" s="12"/>
+      <c r="O48" s="12"/>
+      <c r="P48" s="12"/>
+      <c r="Q48" s="12"/>
+      <c r="R48" s="12"/>
+      <c r="S48" s="12"/>
+      <c r="T48" s="12"/>
+      <c r="U48" s="12"/>
+      <c r="V48" s="12"/>
+      <c r="W48" s="19"/>
+    </row>
+    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A49" s="18"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="12"/>
+      <c r="H49" s="12"/>
+      <c r="I49" s="5"/>
+      <c r="J49" s="12"/>
+      <c r="K49" s="12"/>
+      <c r="L49" s="12"/>
+      <c r="M49" s="12"/>
+      <c r="N49" s="12"/>
+      <c r="O49" s="12"/>
+      <c r="P49" s="12"/>
+      <c r="Q49" s="12"/>
+      <c r="R49" s="12"/>
+      <c r="S49" s="12"/>
+      <c r="T49" s="12"/>
+      <c r="U49" s="12"/>
+      <c r="V49" s="12"/>
+      <c r="W49" s="19"/>
+    </row>
+    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A50" s="18"/>
+      <c r="B50" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C50" s="12"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="12"/>
+      <c r="H50" s="12"/>
+      <c r="I50" s="5"/>
+      <c r="J50" s="12"/>
+      <c r="K50" s="12"/>
+      <c r="L50" s="12"/>
+      <c r="M50" s="12"/>
+      <c r="N50" s="12"/>
+      <c r="O50" s="12"/>
+      <c r="P50" s="12"/>
+      <c r="Q50" s="12"/>
+      <c r="R50" s="12"/>
+      <c r="S50" s="12"/>
+      <c r="T50" s="12"/>
+      <c r="U50" s="12"/>
+      <c r="V50" s="12"/>
+      <c r="W50" s="19"/>
+    </row>
+    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A51" s="18"/>
+      <c r="B51" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C51" s="12"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="12"/>
+      <c r="F51" s="12"/>
+      <c r="G51" s="12"/>
+      <c r="H51" s="12"/>
+      <c r="I51" s="5"/>
+      <c r="J51" s="12"/>
+      <c r="K51" s="12"/>
+      <c r="L51" s="12"/>
+      <c r="M51" s="12"/>
+      <c r="N51" s="12"/>
+      <c r="O51" s="12"/>
+      <c r="P51" s="12"/>
+      <c r="Q51" s="12"/>
+      <c r="R51" s="12"/>
+      <c r="S51" s="12"/>
+      <c r="T51" s="12"/>
+      <c r="U51" s="12"/>
+      <c r="V51" s="12"/>
+      <c r="W51" s="19"/>
+    </row>
+    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A52" s="18"/>
+      <c r="B52" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C52" s="12"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="12"/>
+      <c r="F52" s="12"/>
+      <c r="G52" s="12"/>
+      <c r="H52" s="12"/>
+      <c r="I52" s="5"/>
+      <c r="J52" s="12"/>
+      <c r="K52" s="12"/>
+      <c r="L52" s="12"/>
+      <c r="M52" s="12"/>
+      <c r="N52" s="12"/>
+      <c r="O52" s="12"/>
+      <c r="P52" s="12"/>
+      <c r="Q52" s="12"/>
+      <c r="R52" s="12"/>
+      <c r="S52" s="12"/>
+      <c r="T52" s="12"/>
+      <c r="U52" s="12"/>
+      <c r="V52" s="12"/>
+      <c r="W52" s="19"/>
+    </row>
+    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A53" s="18"/>
+      <c r="B53" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C53" s="12"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="12"/>
+      <c r="F53" s="12"/>
+      <c r="G53" s="12"/>
+      <c r="H53" s="12"/>
+      <c r="I53" s="5"/>
+      <c r="J53" s="12"/>
+      <c r="K53" s="12"/>
+      <c r="L53" s="12"/>
+      <c r="M53" s="12"/>
+      <c r="N53" s="12"/>
+      <c r="O53" s="12"/>
+      <c r="P53" s="12"/>
+      <c r="Q53" s="12"/>
+      <c r="R53" s="12"/>
+      <c r="S53" s="12"/>
+      <c r="T53" s="12"/>
+      <c r="U53" s="12"/>
+      <c r="V53" s="12"/>
+      <c r="W53" s="19"/>
+    </row>
+    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A54" s="18"/>
+      <c r="B54" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C54" s="12"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="12"/>
+      <c r="G54" s="12"/>
+      <c r="H54" s="12"/>
+      <c r="I54" s="5"/>
+      <c r="J54" s="12"/>
+      <c r="K54" s="12"/>
+      <c r="L54" s="12"/>
+      <c r="M54" s="12"/>
+      <c r="N54" s="12"/>
+      <c r="O54" s="12"/>
+      <c r="P54" s="12"/>
+      <c r="Q54" s="12"/>
+      <c r="R54" s="12"/>
+      <c r="S54" s="12"/>
+      <c r="T54" s="12"/>
+      <c r="U54" s="12"/>
+      <c r="V54" s="12"/>
+      <c r="W54" s="19"/>
+    </row>
+    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A55" s="18"/>
+      <c r="B55" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C55" s="12"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="12"/>
+      <c r="G55" s="12"/>
+      <c r="H55" s="12"/>
+      <c r="I55" s="5"/>
+      <c r="J55" s="12"/>
+      <c r="K55" s="12"/>
+      <c r="L55" s="12"/>
+      <c r="M55" s="12"/>
+      <c r="N55" s="12"/>
+      <c r="O55" s="12"/>
+      <c r="P55" s="12"/>
+      <c r="Q55" s="12"/>
+      <c r="R55" s="12"/>
+      <c r="S55" s="12"/>
+      <c r="T55" s="12"/>
+      <c r="U55" s="12"/>
+      <c r="V55" s="12"/>
+      <c r="W55" s="19"/>
+    </row>
+    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A56" s="18"/>
+      <c r="B56" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C56" s="8"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c r="H56" s="8"/>
+      <c r="I56" s="10"/>
+      <c r="J56" s="12"/>
+      <c r="K56" s="12"/>
+      <c r="L56" s="12"/>
+      <c r="M56" s="12"/>
+      <c r="N56" s="12"/>
+      <c r="O56" s="12"/>
+      <c r="P56" s="12"/>
+      <c r="Q56" s="12"/>
+      <c r="R56" s="12"/>
+      <c r="S56" s="12"/>
+      <c r="T56" s="12"/>
+      <c r="U56" s="12"/>
+      <c r="V56" s="12"/>
+      <c r="W56" s="19"/>
+    </row>
+    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A57" s="18"/>
+      <c r="B57" s="12"/>
+      <c r="C57" s="12"/>
+      <c r="D57" s="12"/>
+      <c r="E57" s="12"/>
+      <c r="F57" s="12"/>
+      <c r="G57" s="12"/>
+      <c r="H57" s="12"/>
+      <c r="I57" s="12"/>
+      <c r="J57" s="12"/>
+      <c r="K57" s="12"/>
+      <c r="L57" s="12"/>
+      <c r="M57" s="12"/>
+      <c r="N57" s="12"/>
+      <c r="O57" s="12"/>
+      <c r="P57" s="12"/>
+      <c r="Q57" s="12"/>
+      <c r="R57" s="12"/>
+      <c r="S57" s="12"/>
+      <c r="T57" s="12"/>
+      <c r="U57" s="12"/>
+      <c r="V57" s="12"/>
+      <c r="W57" s="19"/>
+    </row>
+    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A58" s="18"/>
+      <c r="B58" s="12"/>
+      <c r="C58" s="12"/>
+      <c r="D58" s="12"/>
+      <c r="E58" s="12"/>
+      <c r="F58" s="12"/>
+      <c r="G58" s="12"/>
+      <c r="H58" s="12"/>
+      <c r="I58" s="12"/>
+      <c r="J58" s="12"/>
+      <c r="K58" s="12"/>
+      <c r="L58" s="12"/>
+      <c r="M58" s="12"/>
+      <c r="N58" s="12"/>
+      <c r="O58" s="12"/>
+      <c r="P58" s="12"/>
+      <c r="Q58" s="12"/>
+      <c r="R58" s="12"/>
+      <c r="S58" s="12"/>
+      <c r="T58" s="12"/>
+      <c r="U58" s="12"/>
+      <c r="V58" s="12"/>
+      <c r="W58" s="19"/>
+    </row>
+    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A59" s="18"/>
+      <c r="B59" s="12"/>
+      <c r="C59" s="12"/>
+      <c r="D59" s="12"/>
+      <c r="E59" s="12"/>
+      <c r="F59" s="12"/>
+      <c r="G59" s="12"/>
+      <c r="H59" s="12"/>
+      <c r="I59" s="12"/>
+      <c r="J59" s="12"/>
+      <c r="K59" s="12"/>
+      <c r="L59" s="12"/>
+      <c r="M59" s="12"/>
+      <c r="N59" s="12"/>
+      <c r="O59" s="12"/>
+      <c r="P59" s="12"/>
+      <c r="Q59" s="12"/>
+      <c r="R59" s="12"/>
+      <c r="S59" s="12"/>
+      <c r="T59" s="12"/>
+      <c r="U59" s="12"/>
+      <c r="V59" s="12"/>
+      <c r="W59" s="19"/>
+    </row>
+    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A60" s="18"/>
+      <c r="B60" s="12"/>
+      <c r="C60" s="12"/>
+      <c r="D60" s="12"/>
+      <c r="E60" s="12"/>
+      <c r="F60" s="12"/>
+      <c r="G60" s="12"/>
+      <c r="H60" s="12"/>
+      <c r="I60" s="12"/>
+      <c r="J60" s="12"/>
+      <c r="K60" s="12"/>
+      <c r="L60" s="12"/>
+      <c r="M60" s="12"/>
+      <c r="N60" s="12"/>
+      <c r="O60" s="12"/>
+      <c r="P60" s="12"/>
+      <c r="Q60" s="12"/>
+      <c r="R60" s="12"/>
+      <c r="S60" s="12"/>
+      <c r="T60" s="12"/>
+      <c r="U60" s="12"/>
+      <c r="V60" s="12"/>
+      <c r="W60" s="19"/>
+    </row>
+    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A61" s="18"/>
+      <c r="B61" s="12"/>
+      <c r="C61" s="12"/>
+      <c r="D61" s="12"/>
+      <c r="E61" s="12"/>
+      <c r="F61" s="12"/>
+      <c r="G61" s="12"/>
+      <c r="H61" s="12"/>
+      <c r="I61" s="12"/>
+      <c r="J61" s="12"/>
+      <c r="K61" s="12"/>
+      <c r="L61" s="12"/>
+      <c r="M61" s="12"/>
+      <c r="N61" s="12"/>
+      <c r="O61" s="12"/>
+      <c r="P61" s="12"/>
+      <c r="Q61" s="12"/>
+      <c r="R61" s="12"/>
+      <c r="S61" s="12"/>
+      <c r="T61" s="12"/>
+      <c r="U61" s="12"/>
+      <c r="V61" s="12"/>
+      <c r="W61" s="19"/>
+    </row>
+    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A62" s="18"/>
+      <c r="B62" s="12"/>
+      <c r="C62" s="12"/>
+      <c r="D62" s="12"/>
+      <c r="E62" s="12"/>
+      <c r="F62" s="12"/>
+      <c r="G62" s="12"/>
+      <c r="H62" s="12"/>
+      <c r="I62" s="12"/>
+      <c r="J62" s="12"/>
+      <c r="K62" s="12"/>
+      <c r="L62" s="12"/>
+      <c r="M62" s="12"/>
+      <c r="N62" s="12"/>
+      <c r="O62" s="12"/>
+      <c r="P62" s="12"/>
+      <c r="Q62" s="12"/>
+      <c r="R62" s="12"/>
+      <c r="S62" s="12"/>
+      <c r="T62" s="12"/>
+      <c r="U62" s="12"/>
+      <c r="V62" s="12"/>
+      <c r="W62" s="19"/>
+    </row>
+    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A63" s="18"/>
+      <c r="B63" s="12"/>
+      <c r="C63" s="12"/>
+      <c r="D63" s="12"/>
+      <c r="E63" s="12"/>
+      <c r="F63" s="12"/>
+      <c r="G63" s="12"/>
+      <c r="H63" s="12"/>
+      <c r="I63" s="12"/>
+      <c r="J63" s="12"/>
+      <c r="K63" s="12"/>
+      <c r="L63" s="12"/>
+      <c r="M63" s="12"/>
+      <c r="N63" s="12"/>
+      <c r="O63" s="12"/>
+      <c r="P63" s="12"/>
+      <c r="Q63" s="12"/>
+      <c r="R63" s="12"/>
+      <c r="S63" s="12"/>
+      <c r="T63" s="12"/>
+      <c r="U63" s="12"/>
+      <c r="V63" s="12"/>
+      <c r="W63" s="19"/>
+    </row>
+    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A64" s="18"/>
+      <c r="B64" s="12"/>
+      <c r="C64" s="12"/>
+      <c r="D64" s="12"/>
+      <c r="E64" s="12"/>
+      <c r="F64" s="12"/>
+      <c r="G64" s="12"/>
+      <c r="H64" s="12"/>
+      <c r="I64" s="12"/>
+      <c r="J64" s="12"/>
+      <c r="K64" s="12"/>
+      <c r="L64" s="12"/>
+      <c r="M64" s="12"/>
+      <c r="N64" s="12"/>
+      <c r="O64" s="12"/>
+      <c r="P64" s="12"/>
+      <c r="Q64" s="12"/>
+      <c r="R64" s="12"/>
+      <c r="S64" s="12"/>
+      <c r="T64" s="12"/>
+      <c r="U64" s="12"/>
+      <c r="V64" s="12"/>
+      <c r="W64" s="19"/>
+    </row>
+    <row r="65" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A65" s="18"/>
+      <c r="B65" s="12"/>
+      <c r="C65" s="12"/>
+      <c r="D65" s="12"/>
+      <c r="E65" s="12"/>
+      <c r="F65" s="12"/>
+      <c r="G65" s="12"/>
+      <c r="H65" s="12"/>
+      <c r="I65" s="12"/>
+      <c r="J65" s="12"/>
+      <c r="K65" s="12"/>
+      <c r="L65" s="12"/>
+      <c r="M65" s="12"/>
+      <c r="N65" s="12"/>
+      <c r="O65" s="12"/>
+      <c r="P65" s="12"/>
+      <c r="Q65" s="12"/>
+      <c r="R65" s="12"/>
+      <c r="S65" s="12"/>
+      <c r="T65" s="12"/>
+      <c r="U65" s="12"/>
+      <c r="V65" s="12"/>
+      <c r="W65" s="19"/>
+    </row>
+    <row r="66" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A66" s="18"/>
+      <c r="B66" s="12"/>
+      <c r="C66" s="12"/>
+      <c r="D66" s="12"/>
+      <c r="E66" s="12"/>
+      <c r="F66" s="12"/>
+      <c r="G66" s="12"/>
+      <c r="H66" s="12"/>
+      <c r="I66" s="12"/>
+      <c r="J66" s="12"/>
+      <c r="K66" s="12"/>
+      <c r="L66" s="12"/>
+      <c r="M66" s="12"/>
+      <c r="N66" s="12"/>
+      <c r="O66" s="12"/>
+      <c r="P66" s="12"/>
+      <c r="Q66" s="12"/>
+      <c r="R66" s="12"/>
+      <c r="S66" s="12"/>
+      <c r="T66" s="12"/>
+      <c r="U66" s="12"/>
+      <c r="V66" s="12"/>
+      <c r="W66" s="19"/>
+    </row>
+    <row r="67" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A67" s="18"/>
+      <c r="B67" s="12"/>
+      <c r="C67" s="12"/>
+      <c r="D67" s="12"/>
+      <c r="E67" s="12"/>
+      <c r="F67" s="12"/>
+      <c r="G67" s="12"/>
+      <c r="H67" s="12"/>
+      <c r="I67" s="12"/>
+      <c r="J67" s="12"/>
+      <c r="K67" s="12"/>
+      <c r="L67" s="12"/>
+      <c r="M67" s="12"/>
+      <c r="N67" s="12"/>
+      <c r="O67" s="12"/>
+      <c r="P67" s="12"/>
+      <c r="Q67" s="12"/>
+      <c r="R67" s="12"/>
+      <c r="S67" s="12"/>
+      <c r="T67" s="12"/>
+      <c r="U67" s="12"/>
+      <c r="V67" s="12"/>
+      <c r="W67" s="19"/>
+    </row>
+    <row r="68" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A68" s="18"/>
+      <c r="B68" s="12"/>
+      <c r="C68" s="12"/>
+      <c r="D68" s="12"/>
+      <c r="E68" s="12"/>
+      <c r="F68" s="12"/>
+      <c r="G68" s="12"/>
+      <c r="H68" s="12"/>
+      <c r="I68" s="12"/>
+      <c r="J68" s="12"/>
+      <c r="K68" s="12"/>
+      <c r="L68" s="12"/>
+      <c r="M68" s="12"/>
+      <c r="N68" s="12"/>
+      <c r="O68" s="12"/>
+      <c r="P68" s="12"/>
+      <c r="Q68" s="12"/>
+      <c r="R68" s="12"/>
+      <c r="S68" s="12"/>
+      <c r="T68" s="12"/>
+      <c r="U68" s="12"/>
+      <c r="V68" s="12"/>
+      <c r="W68" s="19"/>
+    </row>
+    <row r="69" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="21"/>
+      <c r="B69" s="22"/>
+      <c r="C69" s="22"/>
+      <c r="D69" s="22"/>
+      <c r="E69" s="22"/>
+      <c r="F69" s="22"/>
+      <c r="G69" s="22"/>
+      <c r="H69" s="22"/>
+      <c r="I69" s="22"/>
+      <c r="J69" s="22"/>
+      <c r="K69" s="22"/>
+      <c r="L69" s="22"/>
+      <c r="M69" s="22"/>
+      <c r="N69" s="22"/>
+      <c r="O69" s="22"/>
+      <c r="P69" s="22"/>
+      <c r="Q69" s="22"/>
+      <c r="R69" s="22"/>
+      <c r="S69" s="22"/>
+      <c r="T69" s="22"/>
+      <c r="U69" s="22"/>
+      <c r="V69" s="22"/>
+      <c r="W69" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/me/3.Flex-Items.xlsx
+++ b/me/3.Flex-Items.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\flexbox\me\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C67FE060-DE3C-4299-B327-C110213CAF6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B99DB1D-1AAF-4017-B722-2A62E8CD7FB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Order" sheetId="1" r:id="rId1"/>
     <sheet name="Flex basis" sheetId="2" r:id="rId2"/>
     <sheet name="Flex grow" sheetId="3" r:id="rId3"/>
     <sheet name="Flex shrink" sheetId="4" r:id="rId4"/>
+    <sheet name="Flex shorthand" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="111">
   <si>
     <t>構成</t>
   </si>
@@ -340,6 +341,27 @@
   </si>
   <si>
     <t>Sau khi co trình duyệt lại để flex container có chiều rộng là 564px(ko tính border) thì box 1 co lại rộng 271.2px</t>
+  </si>
+  <si>
+    <t>5.Flex-shorthand</t>
+  </si>
+  <si>
+    <t>flexbox\3.Flex-Items\5.Flex-shorthand\index.html</t>
+  </si>
+  <si>
+    <t>      /* flex: flex-grow flex-shrink flex-basis */</t>
+  </si>
+  <si>
+    <t>      /* flex: 0 1 auto */</t>
+  </si>
+  <si>
+    <t>        flex: 0 1 auto;</t>
+  </si>
+  <si>
+    <t>Thuộc tính flex là 1 shorthand giành cho flex-grow, flex-shrink và flex-basis</t>
+  </si>
+  <si>
+    <t>giá trị mặc định là: 0 1 auto</t>
   </si>
 </sst>
 </file>
@@ -2802,6 +2824,108 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>532655</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>104500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E3AAA69-F65B-806A-325D-6CEFF47E138E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6153150" y="7048500"/>
+          <a:ext cx="5961905" cy="2200000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B51C30CA-A845-6489-CA09-DB460E0089FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1704975" y="6800850"/>
+          <a:ext cx="4410075" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -7734,8 +7858,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF4F6427-B0A5-4E3E-BE91-72AE0B6BAAAB}">
   <dimension ref="A2:AB74"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12:H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9653,33 +9777,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD25ADF1-2530-4D32-926E-C0C8ED66891F}">
   <dimension ref="A2:W69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="M39" sqref="M39"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>1</v>
       </c>
@@ -9688,61 +9812,67 @@
       <c r="E7" s="2"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
         <v>2</v>
       </c>
       <c r="F8" s="5"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" s="13" t="s">
         <v>10</v>
       </c>
       <c r="F9" s="5"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B10" s="4"/>
       <c r="C10" s="14" t="s">
         <v>3</v>
       </c>
       <c r="F10" s="5"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" s="4"/>
       <c r="C11" s="14" t="s">
         <v>49</v>
       </c>
       <c r="F11" s="5"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B12" s="4"/>
       <c r="C12" s="14" t="s">
         <v>70</v>
       </c>
       <c r="F12" s="5"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13" s="4"/>
       <c r="C13" s="6" t="s">
         <v>87</v>
       </c>
       <c r="F13" s="5"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G13" t="s">
+        <v>4</v>
+      </c>
+      <c r="H13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14" s="4"/>
       <c r="D14" t="s">
         <v>6</v>
       </c>
       <c r="F14" s="5"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" s="4"/>
       <c r="E15" t="s">
         <v>7</v>
       </c>
       <c r="F15" s="5"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B16" s="7"/>
       <c r="C16" s="8"/>
       <c r="D16" s="9" t="s">
@@ -9750,6 +9880,12 @@
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="10"/>
+      <c r="G16" t="s">
+        <v>4</v>
+      </c>
+      <c r="H16" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="18" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
@@ -11117,4 +11253,485 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35398C15-9E46-4CAE-91A2-52894BCEE30C}">
+  <dimension ref="A2:I49"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="4"/>
+      <c r="C9" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="4"/>
+      <c r="C10" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="4"/>
+      <c r="C11" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" s="5"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="4"/>
+      <c r="C12" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="4"/>
+      <c r="C13" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="F13" s="5"/>
+      <c r="G13" t="s">
+        <v>4</v>
+      </c>
+      <c r="H13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="4"/>
+      <c r="D14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" s="5"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="4"/>
+      <c r="E15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="5"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="7"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="8"/>
+      <c r="F16" s="10"/>
+      <c r="G16" t="s">
+        <v>4</v>
+      </c>
+      <c r="H16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="3"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="5"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B22" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="5"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B23" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="5"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B24" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="5"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="5"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B26" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="5"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B27" s="4"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="5"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B28" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="5"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B29" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="5"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B30" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="5"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B31" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="5"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B32" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="5"/>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B33" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="5"/>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B34" s="4"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="5"/>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B35" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="5"/>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B36" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="5"/>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B37" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="5"/>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B38" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="5"/>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B39" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="12"/>
+      <c r="I39" s="5"/>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B40" s="4"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="12"/>
+      <c r="I40" s="5"/>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B41" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="5"/>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B42" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="5"/>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B43" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="12"/>
+      <c r="I43" s="5"/>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B44" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="12"/>
+      <c r="H44" s="12"/>
+      <c r="I44" s="5"/>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B45" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="12"/>
+      <c r="H45" s="12"/>
+      <c r="I45" s="5"/>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B46" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="12"/>
+      <c r="H46" s="12"/>
+      <c r="I46" s="5"/>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B47" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="12"/>
+      <c r="H47" s="12"/>
+      <c r="I47" s="5"/>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B48" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="12"/>
+      <c r="H48" s="12"/>
+      <c r="I48" s="5"/>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B49" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8"/>
+      <c r="I49" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/me/3.Flex-Items.xlsx
+++ b/me/3.Flex-Items.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\flexbox\me\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B99DB1D-1AAF-4017-B722-2A62E8CD7FB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05FF87FD-3503-47F1-9CE0-7804C488BE34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Order" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Flex grow" sheetId="3" r:id="rId3"/>
     <sheet name="Flex shrink" sheetId="4" r:id="rId4"/>
     <sheet name="Flex shorthand" sheetId="5" r:id="rId5"/>
+    <sheet name="Align self" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="123">
   <si>
     <t>構成</t>
   </si>
@@ -362,6 +363,42 @@
   </si>
   <si>
     <t>giá trị mặc định là: 0 1 auto</t>
+  </si>
+  <si>
+    <t>6.Align-self</t>
+  </si>
+  <si>
+    <t>flexbox\3.Flex-Items\6.Align-self\index.html</t>
+  </si>
+  <si>
+    <t>      /* align-self: auto | flex-start | flex-end | center | baseline | stretch */</t>
+  </si>
+  <si>
+    <t>        height: 400px;</t>
+  </si>
+  <si>
+    <t>        align-items: flex-start;</t>
+  </si>
+  <si>
+    <t>        align-self: center;</t>
+  </si>
+  <si>
+    <t>        align-self: flex-end;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Các flex item sẽ nằm từ phía trên(xuất phát từ phía trên của dòng theo trục CROSS AXIS. Chiều cao của </t>
+  </si>
+  <si>
+    <t xml:space="preserve">các flex item </t>
+  </si>
+  <si>
+    <t>Cho box 1 nằm ở giữa</t>
+  </si>
+  <si>
+    <t>Cho box 2 nằm ở dưới dùng</t>
+  </si>
+  <si>
+    <t>Tương tự như thuộc tính align-items, nhưng align-items áp dụng cho flex container, align-self áp dụng cho flex item</t>
   </si>
 </sst>
 </file>
@@ -2926,6 +2963,267 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>483421</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CB7211E-2EA6-0D87-CB02-4F02E67CE74E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6238875" y="7896225"/>
+          <a:ext cx="5826946" cy="4781550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{175AC990-7A0A-0E94-17DF-99789735A36B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2219325" y="6248400"/>
+          <a:ext cx="5848350" cy="2514600"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Straight Arrow Connector 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{597D1071-FE61-7225-D576-4C45BB8B44E1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1905000" y="6991350"/>
+          <a:ext cx="4581525" cy="3457575"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Straight Arrow Connector 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2565C87E-F822-1D96-2B42-CDE31F5C3E7F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2019300" y="7743825"/>
+          <a:ext cx="5400675" cy="4657725"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="Straight Arrow Connector 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EF71261-E83D-7A64-0CEC-D5201F1DBEC1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2000250" y="3000375"/>
+          <a:ext cx="219075" cy="504825"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -11259,8 +11557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35398C15-9E46-4CAE-91A2-52894BCEE30C}">
   <dimension ref="A2:I49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11734,4 +12032,578 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C81DE645-C70F-4B75-A2F6-B7F10EA436F3}">
+  <dimension ref="A2:K55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="O19" sqref="O19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="4"/>
+      <c r="C8" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="4"/>
+      <c r="C9" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="4"/>
+      <c r="C10" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="4"/>
+      <c r="C11" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="F11" s="5"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="4"/>
+      <c r="C12" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="4"/>
+      <c r="C13" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="F13" s="5"/>
+      <c r="G13" t="s">
+        <v>4</v>
+      </c>
+      <c r="H13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="4"/>
+      <c r="D14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" s="5"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="4"/>
+      <c r="E15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="5"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="7"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="8"/>
+      <c r="F16" s="10"/>
+      <c r="G16" t="s">
+        <v>4</v>
+      </c>
+      <c r="H16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="3"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="5"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B22" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="5"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B23" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="5"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B24" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="5"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="5"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B26" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="5"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B27" s="4"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="5"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B28" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="5"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B29" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="5"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B30" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="5"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B31" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="5"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B32" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="5"/>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B33" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="5"/>
+      <c r="J33" t="s">
+        <v>4</v>
+      </c>
+      <c r="K33" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B34" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="5"/>
+      <c r="K34" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B35" s="4"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="5"/>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B36" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="5"/>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B37" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="5"/>
+      <c r="J37" t="s">
+        <v>4</v>
+      </c>
+      <c r="K37" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B38" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="5"/>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B39" s="4"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="12"/>
+      <c r="I39" s="5"/>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B40" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="12"/>
+      <c r="I40" s="5"/>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B41" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="5"/>
+      <c r="J41" t="s">
+        <v>4</v>
+      </c>
+      <c r="K41" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B42" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="5"/>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B43" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="12"/>
+      <c r="I43" s="5"/>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B44" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="12"/>
+      <c r="H44" s="12"/>
+      <c r="I44" s="5"/>
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B45" s="4"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="12"/>
+      <c r="H45" s="12"/>
+      <c r="I45" s="5"/>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B46" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="12"/>
+      <c r="H46" s="12"/>
+      <c r="I46" s="5"/>
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B47" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="12"/>
+      <c r="H47" s="12"/>
+      <c r="I47" s="5"/>
+    </row>
+    <row r="48" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B48" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="12"/>
+      <c r="H48" s="12"/>
+      <c r="I48" s="5"/>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B49" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="12"/>
+      <c r="H49" s="12"/>
+      <c r="I49" s="5"/>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B50" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C50" s="12"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="12"/>
+      <c r="H50" s="12"/>
+      <c r="I50" s="5"/>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B51" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C51" s="12"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="12"/>
+      <c r="F51" s="12"/>
+      <c r="G51" s="12"/>
+      <c r="H51" s="12"/>
+      <c r="I51" s="5"/>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B52" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C52" s="12"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="12"/>
+      <c r="F52" s="12"/>
+      <c r="G52" s="12"/>
+      <c r="H52" s="12"/>
+      <c r="I52" s="5"/>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B53" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C53" s="12"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="12"/>
+      <c r="F53" s="12"/>
+      <c r="G53" s="12"/>
+      <c r="H53" s="12"/>
+      <c r="I53" s="5"/>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B54" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C54" s="12"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="12"/>
+      <c r="G54" s="12"/>
+      <c r="H54" s="12"/>
+      <c r="I54" s="5"/>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B55" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C55" s="8"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c r="H55" s="8"/>
+      <c r="I55" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/me/3.Flex-Items.xlsx
+++ b/me/3.Flex-Items.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\flexbox\me\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05FF87FD-3503-47F1-9CE0-7804C488BE34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF7E621B-8E1C-4FA0-B878-EFA2F650BC7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Order" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Flex shrink" sheetId="4" r:id="rId4"/>
     <sheet name="Flex shorthand" sheetId="5" r:id="rId5"/>
     <sheet name="Align self" sheetId="6" r:id="rId6"/>
+    <sheet name="Some other" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="139">
   <si>
     <t>構成</t>
   </si>
@@ -400,6 +401,54 @@
   <si>
     <t>Tương tự như thuộc tính align-items, nhưng align-items áp dụng cho flex container, align-self áp dụng cho flex item</t>
   </si>
+  <si>
+    <t>①Check các thuộc tính của css có dùng được đối với từng loại trình duyệt hay không</t>
+  </si>
+  <si>
+    <t>https://caniuse.com/</t>
+  </si>
+  <si>
+    <t>Hỗ trợ check thử các thuộc tính mình dùng trong css có hỗ trợ tốt trên các trình duyệt hay không</t>
+  </si>
+  <si>
+    <t>Phần phía trên là tên của các trình duyệt</t>
+  </si>
+  <si>
+    <t>Phần dưới là tập hợp các phiên bản cũng như là các phiên bản đó có hỗ trợ tốt hay không</t>
+  </si>
+  <si>
+    <t>Màu đỏ có nghĩa là đối với phiên bản trình duyệt này flex box ko hỗ trợ</t>
+  </si>
+  <si>
+    <t>Màu vàng là có hỗ trợ 1 phần nào đó và phải kèm với các prefix tùy theo các trình duyệt mà các prefix đó khác nhau: -webkit-, -moz-, -ms-</t>
+  </si>
+  <si>
+    <t>Các phiên bản trình duyệt có màu xanh có nghĩa là nó hỗ trợ tốt flex box và mình có thể dùng được</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gõ từ khóa flex để check thuộc tính flex </t>
+  </si>
+  <si>
+    <t>②flex css tricks</t>
+  </si>
+  <si>
+    <t>https://css-tricks.com/snippets/css/a-guide-to-flexbox/</t>
+  </si>
+  <si>
+    <t>Hướng dẫn về flex box gồm có lý thuyết và các hình ảnh minh họa</t>
+  </si>
+  <si>
+    <t>③flexyboxes</t>
+  </si>
+  <si>
+    <t>https://the-echoplex.net/flexyboxes/</t>
+  </si>
+  <si>
+    <t>Trang này hỗ trợ phần giao diện cho phép mình chọn các thuộc tính liên quan đến flex box trên giao diện và có thể kiểm tra giao diện trên đó, code được sinh ra kèm theo các prefix</t>
+  </si>
+  <si>
+    <t>để có thể chạy tốt trên các loại trình duyệt khác nhau</t>
+  </si>
 </sst>
 </file>
 
@@ -627,7 +676,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -654,6 +703,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3224,6 +3274,644 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>95249</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>494236</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{112B90F9-8B66-F95D-9042-3597923E56FF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="704849" y="1428751"/>
+          <a:ext cx="11371787" cy="2924174"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>20107</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5689532-10B7-1951-ED9D-C49ED4769FCF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="714375" y="5619750"/>
+          <a:ext cx="11344275" cy="2972857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Arrow Connector 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA631FDF-337D-FD92-CD97-B46CD9449D41}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2962275" y="1295400"/>
+          <a:ext cx="3143250" cy="1485900"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Straight Arrow Connector 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D7FA1BE-D877-8D41-A13E-406FA7CD606D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2943225" y="5286375"/>
+          <a:ext cx="1543050" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Straight Arrow Connector 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A592697-B762-DA53-0F04-E9EEA6910C6F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2324100" y="5495925"/>
+          <a:ext cx="1304925" cy="838200"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>56607</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BD28219-A5AA-2DBD-B27C-278A2B03AE0C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="742950" y="9182100"/>
+          <a:ext cx="11163300" cy="4400007"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>133351</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>400051</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>161836</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{771B996F-7C3B-0F21-272C-E802935242A9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="742951" y="14182725"/>
+          <a:ext cx="11239500" cy="4648111"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>189615</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCC063FD-5A4E-859E-857B-0109C97A8BFD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="752475" y="19354800"/>
+          <a:ext cx="11277600" cy="4647315"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Arrow: Down 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{903BA13C-D51E-B502-FBE5-74368AB6791A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6105525" y="4610100"/>
+          <a:ext cx="209550" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>389582</xdr:colOff>
+      <xdr:row>163</xdr:row>
+      <xdr:rowOff>142150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F43D3954-859C-5464-3A24-2C783E48E1BA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="771525" y="25412700"/>
+          <a:ext cx="7542857" cy="5800000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>171</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>427442</xdr:colOff>
+      <xdr:row>202</xdr:row>
+      <xdr:rowOff>46896</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Picture 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07A3363A-3309-D609-B234-002AC837B02F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="714375" y="32737425"/>
+          <a:ext cx="9466667" cy="5828571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>175</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>175</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="Straight Arrow Connector 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D06120A7-AB29-FCB6-386C-216D86861F1D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6696075" y="33518475"/>
+          <a:ext cx="1676400" cy="38100"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>176</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>196</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="Straight Arrow Connector 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81F55E66-B9A8-9EE8-58B5-F4C68DA81F03}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4010025" y="33575625"/>
+          <a:ext cx="4533900" cy="3867150"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -12038,7 +12726,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C81DE645-C70F-4B75-A2F6-B7F10EA436F3}">
   <dimension ref="A2:K55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
@@ -12606,4 +13294,4236 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85928DBC-4ECC-4CEC-9824-B3873ACD1D62}">
+  <dimension ref="A3:U204"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
+      <selection activeCell="Q165" sqref="Q165"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" s="15"/>
+      <c r="B4" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="16"/>
+      <c r="R4" s="16"/>
+      <c r="S4" s="16"/>
+      <c r="T4" s="16"/>
+      <c r="U4" s="17"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" s="18"/>
+      <c r="B5" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="12"/>
+      <c r="S5" s="12"/>
+      <c r="T5" s="12"/>
+      <c r="U5" s="19"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" s="18"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="19"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" s="18"/>
+      <c r="B7" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="19"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" s="18"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="12"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="19"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" s="18"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="12"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="19"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" s="18"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="12"/>
+      <c r="S10" s="12"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="19"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11" s="18"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="12"/>
+      <c r="S11" s="12"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="19"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" s="18"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="12"/>
+      <c r="S12" s="12"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="19"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13" s="18"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="12"/>
+      <c r="S13" s="12"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="19"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14" s="18"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="12"/>
+      <c r="S14" s="12"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="19"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15" s="18"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="12"/>
+      <c r="S15" s="12"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="19"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16" s="18"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="12"/>
+      <c r="S16" s="12"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="19"/>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A17" s="18"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="12"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="12"/>
+      <c r="R17" s="12"/>
+      <c r="S17" s="12"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="19"/>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A18" s="18"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="12"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="12"/>
+      <c r="R18" s="12"/>
+      <c r="S18" s="12"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="19"/>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A19" s="18"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="12"/>
+      <c r="P19" s="12"/>
+      <c r="Q19" s="12"/>
+      <c r="R19" s="12"/>
+      <c r="S19" s="12"/>
+      <c r="T19" s="5"/>
+      <c r="U19" s="19"/>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A20" s="18"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="12"/>
+      <c r="R20" s="12"/>
+      <c r="S20" s="12"/>
+      <c r="T20" s="5"/>
+      <c r="U20" s="19"/>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A21" s="18"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="12"/>
+      <c r="P21" s="12"/>
+      <c r="Q21" s="12"/>
+      <c r="R21" s="12"/>
+      <c r="S21" s="12"/>
+      <c r="T21" s="5"/>
+      <c r="U21" s="19"/>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A22" s="18"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="12"/>
+      <c r="P22" s="12"/>
+      <c r="Q22" s="12"/>
+      <c r="R22" s="12"/>
+      <c r="S22" s="12"/>
+      <c r="T22" s="5"/>
+      <c r="U22" s="19"/>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A23" s="18"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="12"/>
+      <c r="P23" s="12"/>
+      <c r="Q23" s="12"/>
+      <c r="R23" s="12"/>
+      <c r="S23" s="12"/>
+      <c r="T23" s="5"/>
+      <c r="U23" s="19"/>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A24" s="18"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="8"/>
+      <c r="Q24" s="8"/>
+      <c r="R24" s="8"/>
+      <c r="S24" s="8"/>
+      <c r="T24" s="10"/>
+      <c r="U24" s="19"/>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A25" s="18"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="12"/>
+      <c r="O25" s="12"/>
+      <c r="P25" s="12"/>
+      <c r="Q25" s="12"/>
+      <c r="R25" s="12"/>
+      <c r="S25" s="12"/>
+      <c r="T25" s="12"/>
+      <c r="U25" s="19"/>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A26" s="18"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="12"/>
+      <c r="O26" s="12"/>
+      <c r="P26" s="12"/>
+      <c r="Q26" s="12"/>
+      <c r="R26" s="12"/>
+      <c r="S26" s="12"/>
+      <c r="T26" s="12"/>
+      <c r="U26" s="19"/>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A27" s="18"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="12"/>
+      <c r="N27" s="12"/>
+      <c r="O27" s="12"/>
+      <c r="P27" s="12"/>
+      <c r="Q27" s="12"/>
+      <c r="R27" s="12"/>
+      <c r="S27" s="12"/>
+      <c r="T27" s="12"/>
+      <c r="U27" s="19"/>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A28" s="18"/>
+      <c r="B28" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="2"/>
+      <c r="S28" s="2"/>
+      <c r="T28" s="3"/>
+      <c r="U28" s="19"/>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A29" s="18"/>
+      <c r="B29" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="12"/>
+      <c r="N29" s="12"/>
+      <c r="O29" s="12"/>
+      <c r="P29" s="12"/>
+      <c r="Q29" s="12"/>
+      <c r="R29" s="12"/>
+      <c r="S29" s="12"/>
+      <c r="T29" s="5"/>
+      <c r="U29" s="19"/>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A30" s="18"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="12"/>
+      <c r="N30" s="12"/>
+      <c r="O30" s="12"/>
+      <c r="P30" s="12"/>
+      <c r="Q30" s="12"/>
+      <c r="R30" s="12"/>
+      <c r="S30" s="12"/>
+      <c r="T30" s="5"/>
+      <c r="U30" s="19"/>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A31" s="18"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="12"/>
+      <c r="M31" s="12"/>
+      <c r="N31" s="12"/>
+      <c r="O31" s="12"/>
+      <c r="P31" s="12"/>
+      <c r="Q31" s="12"/>
+      <c r="R31" s="12"/>
+      <c r="S31" s="12"/>
+      <c r="T31" s="5"/>
+      <c r="U31" s="19"/>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A32" s="18"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="12"/>
+      <c r="M32" s="12"/>
+      <c r="N32" s="12"/>
+      <c r="O32" s="12"/>
+      <c r="P32" s="12"/>
+      <c r="Q32" s="12"/>
+      <c r="R32" s="12"/>
+      <c r="S32" s="12"/>
+      <c r="T32" s="5"/>
+      <c r="U32" s="19"/>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A33" s="18"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="12"/>
+      <c r="K33" s="12"/>
+      <c r="L33" s="12"/>
+      <c r="M33" s="12"/>
+      <c r="N33" s="12"/>
+      <c r="O33" s="12"/>
+      <c r="P33" s="12"/>
+      <c r="Q33" s="12"/>
+      <c r="R33" s="12"/>
+      <c r="S33" s="12"/>
+      <c r="T33" s="5"/>
+      <c r="U33" s="19"/>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A34" s="18"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="12"/>
+      <c r="L34" s="12"/>
+      <c r="M34" s="12"/>
+      <c r="N34" s="12"/>
+      <c r="O34" s="12"/>
+      <c r="P34" s="12"/>
+      <c r="Q34" s="12"/>
+      <c r="R34" s="12"/>
+      <c r="S34" s="12"/>
+      <c r="T34" s="5"/>
+      <c r="U34" s="19"/>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A35" s="18"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="12"/>
+      <c r="K35" s="12"/>
+      <c r="L35" s="12"/>
+      <c r="M35" s="12"/>
+      <c r="N35" s="12"/>
+      <c r="O35" s="12"/>
+      <c r="P35" s="12"/>
+      <c r="Q35" s="12"/>
+      <c r="R35" s="12"/>
+      <c r="S35" s="12"/>
+      <c r="T35" s="5"/>
+      <c r="U35" s="19"/>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A36" s="18"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="12"/>
+      <c r="K36" s="12"/>
+      <c r="L36" s="12"/>
+      <c r="M36" s="12"/>
+      <c r="N36" s="12"/>
+      <c r="O36" s="12"/>
+      <c r="P36" s="12"/>
+      <c r="Q36" s="12"/>
+      <c r="R36" s="12"/>
+      <c r="S36" s="12"/>
+      <c r="T36" s="5"/>
+      <c r="U36" s="19"/>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A37" s="18"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="12"/>
+      <c r="K37" s="12"/>
+      <c r="L37" s="12"/>
+      <c r="M37" s="12"/>
+      <c r="N37" s="12"/>
+      <c r="O37" s="12"/>
+      <c r="P37" s="12"/>
+      <c r="Q37" s="12"/>
+      <c r="R37" s="12"/>
+      <c r="S37" s="12"/>
+      <c r="T37" s="5"/>
+      <c r="U37" s="19"/>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A38" s="18"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="12"/>
+      <c r="J38" s="12"/>
+      <c r="K38" s="12"/>
+      <c r="L38" s="12"/>
+      <c r="M38" s="12"/>
+      <c r="N38" s="12"/>
+      <c r="O38" s="12"/>
+      <c r="P38" s="12"/>
+      <c r="Q38" s="12"/>
+      <c r="R38" s="12"/>
+      <c r="S38" s="12"/>
+      <c r="T38" s="5"/>
+      <c r="U38" s="19"/>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A39" s="18"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="12"/>
+      <c r="I39" s="12"/>
+      <c r="J39" s="12"/>
+      <c r="K39" s="12"/>
+      <c r="L39" s="12"/>
+      <c r="M39" s="12"/>
+      <c r="N39" s="12"/>
+      <c r="O39" s="12"/>
+      <c r="P39" s="12"/>
+      <c r="Q39" s="12"/>
+      <c r="R39" s="12"/>
+      <c r="S39" s="12"/>
+      <c r="T39" s="5"/>
+      <c r="U39" s="19"/>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A40" s="18"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="12"/>
+      <c r="I40" s="12"/>
+      <c r="J40" s="12"/>
+      <c r="K40" s="12"/>
+      <c r="L40" s="12"/>
+      <c r="M40" s="12"/>
+      <c r="N40" s="12"/>
+      <c r="O40" s="12"/>
+      <c r="P40" s="12"/>
+      <c r="Q40" s="12"/>
+      <c r="R40" s="12"/>
+      <c r="S40" s="12"/>
+      <c r="T40" s="5"/>
+      <c r="U40" s="19"/>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A41" s="18"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="12"/>
+      <c r="J41" s="12"/>
+      <c r="K41" s="12"/>
+      <c r="L41" s="12"/>
+      <c r="M41" s="12"/>
+      <c r="N41" s="12"/>
+      <c r="O41" s="12"/>
+      <c r="P41" s="12"/>
+      <c r="Q41" s="12"/>
+      <c r="R41" s="12"/>
+      <c r="S41" s="12"/>
+      <c r="T41" s="5"/>
+      <c r="U41" s="19"/>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A42" s="18"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="12"/>
+      <c r="J42" s="12"/>
+      <c r="K42" s="12"/>
+      <c r="L42" s="12"/>
+      <c r="M42" s="12"/>
+      <c r="N42" s="12"/>
+      <c r="O42" s="12"/>
+      <c r="P42" s="12"/>
+      <c r="Q42" s="12"/>
+      <c r="R42" s="12"/>
+      <c r="S42" s="12"/>
+      <c r="T42" s="5"/>
+      <c r="U42" s="19"/>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A43" s="18"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="12"/>
+      <c r="I43" s="12"/>
+      <c r="J43" s="12"/>
+      <c r="K43" s="12"/>
+      <c r="L43" s="12"/>
+      <c r="M43" s="12"/>
+      <c r="N43" s="12"/>
+      <c r="O43" s="12"/>
+      <c r="P43" s="12"/>
+      <c r="Q43" s="12"/>
+      <c r="R43" s="12"/>
+      <c r="S43" s="12"/>
+      <c r="T43" s="5"/>
+      <c r="U43" s="19"/>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A44" s="18"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="12"/>
+      <c r="H44" s="12"/>
+      <c r="I44" s="12"/>
+      <c r="J44" s="12"/>
+      <c r="K44" s="12"/>
+      <c r="L44" s="12"/>
+      <c r="M44" s="12"/>
+      <c r="N44" s="12"/>
+      <c r="O44" s="12"/>
+      <c r="P44" s="12"/>
+      <c r="Q44" s="12"/>
+      <c r="R44" s="12"/>
+      <c r="S44" s="12"/>
+      <c r="T44" s="5"/>
+      <c r="U44" s="19"/>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A45" s="18"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="12"/>
+      <c r="H45" s="12"/>
+      <c r="I45" s="12"/>
+      <c r="J45" s="12"/>
+      <c r="K45" s="12"/>
+      <c r="L45" s="12"/>
+      <c r="M45" s="12"/>
+      <c r="N45" s="12"/>
+      <c r="O45" s="12"/>
+      <c r="P45" s="12"/>
+      <c r="Q45" s="12"/>
+      <c r="R45" s="12"/>
+      <c r="S45" s="12"/>
+      <c r="T45" s="5"/>
+      <c r="U45" s="19"/>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A46" s="18"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="12"/>
+      <c r="H46" s="12"/>
+      <c r="I46" s="12"/>
+      <c r="J46" s="12"/>
+      <c r="K46" s="12"/>
+      <c r="L46" s="12"/>
+      <c r="M46" s="12"/>
+      <c r="N46" s="12"/>
+      <c r="O46" s="12"/>
+      <c r="P46" s="12"/>
+      <c r="Q46" s="12"/>
+      <c r="R46" s="12"/>
+      <c r="S46" s="12"/>
+      <c r="T46" s="5"/>
+      <c r="U46" s="19"/>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A47" s="18"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="12"/>
+      <c r="H47" s="12"/>
+      <c r="I47" s="12"/>
+      <c r="J47" s="12"/>
+      <c r="K47" s="12"/>
+      <c r="L47" s="12"/>
+      <c r="M47" s="12"/>
+      <c r="N47" s="12"/>
+      <c r="O47" s="12"/>
+      <c r="P47" s="12"/>
+      <c r="Q47" s="12"/>
+      <c r="R47" s="12"/>
+      <c r="S47" s="12"/>
+      <c r="T47" s="5"/>
+      <c r="U47" s="19"/>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A48" s="18"/>
+      <c r="B48" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="12"/>
+      <c r="H48" s="12"/>
+      <c r="I48" s="12"/>
+      <c r="J48" s="12"/>
+      <c r="K48" s="12"/>
+      <c r="L48" s="12"/>
+      <c r="M48" s="12"/>
+      <c r="N48" s="12"/>
+      <c r="O48" s="12"/>
+      <c r="P48" s="12"/>
+      <c r="Q48" s="12"/>
+      <c r="R48" s="12"/>
+      <c r="S48" s="12"/>
+      <c r="T48" s="5"/>
+      <c r="U48" s="19"/>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A49" s="18"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="12"/>
+      <c r="H49" s="12"/>
+      <c r="I49" s="12"/>
+      <c r="J49" s="12"/>
+      <c r="K49" s="12"/>
+      <c r="L49" s="12"/>
+      <c r="M49" s="12"/>
+      <c r="N49" s="12"/>
+      <c r="O49" s="12"/>
+      <c r="P49" s="12"/>
+      <c r="Q49" s="12"/>
+      <c r="R49" s="12"/>
+      <c r="S49" s="12"/>
+      <c r="T49" s="5"/>
+      <c r="U49" s="19"/>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A50" s="18"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="12"/>
+      <c r="H50" s="12"/>
+      <c r="I50" s="12"/>
+      <c r="J50" s="12"/>
+      <c r="K50" s="12"/>
+      <c r="L50" s="12"/>
+      <c r="M50" s="12"/>
+      <c r="N50" s="12"/>
+      <c r="O50" s="12"/>
+      <c r="P50" s="12"/>
+      <c r="Q50" s="12"/>
+      <c r="R50" s="12"/>
+      <c r="S50" s="12"/>
+      <c r="T50" s="5"/>
+      <c r="U50" s="19"/>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A51" s="18"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="12"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="12"/>
+      <c r="F51" s="12"/>
+      <c r="G51" s="12"/>
+      <c r="H51" s="12"/>
+      <c r="I51" s="12"/>
+      <c r="J51" s="12"/>
+      <c r="K51" s="12"/>
+      <c r="L51" s="12"/>
+      <c r="M51" s="12"/>
+      <c r="N51" s="12"/>
+      <c r="O51" s="12"/>
+      <c r="P51" s="12"/>
+      <c r="Q51" s="12"/>
+      <c r="R51" s="12"/>
+      <c r="S51" s="12"/>
+      <c r="T51" s="5"/>
+      <c r="U51" s="19"/>
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A52" s="18"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="12"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="12"/>
+      <c r="F52" s="12"/>
+      <c r="G52" s="12"/>
+      <c r="H52" s="12"/>
+      <c r="I52" s="12"/>
+      <c r="J52" s="12"/>
+      <c r="K52" s="12"/>
+      <c r="L52" s="12"/>
+      <c r="M52" s="12"/>
+      <c r="N52" s="12"/>
+      <c r="O52" s="12"/>
+      <c r="P52" s="12"/>
+      <c r="Q52" s="12"/>
+      <c r="R52" s="12"/>
+      <c r="S52" s="12"/>
+      <c r="T52" s="5"/>
+      <c r="U52" s="19"/>
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A53" s="18"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="12"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="12"/>
+      <c r="F53" s="12"/>
+      <c r="G53" s="12"/>
+      <c r="H53" s="12"/>
+      <c r="I53" s="12"/>
+      <c r="J53" s="12"/>
+      <c r="K53" s="12"/>
+      <c r="L53" s="12"/>
+      <c r="M53" s="12"/>
+      <c r="N53" s="12"/>
+      <c r="O53" s="12"/>
+      <c r="P53" s="12"/>
+      <c r="Q53" s="12"/>
+      <c r="R53" s="12"/>
+      <c r="S53" s="12"/>
+      <c r="T53" s="5"/>
+      <c r="U53" s="19"/>
+    </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A54" s="18"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="12"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="12"/>
+      <c r="G54" s="12"/>
+      <c r="H54" s="12"/>
+      <c r="I54" s="12"/>
+      <c r="J54" s="12"/>
+      <c r="K54" s="12"/>
+      <c r="L54" s="12"/>
+      <c r="M54" s="12"/>
+      <c r="N54" s="12"/>
+      <c r="O54" s="12"/>
+      <c r="P54" s="12"/>
+      <c r="Q54" s="12"/>
+      <c r="R54" s="12"/>
+      <c r="S54" s="12"/>
+      <c r="T54" s="5"/>
+      <c r="U54" s="19"/>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A55" s="18"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="12"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="12"/>
+      <c r="G55" s="12"/>
+      <c r="H55" s="12"/>
+      <c r="I55" s="12"/>
+      <c r="J55" s="12"/>
+      <c r="K55" s="12"/>
+      <c r="L55" s="12"/>
+      <c r="M55" s="12"/>
+      <c r="N55" s="12"/>
+      <c r="O55" s="12"/>
+      <c r="P55" s="12"/>
+      <c r="Q55" s="12"/>
+      <c r="R55" s="12"/>
+      <c r="S55" s="12"/>
+      <c r="T55" s="5"/>
+      <c r="U55" s="19"/>
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A56" s="18"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="12"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="12"/>
+      <c r="F56" s="12"/>
+      <c r="G56" s="12"/>
+      <c r="H56" s="12"/>
+      <c r="I56" s="12"/>
+      <c r="J56" s="12"/>
+      <c r="K56" s="12"/>
+      <c r="L56" s="12"/>
+      <c r="M56" s="12"/>
+      <c r="N56" s="12"/>
+      <c r="O56" s="12"/>
+      <c r="P56" s="12"/>
+      <c r="Q56" s="12"/>
+      <c r="R56" s="12"/>
+      <c r="S56" s="12"/>
+      <c r="T56" s="5"/>
+      <c r="U56" s="19"/>
+    </row>
+    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A57" s="18"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="12"/>
+      <c r="D57" s="12"/>
+      <c r="E57" s="12"/>
+      <c r="F57" s="12"/>
+      <c r="G57" s="12"/>
+      <c r="H57" s="12"/>
+      <c r="I57" s="12"/>
+      <c r="J57" s="12"/>
+      <c r="K57" s="12"/>
+      <c r="L57" s="12"/>
+      <c r="M57" s="12"/>
+      <c r="N57" s="12"/>
+      <c r="O57" s="12"/>
+      <c r="P57" s="12"/>
+      <c r="Q57" s="12"/>
+      <c r="R57" s="12"/>
+      <c r="S57" s="12"/>
+      <c r="T57" s="5"/>
+      <c r="U57" s="19"/>
+    </row>
+    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A58" s="18"/>
+      <c r="B58" s="4"/>
+      <c r="C58" s="12"/>
+      <c r="D58" s="12"/>
+      <c r="E58" s="12"/>
+      <c r="F58" s="12"/>
+      <c r="G58" s="12"/>
+      <c r="H58" s="12"/>
+      <c r="I58" s="12"/>
+      <c r="J58" s="12"/>
+      <c r="K58" s="12"/>
+      <c r="L58" s="12"/>
+      <c r="M58" s="12"/>
+      <c r="N58" s="12"/>
+      <c r="O58" s="12"/>
+      <c r="P58" s="12"/>
+      <c r="Q58" s="12"/>
+      <c r="R58" s="12"/>
+      <c r="S58" s="12"/>
+      <c r="T58" s="5"/>
+      <c r="U58" s="19"/>
+    </row>
+    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A59" s="18"/>
+      <c r="B59" s="4"/>
+      <c r="C59" s="12"/>
+      <c r="D59" s="12"/>
+      <c r="E59" s="12"/>
+      <c r="F59" s="12"/>
+      <c r="G59" s="12"/>
+      <c r="H59" s="12"/>
+      <c r="I59" s="12"/>
+      <c r="J59" s="12"/>
+      <c r="K59" s="12"/>
+      <c r="L59" s="12"/>
+      <c r="M59" s="12"/>
+      <c r="N59" s="12"/>
+      <c r="O59" s="12"/>
+      <c r="P59" s="12"/>
+      <c r="Q59" s="12"/>
+      <c r="R59" s="12"/>
+      <c r="S59" s="12"/>
+      <c r="T59" s="5"/>
+      <c r="U59" s="19"/>
+    </row>
+    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A60" s="18"/>
+      <c r="B60" s="4"/>
+      <c r="C60" s="12"/>
+      <c r="D60" s="12"/>
+      <c r="E60" s="12"/>
+      <c r="F60" s="12"/>
+      <c r="G60" s="12"/>
+      <c r="H60" s="12"/>
+      <c r="I60" s="12"/>
+      <c r="J60" s="12"/>
+      <c r="K60" s="12"/>
+      <c r="L60" s="12"/>
+      <c r="M60" s="12"/>
+      <c r="N60" s="12"/>
+      <c r="O60" s="12"/>
+      <c r="P60" s="12"/>
+      <c r="Q60" s="12"/>
+      <c r="R60" s="12"/>
+      <c r="S60" s="12"/>
+      <c r="T60" s="5"/>
+      <c r="U60" s="19"/>
+    </row>
+    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A61" s="18"/>
+      <c r="B61" s="4"/>
+      <c r="C61" s="12"/>
+      <c r="D61" s="12"/>
+      <c r="E61" s="12"/>
+      <c r="F61" s="12"/>
+      <c r="G61" s="12"/>
+      <c r="H61" s="12"/>
+      <c r="I61" s="12"/>
+      <c r="J61" s="12"/>
+      <c r="K61" s="12"/>
+      <c r="L61" s="12"/>
+      <c r="M61" s="12"/>
+      <c r="N61" s="12"/>
+      <c r="O61" s="12"/>
+      <c r="P61" s="12"/>
+      <c r="Q61" s="12"/>
+      <c r="R61" s="12"/>
+      <c r="S61" s="12"/>
+      <c r="T61" s="5"/>
+      <c r="U61" s="19"/>
+    </row>
+    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A62" s="18"/>
+      <c r="B62" s="4"/>
+      <c r="C62" s="12"/>
+      <c r="D62" s="12"/>
+      <c r="E62" s="12"/>
+      <c r="F62" s="12"/>
+      <c r="G62" s="12"/>
+      <c r="H62" s="12"/>
+      <c r="I62" s="12"/>
+      <c r="J62" s="12"/>
+      <c r="K62" s="12"/>
+      <c r="L62" s="12"/>
+      <c r="M62" s="12"/>
+      <c r="N62" s="12"/>
+      <c r="O62" s="12"/>
+      <c r="P62" s="12"/>
+      <c r="Q62" s="12"/>
+      <c r="R62" s="12"/>
+      <c r="S62" s="12"/>
+      <c r="T62" s="5"/>
+      <c r="U62" s="19"/>
+    </row>
+    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A63" s="18"/>
+      <c r="B63" s="4"/>
+      <c r="C63" s="12"/>
+      <c r="D63" s="12"/>
+      <c r="E63" s="12"/>
+      <c r="F63" s="12"/>
+      <c r="G63" s="12"/>
+      <c r="H63" s="12"/>
+      <c r="I63" s="12"/>
+      <c r="J63" s="12"/>
+      <c r="K63" s="12"/>
+      <c r="L63" s="12"/>
+      <c r="M63" s="12"/>
+      <c r="N63" s="12"/>
+      <c r="O63" s="12"/>
+      <c r="P63" s="12"/>
+      <c r="Q63" s="12"/>
+      <c r="R63" s="12"/>
+      <c r="S63" s="12"/>
+      <c r="T63" s="5"/>
+      <c r="U63" s="19"/>
+    </row>
+    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A64" s="18"/>
+      <c r="B64" s="4"/>
+      <c r="C64" s="12"/>
+      <c r="D64" s="12"/>
+      <c r="E64" s="12"/>
+      <c r="F64" s="12"/>
+      <c r="G64" s="12"/>
+      <c r="H64" s="12"/>
+      <c r="I64" s="12"/>
+      <c r="J64" s="12"/>
+      <c r="K64" s="12"/>
+      <c r="L64" s="12"/>
+      <c r="M64" s="12"/>
+      <c r="N64" s="12"/>
+      <c r="O64" s="12"/>
+      <c r="P64" s="12"/>
+      <c r="Q64" s="12"/>
+      <c r="R64" s="12"/>
+      <c r="S64" s="12"/>
+      <c r="T64" s="5"/>
+      <c r="U64" s="19"/>
+    </row>
+    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A65" s="18"/>
+      <c r="B65" s="4"/>
+      <c r="C65" s="12"/>
+      <c r="D65" s="12"/>
+      <c r="E65" s="12"/>
+      <c r="F65" s="12"/>
+      <c r="G65" s="12"/>
+      <c r="H65" s="12"/>
+      <c r="I65" s="12"/>
+      <c r="J65" s="12"/>
+      <c r="K65" s="12"/>
+      <c r="L65" s="12"/>
+      <c r="M65" s="12"/>
+      <c r="N65" s="12"/>
+      <c r="O65" s="12"/>
+      <c r="P65" s="12"/>
+      <c r="Q65" s="12"/>
+      <c r="R65" s="12"/>
+      <c r="S65" s="12"/>
+      <c r="T65" s="5"/>
+      <c r="U65" s="19"/>
+    </row>
+    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A66" s="18"/>
+      <c r="B66" s="4"/>
+      <c r="C66" s="12"/>
+      <c r="D66" s="12"/>
+      <c r="E66" s="12"/>
+      <c r="F66" s="12"/>
+      <c r="G66" s="12"/>
+      <c r="H66" s="12"/>
+      <c r="I66" s="12"/>
+      <c r="J66" s="12"/>
+      <c r="K66" s="12"/>
+      <c r="L66" s="12"/>
+      <c r="M66" s="12"/>
+      <c r="N66" s="12"/>
+      <c r="O66" s="12"/>
+      <c r="P66" s="12"/>
+      <c r="Q66" s="12"/>
+      <c r="R66" s="12"/>
+      <c r="S66" s="12"/>
+      <c r="T66" s="5"/>
+      <c r="U66" s="19"/>
+    </row>
+    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A67" s="18"/>
+      <c r="B67" s="4"/>
+      <c r="C67" s="12"/>
+      <c r="D67" s="12"/>
+      <c r="E67" s="12"/>
+      <c r="F67" s="12"/>
+      <c r="G67" s="12"/>
+      <c r="H67" s="12"/>
+      <c r="I67" s="12"/>
+      <c r="J67" s="12"/>
+      <c r="K67" s="12"/>
+      <c r="L67" s="12"/>
+      <c r="M67" s="12"/>
+      <c r="N67" s="12"/>
+      <c r="O67" s="12"/>
+      <c r="P67" s="12"/>
+      <c r="Q67" s="12"/>
+      <c r="R67" s="12"/>
+      <c r="S67" s="12"/>
+      <c r="T67" s="5"/>
+      <c r="U67" s="19"/>
+    </row>
+    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A68" s="18"/>
+      <c r="B68" s="4"/>
+      <c r="C68" s="12"/>
+      <c r="D68" s="12"/>
+      <c r="E68" s="12"/>
+      <c r="F68" s="12"/>
+      <c r="G68" s="12"/>
+      <c r="H68" s="12"/>
+      <c r="I68" s="12"/>
+      <c r="J68" s="12"/>
+      <c r="K68" s="12"/>
+      <c r="L68" s="12"/>
+      <c r="M68" s="12"/>
+      <c r="N68" s="12"/>
+      <c r="O68" s="12"/>
+      <c r="P68" s="12"/>
+      <c r="Q68" s="12"/>
+      <c r="R68" s="12"/>
+      <c r="S68" s="12"/>
+      <c r="T68" s="5"/>
+      <c r="U68" s="19"/>
+    </row>
+    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A69" s="18"/>
+      <c r="B69" s="4"/>
+      <c r="C69" s="12"/>
+      <c r="D69" s="12"/>
+      <c r="E69" s="12"/>
+      <c r="F69" s="12"/>
+      <c r="G69" s="12"/>
+      <c r="H69" s="12"/>
+      <c r="I69" s="12"/>
+      <c r="J69" s="12"/>
+      <c r="K69" s="12"/>
+      <c r="L69" s="12"/>
+      <c r="M69" s="12"/>
+      <c r="N69" s="12"/>
+      <c r="O69" s="12"/>
+      <c r="P69" s="12"/>
+      <c r="Q69" s="12"/>
+      <c r="R69" s="12"/>
+      <c r="S69" s="12"/>
+      <c r="T69" s="5"/>
+      <c r="U69" s="19"/>
+    </row>
+    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A70" s="18"/>
+      <c r="B70" s="4"/>
+      <c r="C70" s="12"/>
+      <c r="D70" s="12"/>
+      <c r="E70" s="12"/>
+      <c r="F70" s="12"/>
+      <c r="G70" s="12"/>
+      <c r="H70" s="12"/>
+      <c r="I70" s="12"/>
+      <c r="J70" s="12"/>
+      <c r="K70" s="12"/>
+      <c r="L70" s="12"/>
+      <c r="M70" s="12"/>
+      <c r="N70" s="12"/>
+      <c r="O70" s="12"/>
+      <c r="P70" s="12"/>
+      <c r="Q70" s="12"/>
+      <c r="R70" s="12"/>
+      <c r="S70" s="12"/>
+      <c r="T70" s="5"/>
+      <c r="U70" s="19"/>
+    </row>
+    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A71" s="18"/>
+      <c r="B71" s="4"/>
+      <c r="C71" s="12"/>
+      <c r="D71" s="12"/>
+      <c r="E71" s="12"/>
+      <c r="F71" s="12"/>
+      <c r="G71" s="12"/>
+      <c r="H71" s="12"/>
+      <c r="I71" s="12"/>
+      <c r="J71" s="12"/>
+      <c r="K71" s="12"/>
+      <c r="L71" s="12"/>
+      <c r="M71" s="12"/>
+      <c r="N71" s="12"/>
+      <c r="O71" s="12"/>
+      <c r="P71" s="12"/>
+      <c r="Q71" s="12"/>
+      <c r="R71" s="12"/>
+      <c r="S71" s="12"/>
+      <c r="T71" s="5"/>
+      <c r="U71" s="19"/>
+    </row>
+    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A72" s="18"/>
+      <c r="B72" s="4"/>
+      <c r="C72" s="12"/>
+      <c r="D72" s="12"/>
+      <c r="E72" s="12"/>
+      <c r="F72" s="12"/>
+      <c r="G72" s="12"/>
+      <c r="H72" s="12"/>
+      <c r="I72" s="12"/>
+      <c r="J72" s="12"/>
+      <c r="K72" s="12"/>
+      <c r="L72" s="12"/>
+      <c r="M72" s="12"/>
+      <c r="N72" s="12"/>
+      <c r="O72" s="12"/>
+      <c r="P72" s="12"/>
+      <c r="Q72" s="12"/>
+      <c r="R72" s="12"/>
+      <c r="S72" s="12"/>
+      <c r="T72" s="5"/>
+      <c r="U72" s="19"/>
+    </row>
+    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A73" s="18"/>
+      <c r="B73" s="4"/>
+      <c r="C73" s="12"/>
+      <c r="D73" s="12"/>
+      <c r="E73" s="12"/>
+      <c r="F73" s="12"/>
+      <c r="G73" s="12"/>
+      <c r="H73" s="12"/>
+      <c r="I73" s="12"/>
+      <c r="J73" s="12"/>
+      <c r="K73" s="12"/>
+      <c r="L73" s="12"/>
+      <c r="M73" s="12"/>
+      <c r="N73" s="12"/>
+      <c r="O73" s="12"/>
+      <c r="P73" s="12"/>
+      <c r="Q73" s="12"/>
+      <c r="R73" s="12"/>
+      <c r="S73" s="12"/>
+      <c r="T73" s="5"/>
+      <c r="U73" s="19"/>
+    </row>
+    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A74" s="18"/>
+      <c r="B74" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C74" s="12"/>
+      <c r="D74" s="12"/>
+      <c r="E74" s="12"/>
+      <c r="F74" s="12"/>
+      <c r="G74" s="12"/>
+      <c r="H74" s="12"/>
+      <c r="I74" s="12"/>
+      <c r="J74" s="12"/>
+      <c r="K74" s="12"/>
+      <c r="L74" s="12"/>
+      <c r="M74" s="12"/>
+      <c r="N74" s="12"/>
+      <c r="O74" s="12"/>
+      <c r="P74" s="12"/>
+      <c r="Q74" s="12"/>
+      <c r="R74" s="12"/>
+      <c r="S74" s="12"/>
+      <c r="T74" s="5"/>
+      <c r="U74" s="19"/>
+    </row>
+    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A75" s="18"/>
+      <c r="B75" s="4"/>
+      <c r="C75" s="12"/>
+      <c r="D75" s="12"/>
+      <c r="E75" s="12"/>
+      <c r="F75" s="12"/>
+      <c r="G75" s="12"/>
+      <c r="H75" s="12"/>
+      <c r="I75" s="12"/>
+      <c r="J75" s="12"/>
+      <c r="K75" s="12"/>
+      <c r="L75" s="12"/>
+      <c r="M75" s="12"/>
+      <c r="N75" s="12"/>
+      <c r="O75" s="12"/>
+      <c r="P75" s="12"/>
+      <c r="Q75" s="12"/>
+      <c r="R75" s="12"/>
+      <c r="S75" s="12"/>
+      <c r="T75" s="5"/>
+      <c r="U75" s="19"/>
+    </row>
+    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A76" s="18"/>
+      <c r="B76" s="4"/>
+      <c r="C76" s="12"/>
+      <c r="D76" s="12"/>
+      <c r="E76" s="12"/>
+      <c r="F76" s="12"/>
+      <c r="G76" s="12"/>
+      <c r="H76" s="12"/>
+      <c r="I76" s="12"/>
+      <c r="J76" s="12"/>
+      <c r="K76" s="12"/>
+      <c r="L76" s="12"/>
+      <c r="M76" s="12"/>
+      <c r="N76" s="12"/>
+      <c r="O76" s="12"/>
+      <c r="P76" s="12"/>
+      <c r="Q76" s="12"/>
+      <c r="R76" s="12"/>
+      <c r="S76" s="12"/>
+      <c r="T76" s="5"/>
+      <c r="U76" s="19"/>
+    </row>
+    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A77" s="18"/>
+      <c r="B77" s="4"/>
+      <c r="C77" s="12"/>
+      <c r="D77" s="12"/>
+      <c r="E77" s="12"/>
+      <c r="F77" s="12"/>
+      <c r="G77" s="12"/>
+      <c r="H77" s="12"/>
+      <c r="I77" s="12"/>
+      <c r="J77" s="12"/>
+      <c r="K77" s="12"/>
+      <c r="L77" s="12"/>
+      <c r="M77" s="12"/>
+      <c r="N77" s="12"/>
+      <c r="O77" s="12"/>
+      <c r="P77" s="12"/>
+      <c r="Q77" s="12"/>
+      <c r="R77" s="12"/>
+      <c r="S77" s="12"/>
+      <c r="T77" s="5"/>
+      <c r="U77" s="19"/>
+    </row>
+    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A78" s="18"/>
+      <c r="B78" s="4"/>
+      <c r="C78" s="12"/>
+      <c r="D78" s="12"/>
+      <c r="E78" s="12"/>
+      <c r="F78" s="12"/>
+      <c r="G78" s="12"/>
+      <c r="H78" s="12"/>
+      <c r="I78" s="12"/>
+      <c r="J78" s="12"/>
+      <c r="K78" s="12"/>
+      <c r="L78" s="12"/>
+      <c r="M78" s="12"/>
+      <c r="N78" s="12"/>
+      <c r="O78" s="12"/>
+      <c r="P78" s="12"/>
+      <c r="Q78" s="12"/>
+      <c r="R78" s="12"/>
+      <c r="S78" s="12"/>
+      <c r="T78" s="5"/>
+      <c r="U78" s="19"/>
+    </row>
+    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A79" s="18"/>
+      <c r="B79" s="4"/>
+      <c r="C79" s="12"/>
+      <c r="D79" s="12"/>
+      <c r="E79" s="12"/>
+      <c r="F79" s="12"/>
+      <c r="G79" s="12"/>
+      <c r="H79" s="12"/>
+      <c r="I79" s="12"/>
+      <c r="J79" s="12"/>
+      <c r="K79" s="12"/>
+      <c r="L79" s="12"/>
+      <c r="M79" s="12"/>
+      <c r="N79" s="12"/>
+      <c r="O79" s="12"/>
+      <c r="P79" s="12"/>
+      <c r="Q79" s="12"/>
+      <c r="R79" s="12"/>
+      <c r="S79" s="12"/>
+      <c r="T79" s="5"/>
+      <c r="U79" s="19"/>
+    </row>
+    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A80" s="18"/>
+      <c r="B80" s="4"/>
+      <c r="C80" s="12"/>
+      <c r="D80" s="12"/>
+      <c r="E80" s="12"/>
+      <c r="F80" s="12"/>
+      <c r="G80" s="12"/>
+      <c r="H80" s="12"/>
+      <c r="I80" s="12"/>
+      <c r="J80" s="12"/>
+      <c r="K80" s="12"/>
+      <c r="L80" s="12"/>
+      <c r="M80" s="12"/>
+      <c r="N80" s="12"/>
+      <c r="O80" s="12"/>
+      <c r="P80" s="12"/>
+      <c r="Q80" s="12"/>
+      <c r="R80" s="12"/>
+      <c r="S80" s="12"/>
+      <c r="T80" s="5"/>
+      <c r="U80" s="19"/>
+    </row>
+    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A81" s="18"/>
+      <c r="B81" s="4"/>
+      <c r="C81" s="12"/>
+      <c r="D81" s="12"/>
+      <c r="E81" s="12"/>
+      <c r="F81" s="12"/>
+      <c r="G81" s="12"/>
+      <c r="H81" s="12"/>
+      <c r="I81" s="12"/>
+      <c r="J81" s="12"/>
+      <c r="K81" s="12"/>
+      <c r="L81" s="12"/>
+      <c r="M81" s="12"/>
+      <c r="N81" s="12"/>
+      <c r="O81" s="12"/>
+      <c r="P81" s="12"/>
+      <c r="Q81" s="12"/>
+      <c r="R81" s="12"/>
+      <c r="S81" s="12"/>
+      <c r="T81" s="5"/>
+      <c r="U81" s="19"/>
+    </row>
+    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A82" s="18"/>
+      <c r="B82" s="4"/>
+      <c r="C82" s="12"/>
+      <c r="D82" s="12"/>
+      <c r="E82" s="12"/>
+      <c r="F82" s="12"/>
+      <c r="G82" s="12"/>
+      <c r="H82" s="12"/>
+      <c r="I82" s="12"/>
+      <c r="J82" s="12"/>
+      <c r="K82" s="12"/>
+      <c r="L82" s="12"/>
+      <c r="M82" s="12"/>
+      <c r="N82" s="12"/>
+      <c r="O82" s="12"/>
+      <c r="P82" s="12"/>
+      <c r="Q82" s="12"/>
+      <c r="R82" s="12"/>
+      <c r="S82" s="12"/>
+      <c r="T82" s="5"/>
+      <c r="U82" s="19"/>
+    </row>
+    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A83" s="18"/>
+      <c r="B83" s="4"/>
+      <c r="C83" s="12"/>
+      <c r="D83" s="12"/>
+      <c r="E83" s="12"/>
+      <c r="F83" s="12"/>
+      <c r="G83" s="12"/>
+      <c r="H83" s="12"/>
+      <c r="I83" s="12"/>
+      <c r="J83" s="12"/>
+      <c r="K83" s="12"/>
+      <c r="L83" s="12"/>
+      <c r="M83" s="12"/>
+      <c r="N83" s="12"/>
+      <c r="O83" s="12"/>
+      <c r="P83" s="12"/>
+      <c r="Q83" s="12"/>
+      <c r="R83" s="12"/>
+      <c r="S83" s="12"/>
+      <c r="T83" s="5"/>
+      <c r="U83" s="19"/>
+    </row>
+    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A84" s="18"/>
+      <c r="B84" s="4"/>
+      <c r="C84" s="12"/>
+      <c r="D84" s="12"/>
+      <c r="E84" s="12"/>
+      <c r="F84" s="12"/>
+      <c r="G84" s="12"/>
+      <c r="H84" s="12"/>
+      <c r="I84" s="12"/>
+      <c r="J84" s="12"/>
+      <c r="K84" s="12"/>
+      <c r="L84" s="12"/>
+      <c r="M84" s="12"/>
+      <c r="N84" s="12"/>
+      <c r="O84" s="12"/>
+      <c r="P84" s="12"/>
+      <c r="Q84" s="12"/>
+      <c r="R84" s="12"/>
+      <c r="S84" s="12"/>
+      <c r="T84" s="5"/>
+      <c r="U84" s="19"/>
+    </row>
+    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A85" s="18"/>
+      <c r="B85" s="4"/>
+      <c r="C85" s="12"/>
+      <c r="D85" s="12"/>
+      <c r="E85" s="12"/>
+      <c r="F85" s="12"/>
+      <c r="G85" s="12"/>
+      <c r="H85" s="12"/>
+      <c r="I85" s="12"/>
+      <c r="J85" s="12"/>
+      <c r="K85" s="12"/>
+      <c r="L85" s="12"/>
+      <c r="M85" s="12"/>
+      <c r="N85" s="12"/>
+      <c r="O85" s="12"/>
+      <c r="P85" s="12"/>
+      <c r="Q85" s="12"/>
+      <c r="R85" s="12"/>
+      <c r="S85" s="12"/>
+      <c r="T85" s="5"/>
+      <c r="U85" s="19"/>
+    </row>
+    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A86" s="18"/>
+      <c r="B86" s="4"/>
+      <c r="C86" s="12"/>
+      <c r="D86" s="12"/>
+      <c r="E86" s="12"/>
+      <c r="F86" s="12"/>
+      <c r="G86" s="12"/>
+      <c r="H86" s="12"/>
+      <c r="I86" s="12"/>
+      <c r="J86" s="12"/>
+      <c r="K86" s="12"/>
+      <c r="L86" s="12"/>
+      <c r="M86" s="12"/>
+      <c r="N86" s="12"/>
+      <c r="O86" s="12"/>
+      <c r="P86" s="12"/>
+      <c r="Q86" s="12"/>
+      <c r="R86" s="12"/>
+      <c r="S86" s="12"/>
+      <c r="T86" s="5"/>
+      <c r="U86" s="19"/>
+    </row>
+    <row r="87" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A87" s="18"/>
+      <c r="B87" s="4"/>
+      <c r="C87" s="12"/>
+      <c r="D87" s="12"/>
+      <c r="E87" s="12"/>
+      <c r="F87" s="12"/>
+      <c r="G87" s="12"/>
+      <c r="H87" s="12"/>
+      <c r="I87" s="12"/>
+      <c r="J87" s="12"/>
+      <c r="K87" s="12"/>
+      <c r="L87" s="12"/>
+      <c r="M87" s="12"/>
+      <c r="N87" s="12"/>
+      <c r="O87" s="12"/>
+      <c r="P87" s="12"/>
+      <c r="Q87" s="12"/>
+      <c r="R87" s="12"/>
+      <c r="S87" s="12"/>
+      <c r="T87" s="5"/>
+      <c r="U87" s="19"/>
+    </row>
+    <row r="88" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A88" s="18"/>
+      <c r="B88" s="4"/>
+      <c r="C88" s="12"/>
+      <c r="D88" s="12"/>
+      <c r="E88" s="12"/>
+      <c r="F88" s="12"/>
+      <c r="G88" s="12"/>
+      <c r="H88" s="12"/>
+      <c r="I88" s="12"/>
+      <c r="J88" s="12"/>
+      <c r="K88" s="12"/>
+      <c r="L88" s="12"/>
+      <c r="M88" s="12"/>
+      <c r="N88" s="12"/>
+      <c r="O88" s="12"/>
+      <c r="P88" s="12"/>
+      <c r="Q88" s="12"/>
+      <c r="R88" s="12"/>
+      <c r="S88" s="12"/>
+      <c r="T88" s="5"/>
+      <c r="U88" s="19"/>
+    </row>
+    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A89" s="18"/>
+      <c r="B89" s="4"/>
+      <c r="C89" s="12"/>
+      <c r="D89" s="12"/>
+      <c r="E89" s="12"/>
+      <c r="F89" s="12"/>
+      <c r="G89" s="12"/>
+      <c r="H89" s="12"/>
+      <c r="I89" s="12"/>
+      <c r="J89" s="12"/>
+      <c r="K89" s="12"/>
+      <c r="L89" s="12"/>
+      <c r="M89" s="12"/>
+      <c r="N89" s="12"/>
+      <c r="O89" s="12"/>
+      <c r="P89" s="12"/>
+      <c r="Q89" s="12"/>
+      <c r="R89" s="12"/>
+      <c r="S89" s="12"/>
+      <c r="T89" s="5"/>
+      <c r="U89" s="19"/>
+    </row>
+    <row r="90" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A90" s="18"/>
+      <c r="B90" s="4"/>
+      <c r="C90" s="12"/>
+      <c r="D90" s="12"/>
+      <c r="E90" s="12"/>
+      <c r="F90" s="12"/>
+      <c r="G90" s="12"/>
+      <c r="H90" s="12"/>
+      <c r="I90" s="12"/>
+      <c r="J90" s="12"/>
+      <c r="K90" s="12"/>
+      <c r="L90" s="12"/>
+      <c r="M90" s="12"/>
+      <c r="N90" s="12"/>
+      <c r="O90" s="12"/>
+      <c r="P90" s="12"/>
+      <c r="Q90" s="12"/>
+      <c r="R90" s="12"/>
+      <c r="S90" s="12"/>
+      <c r="T90" s="5"/>
+      <c r="U90" s="19"/>
+    </row>
+    <row r="91" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A91" s="18"/>
+      <c r="B91" s="4"/>
+      <c r="C91" s="12"/>
+      <c r="D91" s="12"/>
+      <c r="E91" s="12"/>
+      <c r="F91" s="12"/>
+      <c r="G91" s="12"/>
+      <c r="H91" s="12"/>
+      <c r="I91" s="12"/>
+      <c r="J91" s="12"/>
+      <c r="K91" s="12"/>
+      <c r="L91" s="12"/>
+      <c r="M91" s="12"/>
+      <c r="N91" s="12"/>
+      <c r="O91" s="12"/>
+      <c r="P91" s="12"/>
+      <c r="Q91" s="12"/>
+      <c r="R91" s="12"/>
+      <c r="S91" s="12"/>
+      <c r="T91" s="5"/>
+      <c r="U91" s="19"/>
+    </row>
+    <row r="92" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A92" s="18"/>
+      <c r="B92" s="4"/>
+      <c r="C92" s="12"/>
+      <c r="D92" s="12"/>
+      <c r="E92" s="12"/>
+      <c r="F92" s="12"/>
+      <c r="G92" s="12"/>
+      <c r="H92" s="12"/>
+      <c r="I92" s="12"/>
+      <c r="J92" s="12"/>
+      <c r="K92" s="12"/>
+      <c r="L92" s="12"/>
+      <c r="M92" s="12"/>
+      <c r="N92" s="12"/>
+      <c r="O92" s="12"/>
+      <c r="P92" s="12"/>
+      <c r="Q92" s="12"/>
+      <c r="R92" s="12"/>
+      <c r="S92" s="12"/>
+      <c r="T92" s="5"/>
+      <c r="U92" s="19"/>
+    </row>
+    <row r="93" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A93" s="18"/>
+      <c r="B93" s="4"/>
+      <c r="C93" s="12"/>
+      <c r="D93" s="12"/>
+      <c r="E93" s="12"/>
+      <c r="F93" s="12"/>
+      <c r="G93" s="12"/>
+      <c r="H93" s="12"/>
+      <c r="I93" s="12"/>
+      <c r="J93" s="12"/>
+      <c r="K93" s="12"/>
+      <c r="L93" s="12"/>
+      <c r="M93" s="12"/>
+      <c r="N93" s="12"/>
+      <c r="O93" s="12"/>
+      <c r="P93" s="12"/>
+      <c r="Q93" s="12"/>
+      <c r="R93" s="12"/>
+      <c r="S93" s="12"/>
+      <c r="T93" s="5"/>
+      <c r="U93" s="19"/>
+    </row>
+    <row r="94" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A94" s="18"/>
+      <c r="B94" s="4"/>
+      <c r="C94" s="12"/>
+      <c r="D94" s="12"/>
+      <c r="E94" s="12"/>
+      <c r="F94" s="12"/>
+      <c r="G94" s="12"/>
+      <c r="H94" s="12"/>
+      <c r="I94" s="12"/>
+      <c r="J94" s="12"/>
+      <c r="K94" s="12"/>
+      <c r="L94" s="12"/>
+      <c r="M94" s="12"/>
+      <c r="N94" s="12"/>
+      <c r="O94" s="12"/>
+      <c r="P94" s="12"/>
+      <c r="Q94" s="12"/>
+      <c r="R94" s="12"/>
+      <c r="S94" s="12"/>
+      <c r="T94" s="5"/>
+      <c r="U94" s="19"/>
+    </row>
+    <row r="95" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A95" s="18"/>
+      <c r="B95" s="4"/>
+      <c r="C95" s="12"/>
+      <c r="D95" s="12"/>
+      <c r="E95" s="12"/>
+      <c r="F95" s="12"/>
+      <c r="G95" s="12"/>
+      <c r="H95" s="12"/>
+      <c r="I95" s="12"/>
+      <c r="J95" s="12"/>
+      <c r="K95" s="12"/>
+      <c r="L95" s="12"/>
+      <c r="M95" s="12"/>
+      <c r="N95" s="12"/>
+      <c r="O95" s="12"/>
+      <c r="P95" s="12"/>
+      <c r="Q95" s="12"/>
+      <c r="R95" s="12"/>
+      <c r="S95" s="12"/>
+      <c r="T95" s="5"/>
+      <c r="U95" s="19"/>
+    </row>
+    <row r="96" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A96" s="18"/>
+      <c r="B96" s="4"/>
+      <c r="C96" s="12"/>
+      <c r="D96" s="12"/>
+      <c r="E96" s="12"/>
+      <c r="F96" s="12"/>
+      <c r="G96" s="12"/>
+      <c r="H96" s="12"/>
+      <c r="I96" s="12"/>
+      <c r="J96" s="12"/>
+      <c r="K96" s="12"/>
+      <c r="L96" s="12"/>
+      <c r="M96" s="12"/>
+      <c r="N96" s="12"/>
+      <c r="O96" s="12"/>
+      <c r="P96" s="12"/>
+      <c r="Q96" s="12"/>
+      <c r="R96" s="12"/>
+      <c r="S96" s="12"/>
+      <c r="T96" s="5"/>
+      <c r="U96" s="19"/>
+    </row>
+    <row r="97" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A97" s="18"/>
+      <c r="B97" s="4"/>
+      <c r="C97" s="12"/>
+      <c r="D97" s="12"/>
+      <c r="E97" s="12"/>
+      <c r="F97" s="12"/>
+      <c r="G97" s="12"/>
+      <c r="H97" s="12"/>
+      <c r="I97" s="12"/>
+      <c r="J97" s="12"/>
+      <c r="K97" s="12"/>
+      <c r="L97" s="12"/>
+      <c r="M97" s="12"/>
+      <c r="N97" s="12"/>
+      <c r="O97" s="12"/>
+      <c r="P97" s="12"/>
+      <c r="Q97" s="12"/>
+      <c r="R97" s="12"/>
+      <c r="S97" s="12"/>
+      <c r="T97" s="5"/>
+      <c r="U97" s="19"/>
+    </row>
+    <row r="98" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A98" s="18"/>
+      <c r="B98" s="4"/>
+      <c r="C98" s="12"/>
+      <c r="D98" s="12"/>
+      <c r="E98" s="12"/>
+      <c r="F98" s="12"/>
+      <c r="G98" s="12"/>
+      <c r="H98" s="12"/>
+      <c r="I98" s="12"/>
+      <c r="J98" s="12"/>
+      <c r="K98" s="12"/>
+      <c r="L98" s="12"/>
+      <c r="M98" s="12"/>
+      <c r="N98" s="12"/>
+      <c r="O98" s="12"/>
+      <c r="P98" s="12"/>
+      <c r="Q98" s="12"/>
+      <c r="R98" s="12"/>
+      <c r="S98" s="12"/>
+      <c r="T98" s="5"/>
+      <c r="U98" s="19"/>
+    </row>
+    <row r="99" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A99" s="18"/>
+      <c r="B99" s="4"/>
+      <c r="C99" s="12"/>
+      <c r="D99" s="12"/>
+      <c r="E99" s="12"/>
+      <c r="F99" s="12"/>
+      <c r="G99" s="12"/>
+      <c r="H99" s="12"/>
+      <c r="I99" s="12"/>
+      <c r="J99" s="12"/>
+      <c r="K99" s="12"/>
+      <c r="L99" s="12"/>
+      <c r="M99" s="12"/>
+      <c r="N99" s="12"/>
+      <c r="O99" s="12"/>
+      <c r="P99" s="12"/>
+      <c r="Q99" s="12"/>
+      <c r="R99" s="12"/>
+      <c r="S99" s="12"/>
+      <c r="T99" s="5"/>
+      <c r="U99" s="19"/>
+    </row>
+    <row r="100" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A100" s="18"/>
+      <c r="B100" s="4"/>
+      <c r="C100" s="12"/>
+      <c r="D100" s="12"/>
+      <c r="E100" s="12"/>
+      <c r="F100" s="12"/>
+      <c r="G100" s="12"/>
+      <c r="H100" s="12"/>
+      <c r="I100" s="12"/>
+      <c r="J100" s="12"/>
+      <c r="K100" s="12"/>
+      <c r="L100" s="12"/>
+      <c r="M100" s="12"/>
+      <c r="N100" s="12"/>
+      <c r="O100" s="12"/>
+      <c r="P100" s="12"/>
+      <c r="Q100" s="12"/>
+      <c r="R100" s="12"/>
+      <c r="S100" s="12"/>
+      <c r="T100" s="5"/>
+      <c r="U100" s="19"/>
+    </row>
+    <row r="101" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A101" s="18"/>
+      <c r="B101" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C101" s="12"/>
+      <c r="D101" s="12"/>
+      <c r="E101" s="12"/>
+      <c r="F101" s="12"/>
+      <c r="G101" s="12"/>
+      <c r="H101" s="12"/>
+      <c r="I101" s="12"/>
+      <c r="J101" s="12"/>
+      <c r="K101" s="12"/>
+      <c r="L101" s="12"/>
+      <c r="M101" s="12"/>
+      <c r="N101" s="12"/>
+      <c r="O101" s="12"/>
+      <c r="P101" s="12"/>
+      <c r="Q101" s="12"/>
+      <c r="R101" s="12"/>
+      <c r="S101" s="12"/>
+      <c r="T101" s="5"/>
+      <c r="U101" s="19"/>
+    </row>
+    <row r="102" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A102" s="18"/>
+      <c r="B102" s="4"/>
+      <c r="C102" s="12"/>
+      <c r="D102" s="12"/>
+      <c r="E102" s="12"/>
+      <c r="F102" s="12"/>
+      <c r="G102" s="12"/>
+      <c r="H102" s="12"/>
+      <c r="I102" s="12"/>
+      <c r="J102" s="12"/>
+      <c r="K102" s="12"/>
+      <c r="L102" s="12"/>
+      <c r="M102" s="12"/>
+      <c r="N102" s="12"/>
+      <c r="O102" s="12"/>
+      <c r="P102" s="12"/>
+      <c r="Q102" s="12"/>
+      <c r="R102" s="12"/>
+      <c r="S102" s="12"/>
+      <c r="T102" s="5"/>
+      <c r="U102" s="19"/>
+    </row>
+    <row r="103" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A103" s="18"/>
+      <c r="B103" s="4"/>
+      <c r="C103" s="12"/>
+      <c r="D103" s="12"/>
+      <c r="E103" s="12"/>
+      <c r="F103" s="12"/>
+      <c r="G103" s="12"/>
+      <c r="H103" s="12"/>
+      <c r="I103" s="12"/>
+      <c r="J103" s="12"/>
+      <c r="K103" s="12"/>
+      <c r="L103" s="12"/>
+      <c r="M103" s="12"/>
+      <c r="N103" s="12"/>
+      <c r="O103" s="12"/>
+      <c r="P103" s="12"/>
+      <c r="Q103" s="12"/>
+      <c r="R103" s="12"/>
+      <c r="S103" s="12"/>
+      <c r="T103" s="5"/>
+      <c r="U103" s="19"/>
+    </row>
+    <row r="104" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A104" s="18"/>
+      <c r="B104" s="4"/>
+      <c r="C104" s="12"/>
+      <c r="D104" s="12"/>
+      <c r="E104" s="12"/>
+      <c r="F104" s="12"/>
+      <c r="G104" s="12"/>
+      <c r="H104" s="12"/>
+      <c r="I104" s="12"/>
+      <c r="J104" s="12"/>
+      <c r="K104" s="12"/>
+      <c r="L104" s="12"/>
+      <c r="M104" s="12"/>
+      <c r="N104" s="12"/>
+      <c r="O104" s="12"/>
+      <c r="P104" s="12"/>
+      <c r="Q104" s="12"/>
+      <c r="R104" s="12"/>
+      <c r="S104" s="12"/>
+      <c r="T104" s="5"/>
+      <c r="U104" s="19"/>
+    </row>
+    <row r="105" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A105" s="18"/>
+      <c r="B105" s="4"/>
+      <c r="C105" s="12"/>
+      <c r="D105" s="12"/>
+      <c r="E105" s="12"/>
+      <c r="F105" s="12"/>
+      <c r="G105" s="12"/>
+      <c r="H105" s="12"/>
+      <c r="I105" s="12"/>
+      <c r="J105" s="12"/>
+      <c r="K105" s="12"/>
+      <c r="L105" s="12"/>
+      <c r="M105" s="12"/>
+      <c r="N105" s="12"/>
+      <c r="O105" s="12"/>
+      <c r="P105" s="12"/>
+      <c r="Q105" s="12"/>
+      <c r="R105" s="12"/>
+      <c r="S105" s="12"/>
+      <c r="T105" s="5"/>
+      <c r="U105" s="19"/>
+    </row>
+    <row r="106" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A106" s="18"/>
+      <c r="B106" s="4"/>
+      <c r="C106" s="12"/>
+      <c r="D106" s="12"/>
+      <c r="E106" s="12"/>
+      <c r="F106" s="12"/>
+      <c r="G106" s="12"/>
+      <c r="H106" s="12"/>
+      <c r="I106" s="12"/>
+      <c r="J106" s="12"/>
+      <c r="K106" s="12"/>
+      <c r="L106" s="12"/>
+      <c r="M106" s="12"/>
+      <c r="N106" s="12"/>
+      <c r="O106" s="12"/>
+      <c r="P106" s="12"/>
+      <c r="Q106" s="12"/>
+      <c r="R106" s="12"/>
+      <c r="S106" s="12"/>
+      <c r="T106" s="5"/>
+      <c r="U106" s="19"/>
+    </row>
+    <row r="107" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A107" s="18"/>
+      <c r="B107" s="4"/>
+      <c r="C107" s="12"/>
+      <c r="D107" s="12"/>
+      <c r="E107" s="12"/>
+      <c r="F107" s="12"/>
+      <c r="G107" s="12"/>
+      <c r="H107" s="12"/>
+      <c r="I107" s="12"/>
+      <c r="J107" s="12"/>
+      <c r="K107" s="12"/>
+      <c r="L107" s="12"/>
+      <c r="M107" s="12"/>
+      <c r="N107" s="12"/>
+      <c r="O107" s="12"/>
+      <c r="P107" s="12"/>
+      <c r="Q107" s="12"/>
+      <c r="R107" s="12"/>
+      <c r="S107" s="12"/>
+      <c r="T107" s="5"/>
+      <c r="U107" s="19"/>
+    </row>
+    <row r="108" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A108" s="18"/>
+      <c r="B108" s="4"/>
+      <c r="C108" s="12"/>
+      <c r="D108" s="12"/>
+      <c r="E108" s="12"/>
+      <c r="F108" s="12"/>
+      <c r="G108" s="12"/>
+      <c r="H108" s="12"/>
+      <c r="I108" s="12"/>
+      <c r="J108" s="12"/>
+      <c r="K108" s="12"/>
+      <c r="L108" s="12"/>
+      <c r="M108" s="12"/>
+      <c r="N108" s="12"/>
+      <c r="O108" s="12"/>
+      <c r="P108" s="12"/>
+      <c r="Q108" s="12"/>
+      <c r="R108" s="12"/>
+      <c r="S108" s="12"/>
+      <c r="T108" s="5"/>
+      <c r="U108" s="19"/>
+    </row>
+    <row r="109" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A109" s="18"/>
+      <c r="B109" s="4"/>
+      <c r="C109" s="12"/>
+      <c r="D109" s="12"/>
+      <c r="E109" s="12"/>
+      <c r="F109" s="12"/>
+      <c r="G109" s="12"/>
+      <c r="H109" s="12"/>
+      <c r="I109" s="12"/>
+      <c r="J109" s="12"/>
+      <c r="K109" s="12"/>
+      <c r="L109" s="12"/>
+      <c r="M109" s="12"/>
+      <c r="N109" s="12"/>
+      <c r="O109" s="12"/>
+      <c r="P109" s="12"/>
+      <c r="Q109" s="12"/>
+      <c r="R109" s="12"/>
+      <c r="S109" s="12"/>
+      <c r="T109" s="5"/>
+      <c r="U109" s="19"/>
+    </row>
+    <row r="110" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A110" s="18"/>
+      <c r="B110" s="4"/>
+      <c r="C110" s="12"/>
+      <c r="D110" s="12"/>
+      <c r="E110" s="12"/>
+      <c r="F110" s="12"/>
+      <c r="G110" s="12"/>
+      <c r="H110" s="12"/>
+      <c r="I110" s="12"/>
+      <c r="J110" s="12"/>
+      <c r="K110" s="12"/>
+      <c r="L110" s="12"/>
+      <c r="M110" s="12"/>
+      <c r="N110" s="12"/>
+      <c r="O110" s="12"/>
+      <c r="P110" s="12"/>
+      <c r="Q110" s="12"/>
+      <c r="R110" s="12"/>
+      <c r="S110" s="12"/>
+      <c r="T110" s="5"/>
+      <c r="U110" s="19"/>
+    </row>
+    <row r="111" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A111" s="18"/>
+      <c r="B111" s="4"/>
+      <c r="C111" s="12"/>
+      <c r="D111" s="12"/>
+      <c r="E111" s="12"/>
+      <c r="F111" s="12"/>
+      <c r="G111" s="12"/>
+      <c r="H111" s="12"/>
+      <c r="I111" s="12"/>
+      <c r="J111" s="12"/>
+      <c r="K111" s="12"/>
+      <c r="L111" s="12"/>
+      <c r="M111" s="12"/>
+      <c r="N111" s="12"/>
+      <c r="O111" s="12"/>
+      <c r="P111" s="12"/>
+      <c r="Q111" s="12"/>
+      <c r="R111" s="12"/>
+      <c r="S111" s="12"/>
+      <c r="T111" s="5"/>
+      <c r="U111" s="19"/>
+    </row>
+    <row r="112" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A112" s="18"/>
+      <c r="B112" s="4"/>
+      <c r="C112" s="12"/>
+      <c r="D112" s="12"/>
+      <c r="E112" s="12"/>
+      <c r="F112" s="12"/>
+      <c r="G112" s="12"/>
+      <c r="H112" s="12"/>
+      <c r="I112" s="12"/>
+      <c r="J112" s="12"/>
+      <c r="K112" s="12"/>
+      <c r="L112" s="12"/>
+      <c r="M112" s="12"/>
+      <c r="N112" s="12"/>
+      <c r="O112" s="12"/>
+      <c r="P112" s="12"/>
+      <c r="Q112" s="12"/>
+      <c r="R112" s="12"/>
+      <c r="S112" s="12"/>
+      <c r="T112" s="5"/>
+      <c r="U112" s="19"/>
+    </row>
+    <row r="113" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A113" s="18"/>
+      <c r="B113" s="4"/>
+      <c r="C113" s="12"/>
+      <c r="D113" s="12"/>
+      <c r="E113" s="12"/>
+      <c r="F113" s="12"/>
+      <c r="G113" s="12"/>
+      <c r="H113" s="12"/>
+      <c r="I113" s="12"/>
+      <c r="J113" s="12"/>
+      <c r="K113" s="12"/>
+      <c r="L113" s="12"/>
+      <c r="M113" s="12"/>
+      <c r="N113" s="12"/>
+      <c r="O113" s="12"/>
+      <c r="P113" s="12"/>
+      <c r="Q113" s="12"/>
+      <c r="R113" s="12"/>
+      <c r="S113" s="12"/>
+      <c r="T113" s="5"/>
+      <c r="U113" s="19"/>
+    </row>
+    <row r="114" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A114" s="18"/>
+      <c r="B114" s="4"/>
+      <c r="C114" s="12"/>
+      <c r="D114" s="12"/>
+      <c r="E114" s="12"/>
+      <c r="F114" s="12"/>
+      <c r="G114" s="12"/>
+      <c r="H114" s="12"/>
+      <c r="I114" s="12"/>
+      <c r="J114" s="12"/>
+      <c r="K114" s="12"/>
+      <c r="L114" s="12"/>
+      <c r="M114" s="12"/>
+      <c r="N114" s="12"/>
+      <c r="O114" s="12"/>
+      <c r="P114" s="12"/>
+      <c r="Q114" s="12"/>
+      <c r="R114" s="12"/>
+      <c r="S114" s="12"/>
+      <c r="T114" s="5"/>
+      <c r="U114" s="19"/>
+    </row>
+    <row r="115" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A115" s="18"/>
+      <c r="B115" s="4"/>
+      <c r="C115" s="12"/>
+      <c r="D115" s="12"/>
+      <c r="E115" s="12"/>
+      <c r="F115" s="12"/>
+      <c r="G115" s="12"/>
+      <c r="H115" s="12"/>
+      <c r="I115" s="12"/>
+      <c r="J115" s="12"/>
+      <c r="K115" s="12"/>
+      <c r="L115" s="12"/>
+      <c r="M115" s="12"/>
+      <c r="N115" s="12"/>
+      <c r="O115" s="12"/>
+      <c r="P115" s="12"/>
+      <c r="Q115" s="12"/>
+      <c r="R115" s="12"/>
+      <c r="S115" s="12"/>
+      <c r="T115" s="5"/>
+      <c r="U115" s="19"/>
+    </row>
+    <row r="116" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A116" s="18"/>
+      <c r="B116" s="4"/>
+      <c r="C116" s="12"/>
+      <c r="D116" s="12"/>
+      <c r="E116" s="12"/>
+      <c r="F116" s="12"/>
+      <c r="G116" s="12"/>
+      <c r="H116" s="12"/>
+      <c r="I116" s="12"/>
+      <c r="J116" s="12"/>
+      <c r="K116" s="12"/>
+      <c r="L116" s="12"/>
+      <c r="M116" s="12"/>
+      <c r="N116" s="12"/>
+      <c r="O116" s="12"/>
+      <c r="P116" s="12"/>
+      <c r="Q116" s="12"/>
+      <c r="R116" s="12"/>
+      <c r="S116" s="12"/>
+      <c r="T116" s="5"/>
+      <c r="U116" s="19"/>
+    </row>
+    <row r="117" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A117" s="18"/>
+      <c r="B117" s="4"/>
+      <c r="C117" s="12"/>
+      <c r="D117" s="12"/>
+      <c r="E117" s="12"/>
+      <c r="F117" s="12"/>
+      <c r="G117" s="12"/>
+      <c r="H117" s="12"/>
+      <c r="I117" s="12"/>
+      <c r="J117" s="12"/>
+      <c r="K117" s="12"/>
+      <c r="L117" s="12"/>
+      <c r="M117" s="12"/>
+      <c r="N117" s="12"/>
+      <c r="O117" s="12"/>
+      <c r="P117" s="12"/>
+      <c r="Q117" s="12"/>
+      <c r="R117" s="12"/>
+      <c r="S117" s="12"/>
+      <c r="T117" s="5"/>
+      <c r="U117" s="19"/>
+    </row>
+    <row r="118" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A118" s="18"/>
+      <c r="B118" s="4"/>
+      <c r="C118" s="12"/>
+      <c r="D118" s="12"/>
+      <c r="E118" s="12"/>
+      <c r="F118" s="12"/>
+      <c r="G118" s="12"/>
+      <c r="H118" s="12"/>
+      <c r="I118" s="12"/>
+      <c r="J118" s="12"/>
+      <c r="K118" s="12"/>
+      <c r="L118" s="12"/>
+      <c r="M118" s="12"/>
+      <c r="N118" s="12"/>
+      <c r="O118" s="12"/>
+      <c r="P118" s="12"/>
+      <c r="Q118" s="12"/>
+      <c r="R118" s="12"/>
+      <c r="S118" s="12"/>
+      <c r="T118" s="5"/>
+      <c r="U118" s="19"/>
+    </row>
+    <row r="119" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A119" s="18"/>
+      <c r="B119" s="4"/>
+      <c r="C119" s="12"/>
+      <c r="D119" s="12"/>
+      <c r="E119" s="12"/>
+      <c r="F119" s="12"/>
+      <c r="G119" s="12"/>
+      <c r="H119" s="12"/>
+      <c r="I119" s="12"/>
+      <c r="J119" s="12"/>
+      <c r="K119" s="12"/>
+      <c r="L119" s="12"/>
+      <c r="M119" s="12"/>
+      <c r="N119" s="12"/>
+      <c r="O119" s="12"/>
+      <c r="P119" s="12"/>
+      <c r="Q119" s="12"/>
+      <c r="R119" s="12"/>
+      <c r="S119" s="12"/>
+      <c r="T119" s="5"/>
+      <c r="U119" s="19"/>
+    </row>
+    <row r="120" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A120" s="18"/>
+      <c r="B120" s="4"/>
+      <c r="C120" s="12"/>
+      <c r="D120" s="12"/>
+      <c r="E120" s="12"/>
+      <c r="F120" s="12"/>
+      <c r="G120" s="12"/>
+      <c r="H120" s="12"/>
+      <c r="I120" s="12"/>
+      <c r="J120" s="12"/>
+      <c r="K120" s="12"/>
+      <c r="L120" s="12"/>
+      <c r="M120" s="12"/>
+      <c r="N120" s="12"/>
+      <c r="O120" s="12"/>
+      <c r="P120" s="12"/>
+      <c r="Q120" s="12"/>
+      <c r="R120" s="12"/>
+      <c r="S120" s="12"/>
+      <c r="T120" s="5"/>
+      <c r="U120" s="19"/>
+    </row>
+    <row r="121" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A121" s="18"/>
+      <c r="B121" s="4"/>
+      <c r="C121" s="12"/>
+      <c r="D121" s="12"/>
+      <c r="E121" s="12"/>
+      <c r="F121" s="12"/>
+      <c r="G121" s="12"/>
+      <c r="H121" s="12"/>
+      <c r="I121" s="12"/>
+      <c r="J121" s="12"/>
+      <c r="K121" s="12"/>
+      <c r="L121" s="12"/>
+      <c r="M121" s="12"/>
+      <c r="N121" s="12"/>
+      <c r="O121" s="12"/>
+      <c r="P121" s="12"/>
+      <c r="Q121" s="12"/>
+      <c r="R121" s="12"/>
+      <c r="S121" s="12"/>
+      <c r="T121" s="5"/>
+      <c r="U121" s="19"/>
+    </row>
+    <row r="122" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A122" s="18"/>
+      <c r="B122" s="4"/>
+      <c r="C122" s="12"/>
+      <c r="D122" s="12"/>
+      <c r="E122" s="12"/>
+      <c r="F122" s="12"/>
+      <c r="G122" s="12"/>
+      <c r="H122" s="12"/>
+      <c r="I122" s="12"/>
+      <c r="J122" s="12"/>
+      <c r="K122" s="12"/>
+      <c r="L122" s="12"/>
+      <c r="M122" s="12"/>
+      <c r="N122" s="12"/>
+      <c r="O122" s="12"/>
+      <c r="P122" s="12"/>
+      <c r="Q122" s="12"/>
+      <c r="R122" s="12"/>
+      <c r="S122" s="12"/>
+      <c r="T122" s="5"/>
+      <c r="U122" s="19"/>
+    </row>
+    <row r="123" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A123" s="18"/>
+      <c r="B123" s="4"/>
+      <c r="C123" s="12"/>
+      <c r="D123" s="12"/>
+      <c r="E123" s="12"/>
+      <c r="F123" s="12"/>
+      <c r="G123" s="12"/>
+      <c r="H123" s="12"/>
+      <c r="I123" s="12"/>
+      <c r="J123" s="12"/>
+      <c r="K123" s="12"/>
+      <c r="L123" s="12"/>
+      <c r="M123" s="12"/>
+      <c r="N123" s="12"/>
+      <c r="O123" s="12"/>
+      <c r="P123" s="12"/>
+      <c r="Q123" s="12"/>
+      <c r="R123" s="12"/>
+      <c r="S123" s="12"/>
+      <c r="T123" s="5"/>
+      <c r="U123" s="19"/>
+    </row>
+    <row r="124" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A124" s="18"/>
+      <c r="B124" s="4"/>
+      <c r="C124" s="12"/>
+      <c r="D124" s="12"/>
+      <c r="E124" s="12"/>
+      <c r="F124" s="12"/>
+      <c r="G124" s="12"/>
+      <c r="H124" s="12"/>
+      <c r="I124" s="12"/>
+      <c r="J124" s="12"/>
+      <c r="K124" s="12"/>
+      <c r="L124" s="12"/>
+      <c r="M124" s="12"/>
+      <c r="N124" s="12"/>
+      <c r="O124" s="12"/>
+      <c r="P124" s="12"/>
+      <c r="Q124" s="12"/>
+      <c r="R124" s="12"/>
+      <c r="S124" s="12"/>
+      <c r="T124" s="5"/>
+      <c r="U124" s="19"/>
+    </row>
+    <row r="125" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A125" s="18"/>
+      <c r="B125" s="4"/>
+      <c r="C125" s="12"/>
+      <c r="D125" s="12"/>
+      <c r="E125" s="12"/>
+      <c r="F125" s="12"/>
+      <c r="G125" s="12"/>
+      <c r="H125" s="12"/>
+      <c r="I125" s="12"/>
+      <c r="J125" s="12"/>
+      <c r="K125" s="12"/>
+      <c r="L125" s="12"/>
+      <c r="M125" s="12"/>
+      <c r="N125" s="12"/>
+      <c r="O125" s="12"/>
+      <c r="P125" s="12"/>
+      <c r="Q125" s="12"/>
+      <c r="R125" s="12"/>
+      <c r="S125" s="12"/>
+      <c r="T125" s="5"/>
+      <c r="U125" s="19"/>
+    </row>
+    <row r="126" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A126" s="18"/>
+      <c r="B126" s="4"/>
+      <c r="C126" s="12"/>
+      <c r="D126" s="12"/>
+      <c r="E126" s="12"/>
+      <c r="F126" s="12"/>
+      <c r="G126" s="12"/>
+      <c r="H126" s="12"/>
+      <c r="I126" s="12"/>
+      <c r="J126" s="12"/>
+      <c r="K126" s="12"/>
+      <c r="L126" s="12"/>
+      <c r="M126" s="12"/>
+      <c r="N126" s="12"/>
+      <c r="O126" s="12"/>
+      <c r="P126" s="12"/>
+      <c r="Q126" s="12"/>
+      <c r="R126" s="12"/>
+      <c r="S126" s="12"/>
+      <c r="T126" s="5"/>
+      <c r="U126" s="19"/>
+    </row>
+    <row r="127" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A127" s="18"/>
+      <c r="B127" s="7"/>
+      <c r="C127" s="8"/>
+      <c r="D127" s="8"/>
+      <c r="E127" s="8"/>
+      <c r="F127" s="8"/>
+      <c r="G127" s="8"/>
+      <c r="H127" s="8"/>
+      <c r="I127" s="8"/>
+      <c r="J127" s="8"/>
+      <c r="K127" s="8"/>
+      <c r="L127" s="8"/>
+      <c r="M127" s="8"/>
+      <c r="N127" s="8"/>
+      <c r="O127" s="8"/>
+      <c r="P127" s="8"/>
+      <c r="Q127" s="8"/>
+      <c r="R127" s="8"/>
+      <c r="S127" s="8"/>
+      <c r="T127" s="10"/>
+      <c r="U127" s="19"/>
+    </row>
+    <row r="128" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="21"/>
+      <c r="B128" s="22"/>
+      <c r="C128" s="22"/>
+      <c r="D128" s="22"/>
+      <c r="E128" s="22"/>
+      <c r="F128" s="22"/>
+      <c r="G128" s="22"/>
+      <c r="H128" s="22"/>
+      <c r="I128" s="22"/>
+      <c r="J128" s="22"/>
+      <c r="K128" s="22"/>
+      <c r="L128" s="22"/>
+      <c r="M128" s="22"/>
+      <c r="N128" s="22"/>
+      <c r="O128" s="22"/>
+      <c r="P128" s="22"/>
+      <c r="Q128" s="22"/>
+      <c r="R128" s="22"/>
+      <c r="S128" s="22"/>
+      <c r="T128" s="22"/>
+      <c r="U128" s="23"/>
+    </row>
+    <row r="131" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A132" s="15"/>
+      <c r="B132" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="C132" s="16"/>
+      <c r="D132" s="16"/>
+      <c r="E132" s="16"/>
+      <c r="F132" s="16"/>
+      <c r="G132" s="16"/>
+      <c r="H132" s="16"/>
+      <c r="I132" s="16"/>
+      <c r="J132" s="16"/>
+      <c r="K132" s="16"/>
+      <c r="L132" s="16"/>
+      <c r="M132" s="16"/>
+      <c r="N132" s="17"/>
+    </row>
+    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A133" s="18"/>
+      <c r="B133" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="C133" s="12"/>
+      <c r="D133" s="12"/>
+      <c r="E133" s="12"/>
+      <c r="F133" s="12"/>
+      <c r="G133" s="12"/>
+      <c r="H133" s="12"/>
+      <c r="I133" s="12"/>
+      <c r="J133" s="12"/>
+      <c r="K133" s="12"/>
+      <c r="L133" s="12"/>
+      <c r="M133" s="12"/>
+      <c r="N133" s="19"/>
+    </row>
+    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A134" s="18"/>
+      <c r="B134" s="12"/>
+      <c r="C134" s="12"/>
+      <c r="D134" s="12"/>
+      <c r="E134" s="12"/>
+      <c r="F134" s="12"/>
+      <c r="G134" s="12"/>
+      <c r="H134" s="12"/>
+      <c r="I134" s="12"/>
+      <c r="J134" s="12"/>
+      <c r="K134" s="12"/>
+      <c r="L134" s="12"/>
+      <c r="M134" s="12"/>
+      <c r="N134" s="19"/>
+    </row>
+    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A135" s="18"/>
+      <c r="B135" s="12"/>
+      <c r="C135" s="12"/>
+      <c r="D135" s="12"/>
+      <c r="E135" s="12"/>
+      <c r="F135" s="12"/>
+      <c r="G135" s="12"/>
+      <c r="H135" s="12"/>
+      <c r="I135" s="12"/>
+      <c r="J135" s="12"/>
+      <c r="K135" s="12"/>
+      <c r="L135" s="12"/>
+      <c r="M135" s="12"/>
+      <c r="N135" s="19"/>
+    </row>
+    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A136" s="18"/>
+      <c r="B136" s="12"/>
+      <c r="C136" s="12"/>
+      <c r="D136" s="12"/>
+      <c r="E136" s="12"/>
+      <c r="F136" s="12"/>
+      <c r="G136" s="12"/>
+      <c r="H136" s="12"/>
+      <c r="I136" s="12"/>
+      <c r="J136" s="12"/>
+      <c r="K136" s="12"/>
+      <c r="L136" s="12"/>
+      <c r="M136" s="12"/>
+      <c r="N136" s="19"/>
+    </row>
+    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A137" s="18"/>
+      <c r="B137" s="12"/>
+      <c r="C137" s="12"/>
+      <c r="D137" s="12"/>
+      <c r="E137" s="12"/>
+      <c r="F137" s="12"/>
+      <c r="G137" s="12"/>
+      <c r="H137" s="12"/>
+      <c r="I137" s="12"/>
+      <c r="J137" s="12"/>
+      <c r="K137" s="12"/>
+      <c r="L137" s="12"/>
+      <c r="M137" s="12"/>
+      <c r="N137" s="19"/>
+    </row>
+    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A138" s="18"/>
+      <c r="B138" s="12"/>
+      <c r="C138" s="12"/>
+      <c r="D138" s="12"/>
+      <c r="E138" s="12"/>
+      <c r="F138" s="12"/>
+      <c r="G138" s="12"/>
+      <c r="H138" s="12"/>
+      <c r="I138" s="12"/>
+      <c r="J138" s="12"/>
+      <c r="K138" s="12"/>
+      <c r="L138" s="12"/>
+      <c r="M138" s="12"/>
+      <c r="N138" s="19"/>
+    </row>
+    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A139" s="18"/>
+      <c r="B139" s="12"/>
+      <c r="C139" s="12"/>
+      <c r="D139" s="12"/>
+      <c r="E139" s="12"/>
+      <c r="F139" s="12"/>
+      <c r="G139" s="12"/>
+      <c r="H139" s="12"/>
+      <c r="I139" s="12"/>
+      <c r="J139" s="12"/>
+      <c r="K139" s="12"/>
+      <c r="L139" s="12"/>
+      <c r="M139" s="12"/>
+      <c r="N139" s="19"/>
+    </row>
+    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A140" s="18"/>
+      <c r="B140" s="12"/>
+      <c r="C140" s="12"/>
+      <c r="D140" s="12"/>
+      <c r="E140" s="12"/>
+      <c r="F140" s="12"/>
+      <c r="G140" s="12"/>
+      <c r="H140" s="12"/>
+      <c r="I140" s="12"/>
+      <c r="J140" s="12"/>
+      <c r="K140" s="12"/>
+      <c r="L140" s="12"/>
+      <c r="M140" s="12"/>
+      <c r="N140" s="19"/>
+    </row>
+    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A141" s="18"/>
+      <c r="B141" s="12"/>
+      <c r="C141" s="12"/>
+      <c r="D141" s="12"/>
+      <c r="E141" s="12"/>
+      <c r="F141" s="12"/>
+      <c r="G141" s="12"/>
+      <c r="H141" s="12"/>
+      <c r="I141" s="12"/>
+      <c r="J141" s="12"/>
+      <c r="K141" s="12"/>
+      <c r="L141" s="12"/>
+      <c r="M141" s="12"/>
+      <c r="N141" s="19"/>
+    </row>
+    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A142" s="18"/>
+      <c r="B142" s="12"/>
+      <c r="C142" s="12"/>
+      <c r="D142" s="12"/>
+      <c r="E142" s="12"/>
+      <c r="F142" s="12"/>
+      <c r="G142" s="12"/>
+      <c r="H142" s="12"/>
+      <c r="I142" s="12"/>
+      <c r="J142" s="12"/>
+      <c r="K142" s="12"/>
+      <c r="L142" s="12"/>
+      <c r="M142" s="12"/>
+      <c r="N142" s="19"/>
+    </row>
+    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A143" s="18"/>
+      <c r="B143" s="12"/>
+      <c r="C143" s="12"/>
+      <c r="D143" s="12"/>
+      <c r="E143" s="12"/>
+      <c r="F143" s="12"/>
+      <c r="G143" s="12"/>
+      <c r="H143" s="12"/>
+      <c r="I143" s="12"/>
+      <c r="J143" s="12"/>
+      <c r="K143" s="12"/>
+      <c r="L143" s="12"/>
+      <c r="M143" s="12"/>
+      <c r="N143" s="19"/>
+    </row>
+    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A144" s="18"/>
+      <c r="B144" s="12"/>
+      <c r="C144" s="12"/>
+      <c r="D144" s="12"/>
+      <c r="E144" s="12"/>
+      <c r="F144" s="12"/>
+      <c r="G144" s="12"/>
+      <c r="H144" s="12"/>
+      <c r="I144" s="12"/>
+      <c r="J144" s="12"/>
+      <c r="K144" s="12"/>
+      <c r="L144" s="12"/>
+      <c r="M144" s="12"/>
+      <c r="N144" s="19"/>
+    </row>
+    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A145" s="18"/>
+      <c r="B145" s="12"/>
+      <c r="C145" s="12"/>
+      <c r="D145" s="12"/>
+      <c r="E145" s="12"/>
+      <c r="F145" s="12"/>
+      <c r="G145" s="12"/>
+      <c r="H145" s="12"/>
+      <c r="I145" s="12"/>
+      <c r="J145" s="12"/>
+      <c r="K145" s="12"/>
+      <c r="L145" s="12"/>
+      <c r="M145" s="12"/>
+      <c r="N145" s="19"/>
+    </row>
+    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A146" s="18"/>
+      <c r="B146" s="12"/>
+      <c r="C146" s="12"/>
+      <c r="D146" s="12"/>
+      <c r="E146" s="12"/>
+      <c r="F146" s="12"/>
+      <c r="G146" s="12"/>
+      <c r="H146" s="12"/>
+      <c r="I146" s="12"/>
+      <c r="J146" s="12"/>
+      <c r="K146" s="12"/>
+      <c r="L146" s="12"/>
+      <c r="M146" s="12"/>
+      <c r="N146" s="19"/>
+    </row>
+    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A147" s="18"/>
+      <c r="B147" s="12"/>
+      <c r="C147" s="12"/>
+      <c r="D147" s="12"/>
+      <c r="E147" s="12"/>
+      <c r="F147" s="12"/>
+      <c r="G147" s="12"/>
+      <c r="H147" s="12"/>
+      <c r="I147" s="12"/>
+      <c r="J147" s="12"/>
+      <c r="K147" s="12"/>
+      <c r="L147" s="12"/>
+      <c r="M147" s="12"/>
+      <c r="N147" s="19"/>
+    </row>
+    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A148" s="18"/>
+      <c r="B148" s="12"/>
+      <c r="C148" s="12"/>
+      <c r="D148" s="12"/>
+      <c r="E148" s="12"/>
+      <c r="F148" s="12"/>
+      <c r="G148" s="12"/>
+      <c r="H148" s="12"/>
+      <c r="I148" s="12"/>
+      <c r="J148" s="12"/>
+      <c r="K148" s="12"/>
+      <c r="L148" s="12"/>
+      <c r="M148" s="12"/>
+      <c r="N148" s="19"/>
+    </row>
+    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A149" s="18"/>
+      <c r="B149" s="12"/>
+      <c r="C149" s="12"/>
+      <c r="D149" s="12"/>
+      <c r="E149" s="12"/>
+      <c r="F149" s="12"/>
+      <c r="G149" s="12"/>
+      <c r="H149" s="12"/>
+      <c r="I149" s="12"/>
+      <c r="J149" s="12"/>
+      <c r="K149" s="12"/>
+      <c r="L149" s="12"/>
+      <c r="M149" s="12"/>
+      <c r="N149" s="19"/>
+    </row>
+    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A150" s="18"/>
+      <c r="B150" s="12"/>
+      <c r="C150" s="12"/>
+      <c r="D150" s="12"/>
+      <c r="E150" s="12"/>
+      <c r="F150" s="12"/>
+      <c r="G150" s="12"/>
+      <c r="H150" s="12"/>
+      <c r="I150" s="12"/>
+      <c r="J150" s="12"/>
+      <c r="K150" s="12"/>
+      <c r="L150" s="12"/>
+      <c r="M150" s="12"/>
+      <c r="N150" s="19"/>
+    </row>
+    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A151" s="18"/>
+      <c r="B151" s="12"/>
+      <c r="C151" s="12"/>
+      <c r="D151" s="12"/>
+      <c r="E151" s="12"/>
+      <c r="F151" s="12"/>
+      <c r="G151" s="12"/>
+      <c r="H151" s="12"/>
+      <c r="I151" s="12"/>
+      <c r="J151" s="12"/>
+      <c r="K151" s="12"/>
+      <c r="L151" s="12"/>
+      <c r="M151" s="12"/>
+      <c r="N151" s="19"/>
+    </row>
+    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A152" s="18"/>
+      <c r="B152" s="12"/>
+      <c r="C152" s="12"/>
+      <c r="D152" s="12"/>
+      <c r="E152" s="12"/>
+      <c r="F152" s="12"/>
+      <c r="G152" s="12"/>
+      <c r="H152" s="12"/>
+      <c r="I152" s="12"/>
+      <c r="J152" s="12"/>
+      <c r="K152" s="12"/>
+      <c r="L152" s="12"/>
+      <c r="M152" s="12"/>
+      <c r="N152" s="19"/>
+    </row>
+    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A153" s="18"/>
+      <c r="B153" s="12"/>
+      <c r="C153" s="12"/>
+      <c r="D153" s="12"/>
+      <c r="E153" s="12"/>
+      <c r="F153" s="12"/>
+      <c r="G153" s="12"/>
+      <c r="H153" s="12"/>
+      <c r="I153" s="12"/>
+      <c r="J153" s="12"/>
+      <c r="K153" s="12"/>
+      <c r="L153" s="12"/>
+      <c r="M153" s="12"/>
+      <c r="N153" s="19"/>
+    </row>
+    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A154" s="18"/>
+      <c r="B154" s="12"/>
+      <c r="C154" s="12"/>
+      <c r="D154" s="12"/>
+      <c r="E154" s="12"/>
+      <c r="F154" s="12"/>
+      <c r="G154" s="12"/>
+      <c r="H154" s="12"/>
+      <c r="I154" s="12"/>
+      <c r="J154" s="12"/>
+      <c r="K154" s="12"/>
+      <c r="L154" s="12"/>
+      <c r="M154" s="12"/>
+      <c r="N154" s="19"/>
+    </row>
+    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A155" s="18"/>
+      <c r="B155" s="12"/>
+      <c r="C155" s="12"/>
+      <c r="D155" s="12"/>
+      <c r="E155" s="12"/>
+      <c r="F155" s="12"/>
+      <c r="G155" s="12"/>
+      <c r="H155" s="12"/>
+      <c r="I155" s="12"/>
+      <c r="J155" s="12"/>
+      <c r="K155" s="12"/>
+      <c r="L155" s="12"/>
+      <c r="M155" s="12"/>
+      <c r="N155" s="19"/>
+    </row>
+    <row r="156" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A156" s="18"/>
+      <c r="B156" s="12"/>
+      <c r="C156" s="12"/>
+      <c r="D156" s="12"/>
+      <c r="E156" s="12"/>
+      <c r="F156" s="12"/>
+      <c r="G156" s="12"/>
+      <c r="H156" s="12"/>
+      <c r="I156" s="12"/>
+      <c r="J156" s="12"/>
+      <c r="K156" s="12"/>
+      <c r="L156" s="12"/>
+      <c r="M156" s="12"/>
+      <c r="N156" s="19"/>
+    </row>
+    <row r="157" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A157" s="18"/>
+      <c r="B157" s="12"/>
+      <c r="C157" s="12"/>
+      <c r="D157" s="12"/>
+      <c r="E157" s="12"/>
+      <c r="F157" s="12"/>
+      <c r="G157" s="12"/>
+      <c r="H157" s="12"/>
+      <c r="I157" s="12"/>
+      <c r="J157" s="12"/>
+      <c r="K157" s="12"/>
+      <c r="L157" s="12"/>
+      <c r="M157" s="12"/>
+      <c r="N157" s="19"/>
+    </row>
+    <row r="158" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A158" s="18"/>
+      <c r="B158" s="12"/>
+      <c r="C158" s="12"/>
+      <c r="D158" s="12"/>
+      <c r="E158" s="12"/>
+      <c r="F158" s="12"/>
+      <c r="G158" s="12"/>
+      <c r="H158" s="12"/>
+      <c r="I158" s="12"/>
+      <c r="J158" s="12"/>
+      <c r="K158" s="12"/>
+      <c r="L158" s="12"/>
+      <c r="M158" s="12"/>
+      <c r="N158" s="19"/>
+    </row>
+    <row r="159" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A159" s="18"/>
+      <c r="B159" s="12"/>
+      <c r="C159" s="12"/>
+      <c r="D159" s="12"/>
+      <c r="E159" s="12"/>
+      <c r="F159" s="12"/>
+      <c r="G159" s="12"/>
+      <c r="H159" s="12"/>
+      <c r="I159" s="12"/>
+      <c r="J159" s="12"/>
+      <c r="K159" s="12"/>
+      <c r="L159" s="12"/>
+      <c r="M159" s="12"/>
+      <c r="N159" s="19"/>
+    </row>
+    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A160" s="18"/>
+      <c r="B160" s="12"/>
+      <c r="C160" s="12"/>
+      <c r="D160" s="12"/>
+      <c r="E160" s="12"/>
+      <c r="F160" s="12"/>
+      <c r="G160" s="12"/>
+      <c r="H160" s="12"/>
+      <c r="I160" s="12"/>
+      <c r="J160" s="12"/>
+      <c r="K160" s="12"/>
+      <c r="L160" s="12"/>
+      <c r="M160" s="12"/>
+      <c r="N160" s="19"/>
+    </row>
+    <row r="161" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A161" s="18"/>
+      <c r="B161" s="12"/>
+      <c r="C161" s="12"/>
+      <c r="D161" s="12"/>
+      <c r="E161" s="12"/>
+      <c r="F161" s="12"/>
+      <c r="G161" s="12"/>
+      <c r="H161" s="12"/>
+      <c r="I161" s="12"/>
+      <c r="J161" s="12"/>
+      <c r="K161" s="12"/>
+      <c r="L161" s="12"/>
+      <c r="M161" s="12"/>
+      <c r="N161" s="19"/>
+    </row>
+    <row r="162" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A162" s="18"/>
+      <c r="B162" s="12"/>
+      <c r="C162" s="12"/>
+      <c r="D162" s="12"/>
+      <c r="E162" s="12"/>
+      <c r="F162" s="12"/>
+      <c r="G162" s="12"/>
+      <c r="H162" s="12"/>
+      <c r="I162" s="12"/>
+      <c r="J162" s="12"/>
+      <c r="K162" s="12"/>
+      <c r="L162" s="12"/>
+      <c r="M162" s="12"/>
+      <c r="N162" s="19"/>
+    </row>
+    <row r="163" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A163" s="18"/>
+      <c r="B163" s="12"/>
+      <c r="C163" s="12"/>
+      <c r="D163" s="12"/>
+      <c r="E163" s="12"/>
+      <c r="F163" s="12"/>
+      <c r="G163" s="12"/>
+      <c r="H163" s="12"/>
+      <c r="I163" s="12"/>
+      <c r="J163" s="12"/>
+      <c r="K163" s="12"/>
+      <c r="L163" s="12"/>
+      <c r="M163" s="12"/>
+      <c r="N163" s="19"/>
+    </row>
+    <row r="164" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A164" s="18"/>
+      <c r="B164" s="12"/>
+      <c r="C164" s="12"/>
+      <c r="D164" s="12"/>
+      <c r="E164" s="12"/>
+      <c r="F164" s="12"/>
+      <c r="G164" s="12"/>
+      <c r="H164" s="12"/>
+      <c r="I164" s="12"/>
+      <c r="J164" s="12"/>
+      <c r="K164" s="12"/>
+      <c r="L164" s="12"/>
+      <c r="M164" s="12"/>
+      <c r="N164" s="19"/>
+    </row>
+    <row r="165" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A165" s="21"/>
+      <c r="B165" s="22"/>
+      <c r="C165" s="22"/>
+      <c r="D165" s="22"/>
+      <c r="E165" s="22"/>
+      <c r="F165" s="22"/>
+      <c r="G165" s="22"/>
+      <c r="H165" s="22"/>
+      <c r="I165" s="22"/>
+      <c r="J165" s="22"/>
+      <c r="K165" s="22"/>
+      <c r="L165" s="22"/>
+      <c r="M165" s="22"/>
+      <c r="N165" s="23"/>
+    </row>
+    <row r="168" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="169" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A169" s="15"/>
+      <c r="B169" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="C169" s="16"/>
+      <c r="D169" s="16"/>
+      <c r="E169" s="16"/>
+      <c r="F169" s="16"/>
+      <c r="G169" s="16"/>
+      <c r="H169" s="16"/>
+      <c r="I169" s="16"/>
+      <c r="J169" s="16"/>
+      <c r="K169" s="16"/>
+      <c r="L169" s="16"/>
+      <c r="M169" s="16"/>
+      <c r="N169" s="16"/>
+      <c r="O169" s="16"/>
+      <c r="P169" s="16"/>
+      <c r="Q169" s="16"/>
+      <c r="R169" s="16"/>
+      <c r="S169" s="17"/>
+    </row>
+    <row r="170" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A170" s="18"/>
+      <c r="B170" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="C170" s="12"/>
+      <c r="D170" s="12"/>
+      <c r="E170" s="12"/>
+      <c r="F170" s="12"/>
+      <c r="G170" s="12"/>
+      <c r="H170" s="12"/>
+      <c r="I170" s="12"/>
+      <c r="J170" s="12"/>
+      <c r="K170" s="12"/>
+      <c r="L170" s="12"/>
+      <c r="M170" s="12"/>
+      <c r="N170" s="12"/>
+      <c r="O170" s="12"/>
+      <c r="P170" s="12"/>
+      <c r="Q170" s="12"/>
+      <c r="R170" s="12"/>
+      <c r="S170" s="19"/>
+    </row>
+    <row r="171" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A171" s="18"/>
+      <c r="B171" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="C171" s="12"/>
+      <c r="D171" s="12"/>
+      <c r="E171" s="12"/>
+      <c r="F171" s="12"/>
+      <c r="G171" s="12"/>
+      <c r="H171" s="12"/>
+      <c r="I171" s="12"/>
+      <c r="J171" s="12"/>
+      <c r="K171" s="12"/>
+      <c r="L171" s="12"/>
+      <c r="M171" s="12"/>
+      <c r="N171" s="12"/>
+      <c r="O171" s="12"/>
+      <c r="P171" s="12"/>
+      <c r="Q171" s="12"/>
+      <c r="R171" s="12"/>
+      <c r="S171" s="19"/>
+    </row>
+    <row r="172" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A172" s="18"/>
+      <c r="B172" s="12"/>
+      <c r="C172" s="12"/>
+      <c r="D172" s="12"/>
+      <c r="E172" s="12"/>
+      <c r="F172" s="12"/>
+      <c r="G172" s="12"/>
+      <c r="H172" s="12"/>
+      <c r="I172" s="12"/>
+      <c r="J172" s="12"/>
+      <c r="K172" s="12"/>
+      <c r="L172" s="12"/>
+      <c r="M172" s="12"/>
+      <c r="N172" s="12"/>
+      <c r="O172" s="12"/>
+      <c r="P172" s="12"/>
+      <c r="Q172" s="12"/>
+      <c r="R172" s="12"/>
+      <c r="S172" s="19"/>
+    </row>
+    <row r="173" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A173" s="18"/>
+      <c r="B173" s="12"/>
+      <c r="C173" s="12"/>
+      <c r="D173" s="12"/>
+      <c r="E173" s="12"/>
+      <c r="F173" s="12"/>
+      <c r="G173" s="12"/>
+      <c r="H173" s="12"/>
+      <c r="I173" s="12"/>
+      <c r="J173" s="12"/>
+      <c r="K173" s="12"/>
+      <c r="L173" s="12"/>
+      <c r="M173" s="12"/>
+      <c r="N173" s="12"/>
+      <c r="O173" s="12"/>
+      <c r="P173" s="12"/>
+      <c r="Q173" s="12"/>
+      <c r="R173" s="12"/>
+      <c r="S173" s="19"/>
+    </row>
+    <row r="174" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A174" s="18"/>
+      <c r="B174" s="12"/>
+      <c r="C174" s="12"/>
+      <c r="D174" s="12"/>
+      <c r="E174" s="12"/>
+      <c r="F174" s="12"/>
+      <c r="G174" s="12"/>
+      <c r="H174" s="12"/>
+      <c r="I174" s="12"/>
+      <c r="J174" s="12"/>
+      <c r="K174" s="12"/>
+      <c r="L174" s="12"/>
+      <c r="M174" s="12"/>
+      <c r="N174" s="12"/>
+      <c r="O174" s="12"/>
+      <c r="P174" s="12"/>
+      <c r="Q174" s="12"/>
+      <c r="R174" s="12"/>
+      <c r="S174" s="19"/>
+    </row>
+    <row r="175" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A175" s="18"/>
+      <c r="B175" s="12"/>
+      <c r="C175" s="12"/>
+      <c r="D175" s="12"/>
+      <c r="E175" s="12"/>
+      <c r="F175" s="12"/>
+      <c r="G175" s="12"/>
+      <c r="H175" s="12"/>
+      <c r="I175" s="12"/>
+      <c r="J175" s="12"/>
+      <c r="K175" s="12"/>
+      <c r="L175" s="12"/>
+      <c r="M175" s="12"/>
+      <c r="N175" s="12"/>
+      <c r="O175" s="12"/>
+      <c r="P175" s="12"/>
+      <c r="Q175" s="12"/>
+      <c r="R175" s="12"/>
+      <c r="S175" s="19"/>
+    </row>
+    <row r="176" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A176" s="18"/>
+      <c r="B176" s="12"/>
+      <c r="C176" s="12"/>
+      <c r="D176" s="12"/>
+      <c r="E176" s="12"/>
+      <c r="F176" s="12"/>
+      <c r="G176" s="12"/>
+      <c r="H176" s="12"/>
+      <c r="I176" s="12"/>
+      <c r="J176" s="12"/>
+      <c r="K176" s="12"/>
+      <c r="L176" s="12"/>
+      <c r="M176" s="12"/>
+      <c r="N176" s="12"/>
+      <c r="O176" s="12"/>
+      <c r="P176" s="12"/>
+      <c r="Q176" s="12"/>
+      <c r="R176" s="12"/>
+      <c r="S176" s="19"/>
+    </row>
+    <row r="177" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A177" s="18"/>
+      <c r="B177" s="12"/>
+      <c r="C177" s="12"/>
+      <c r="D177" s="12"/>
+      <c r="E177" s="12"/>
+      <c r="F177" s="12"/>
+      <c r="G177" s="12"/>
+      <c r="H177" s="12"/>
+      <c r="I177" s="12"/>
+      <c r="J177" s="12"/>
+      <c r="K177" s="12"/>
+      <c r="L177" s="12"/>
+      <c r="M177" s="12"/>
+      <c r="N177" s="12"/>
+      <c r="O177" s="12"/>
+      <c r="P177" s="12"/>
+      <c r="Q177" s="12"/>
+      <c r="R177" s="12"/>
+      <c r="S177" s="19"/>
+    </row>
+    <row r="178" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A178" s="18"/>
+      <c r="B178" s="12"/>
+      <c r="C178" s="12"/>
+      <c r="D178" s="12"/>
+      <c r="E178" s="12"/>
+      <c r="F178" s="12"/>
+      <c r="G178" s="12"/>
+      <c r="H178" s="12"/>
+      <c r="I178" s="12"/>
+      <c r="J178" s="12"/>
+      <c r="K178" s="12"/>
+      <c r="L178" s="12"/>
+      <c r="M178" s="12"/>
+      <c r="N178" s="12"/>
+      <c r="O178" s="12"/>
+      <c r="P178" s="12"/>
+      <c r="Q178" s="12"/>
+      <c r="R178" s="12"/>
+      <c r="S178" s="19"/>
+    </row>
+    <row r="179" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A179" s="18"/>
+      <c r="B179" s="12"/>
+      <c r="C179" s="12"/>
+      <c r="D179" s="12"/>
+      <c r="E179" s="12"/>
+      <c r="F179" s="12"/>
+      <c r="G179" s="12"/>
+      <c r="H179" s="12"/>
+      <c r="I179" s="12"/>
+      <c r="J179" s="12"/>
+      <c r="K179" s="12"/>
+      <c r="L179" s="12"/>
+      <c r="M179" s="12"/>
+      <c r="N179" s="12"/>
+      <c r="O179" s="12"/>
+      <c r="P179" s="12"/>
+      <c r="Q179" s="12"/>
+      <c r="R179" s="12"/>
+      <c r="S179" s="19"/>
+    </row>
+    <row r="180" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A180" s="18"/>
+      <c r="B180" s="12"/>
+      <c r="C180" s="12"/>
+      <c r="D180" s="12"/>
+      <c r="E180" s="12"/>
+      <c r="F180" s="12"/>
+      <c r="G180" s="12"/>
+      <c r="H180" s="12"/>
+      <c r="I180" s="12"/>
+      <c r="J180" s="12"/>
+      <c r="K180" s="12"/>
+      <c r="L180" s="12"/>
+      <c r="M180" s="12"/>
+      <c r="N180" s="12"/>
+      <c r="O180" s="12"/>
+      <c r="P180" s="12"/>
+      <c r="Q180" s="12"/>
+      <c r="R180" s="12"/>
+      <c r="S180" s="19"/>
+    </row>
+    <row r="181" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A181" s="18"/>
+      <c r="B181" s="12"/>
+      <c r="C181" s="12"/>
+      <c r="D181" s="12"/>
+      <c r="E181" s="12"/>
+      <c r="F181" s="12"/>
+      <c r="G181" s="12"/>
+      <c r="H181" s="12"/>
+      <c r="I181" s="12"/>
+      <c r="J181" s="12"/>
+      <c r="K181" s="12"/>
+      <c r="L181" s="12"/>
+      <c r="M181" s="12"/>
+      <c r="N181" s="12"/>
+      <c r="O181" s="12"/>
+      <c r="P181" s="12"/>
+      <c r="Q181" s="12"/>
+      <c r="R181" s="12"/>
+      <c r="S181" s="19"/>
+    </row>
+    <row r="182" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A182" s="18"/>
+      <c r="B182" s="12"/>
+      <c r="C182" s="12"/>
+      <c r="D182" s="12"/>
+      <c r="E182" s="12"/>
+      <c r="F182" s="12"/>
+      <c r="G182" s="12"/>
+      <c r="H182" s="12"/>
+      <c r="I182" s="12"/>
+      <c r="J182" s="12"/>
+      <c r="K182" s="12"/>
+      <c r="L182" s="12"/>
+      <c r="M182" s="12"/>
+      <c r="N182" s="12"/>
+      <c r="O182" s="12"/>
+      <c r="P182" s="12"/>
+      <c r="Q182" s="12"/>
+      <c r="R182" s="12"/>
+      <c r="S182" s="19"/>
+    </row>
+    <row r="183" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A183" s="18"/>
+      <c r="B183" s="12"/>
+      <c r="C183" s="12"/>
+      <c r="D183" s="12"/>
+      <c r="E183" s="12"/>
+      <c r="F183" s="12"/>
+      <c r="G183" s="12"/>
+      <c r="H183" s="12"/>
+      <c r="I183" s="12"/>
+      <c r="J183" s="12"/>
+      <c r="K183" s="12"/>
+      <c r="L183" s="12"/>
+      <c r="M183" s="12"/>
+      <c r="N183" s="12"/>
+      <c r="O183" s="12"/>
+      <c r="P183" s="12"/>
+      <c r="Q183" s="12"/>
+      <c r="R183" s="12"/>
+      <c r="S183" s="19"/>
+    </row>
+    <row r="184" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A184" s="18"/>
+      <c r="B184" s="12"/>
+      <c r="C184" s="12"/>
+      <c r="D184" s="12"/>
+      <c r="E184" s="12"/>
+      <c r="F184" s="12"/>
+      <c r="G184" s="12"/>
+      <c r="H184" s="12"/>
+      <c r="I184" s="12"/>
+      <c r="J184" s="12"/>
+      <c r="K184" s="12"/>
+      <c r="L184" s="12"/>
+      <c r="M184" s="12"/>
+      <c r="N184" s="12"/>
+      <c r="O184" s="12"/>
+      <c r="P184" s="12"/>
+      <c r="Q184" s="12"/>
+      <c r="R184" s="12"/>
+      <c r="S184" s="19"/>
+    </row>
+    <row r="185" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A185" s="18"/>
+      <c r="B185" s="12"/>
+      <c r="C185" s="12"/>
+      <c r="D185" s="12"/>
+      <c r="E185" s="12"/>
+      <c r="F185" s="12"/>
+      <c r="G185" s="12"/>
+      <c r="H185" s="12"/>
+      <c r="I185" s="12"/>
+      <c r="J185" s="12"/>
+      <c r="K185" s="12"/>
+      <c r="L185" s="12"/>
+      <c r="M185" s="12"/>
+      <c r="N185" s="12"/>
+      <c r="O185" s="12"/>
+      <c r="P185" s="12"/>
+      <c r="Q185" s="12"/>
+      <c r="R185" s="12"/>
+      <c r="S185" s="19"/>
+    </row>
+    <row r="186" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A186" s="18"/>
+      <c r="B186" s="12"/>
+      <c r="C186" s="12"/>
+      <c r="D186" s="12"/>
+      <c r="E186" s="12"/>
+      <c r="F186" s="12"/>
+      <c r="G186" s="12"/>
+      <c r="H186" s="12"/>
+      <c r="I186" s="12"/>
+      <c r="J186" s="12"/>
+      <c r="K186" s="12"/>
+      <c r="L186" s="12"/>
+      <c r="M186" s="12"/>
+      <c r="N186" s="12"/>
+      <c r="O186" s="12"/>
+      <c r="P186" s="12"/>
+      <c r="Q186" s="12"/>
+      <c r="R186" s="12"/>
+      <c r="S186" s="19"/>
+    </row>
+    <row r="187" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A187" s="18"/>
+      <c r="B187" s="12"/>
+      <c r="C187" s="12"/>
+      <c r="D187" s="12"/>
+      <c r="E187" s="12"/>
+      <c r="F187" s="12"/>
+      <c r="G187" s="12"/>
+      <c r="H187" s="12"/>
+      <c r="I187" s="12"/>
+      <c r="J187" s="12"/>
+      <c r="K187" s="12"/>
+      <c r="L187" s="12"/>
+      <c r="M187" s="12"/>
+      <c r="N187" s="12"/>
+      <c r="O187" s="12"/>
+      <c r="P187" s="12"/>
+      <c r="Q187" s="12"/>
+      <c r="R187" s="12"/>
+      <c r="S187" s="19"/>
+    </row>
+    <row r="188" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A188" s="18"/>
+      <c r="B188" s="12"/>
+      <c r="C188" s="12"/>
+      <c r="D188" s="12"/>
+      <c r="E188" s="12"/>
+      <c r="F188" s="12"/>
+      <c r="G188" s="12"/>
+      <c r="H188" s="12"/>
+      <c r="I188" s="12"/>
+      <c r="J188" s="12"/>
+      <c r="K188" s="12"/>
+      <c r="L188" s="12"/>
+      <c r="M188" s="12"/>
+      <c r="N188" s="12"/>
+      <c r="O188" s="12"/>
+      <c r="P188" s="12"/>
+      <c r="Q188" s="12"/>
+      <c r="R188" s="12"/>
+      <c r="S188" s="19"/>
+    </row>
+    <row r="189" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A189" s="18"/>
+      <c r="B189" s="12"/>
+      <c r="C189" s="12"/>
+      <c r="D189" s="12"/>
+      <c r="E189" s="12"/>
+      <c r="F189" s="12"/>
+      <c r="G189" s="12"/>
+      <c r="H189" s="12"/>
+      <c r="I189" s="12"/>
+      <c r="J189" s="12"/>
+      <c r="K189" s="12"/>
+      <c r="L189" s="12"/>
+      <c r="M189" s="12"/>
+      <c r="N189" s="12"/>
+      <c r="O189" s="12"/>
+      <c r="P189" s="12"/>
+      <c r="Q189" s="12"/>
+      <c r="R189" s="12"/>
+      <c r="S189" s="19"/>
+    </row>
+    <row r="190" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A190" s="18"/>
+      <c r="B190" s="12"/>
+      <c r="C190" s="12"/>
+      <c r="D190" s="12"/>
+      <c r="E190" s="12"/>
+      <c r="F190" s="12"/>
+      <c r="G190" s="12"/>
+      <c r="H190" s="12"/>
+      <c r="I190" s="12"/>
+      <c r="J190" s="12"/>
+      <c r="K190" s="12"/>
+      <c r="L190" s="12"/>
+      <c r="M190" s="12"/>
+      <c r="N190" s="12"/>
+      <c r="O190" s="12"/>
+      <c r="P190" s="12"/>
+      <c r="Q190" s="12"/>
+      <c r="R190" s="12"/>
+      <c r="S190" s="19"/>
+    </row>
+    <row r="191" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A191" s="18"/>
+      <c r="B191" s="12"/>
+      <c r="C191" s="12"/>
+      <c r="D191" s="12"/>
+      <c r="E191" s="12"/>
+      <c r="F191" s="12"/>
+      <c r="G191" s="12"/>
+      <c r="H191" s="12"/>
+      <c r="I191" s="12"/>
+      <c r="J191" s="12"/>
+      <c r="K191" s="12"/>
+      <c r="L191" s="12"/>
+      <c r="M191" s="12"/>
+      <c r="N191" s="12"/>
+      <c r="O191" s="12"/>
+      <c r="P191" s="12"/>
+      <c r="Q191" s="12"/>
+      <c r="R191" s="12"/>
+      <c r="S191" s="19"/>
+    </row>
+    <row r="192" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A192" s="18"/>
+      <c r="B192" s="12"/>
+      <c r="C192" s="12"/>
+      <c r="D192" s="12"/>
+      <c r="E192" s="12"/>
+      <c r="F192" s="12"/>
+      <c r="G192" s="12"/>
+      <c r="H192" s="12"/>
+      <c r="I192" s="12"/>
+      <c r="J192" s="12"/>
+      <c r="K192" s="12"/>
+      <c r="L192" s="12"/>
+      <c r="M192" s="12"/>
+      <c r="N192" s="12"/>
+      <c r="O192" s="12"/>
+      <c r="P192" s="12"/>
+      <c r="Q192" s="12"/>
+      <c r="R192" s="12"/>
+      <c r="S192" s="19"/>
+    </row>
+    <row r="193" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A193" s="18"/>
+      <c r="B193" s="12"/>
+      <c r="C193" s="12"/>
+      <c r="D193" s="12"/>
+      <c r="E193" s="12"/>
+      <c r="F193" s="12"/>
+      <c r="G193" s="12"/>
+      <c r="H193" s="12"/>
+      <c r="I193" s="12"/>
+      <c r="J193" s="12"/>
+      <c r="K193" s="12"/>
+      <c r="L193" s="12"/>
+      <c r="M193" s="12"/>
+      <c r="N193" s="12"/>
+      <c r="O193" s="12"/>
+      <c r="P193" s="12"/>
+      <c r="Q193" s="12"/>
+      <c r="R193" s="12"/>
+      <c r="S193" s="19"/>
+    </row>
+    <row r="194" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A194" s="18"/>
+      <c r="B194" s="12"/>
+      <c r="C194" s="12"/>
+      <c r="D194" s="12"/>
+      <c r="E194" s="12"/>
+      <c r="F194" s="12"/>
+      <c r="G194" s="12"/>
+      <c r="H194" s="12"/>
+      <c r="I194" s="12"/>
+      <c r="J194" s="12"/>
+      <c r="K194" s="12"/>
+      <c r="L194" s="12"/>
+      <c r="M194" s="12"/>
+      <c r="N194" s="12"/>
+      <c r="O194" s="12"/>
+      <c r="P194" s="12"/>
+      <c r="Q194" s="12"/>
+      <c r="R194" s="12"/>
+      <c r="S194" s="19"/>
+    </row>
+    <row r="195" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A195" s="18"/>
+      <c r="B195" s="12"/>
+      <c r="C195" s="12"/>
+      <c r="D195" s="12"/>
+      <c r="E195" s="12"/>
+      <c r="F195" s="12"/>
+      <c r="G195" s="12"/>
+      <c r="H195" s="12"/>
+      <c r="I195" s="12"/>
+      <c r="J195" s="12"/>
+      <c r="K195" s="12"/>
+      <c r="L195" s="12"/>
+      <c r="M195" s="12"/>
+      <c r="N195" s="12"/>
+      <c r="O195" s="12"/>
+      <c r="P195" s="12"/>
+      <c r="Q195" s="12"/>
+      <c r="R195" s="12"/>
+      <c r="S195" s="19"/>
+    </row>
+    <row r="196" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A196" s="18"/>
+      <c r="B196" s="12"/>
+      <c r="C196" s="12"/>
+      <c r="D196" s="12"/>
+      <c r="E196" s="12"/>
+      <c r="F196" s="12"/>
+      <c r="G196" s="12"/>
+      <c r="H196" s="12"/>
+      <c r="I196" s="12"/>
+      <c r="J196" s="12"/>
+      <c r="K196" s="12"/>
+      <c r="L196" s="12"/>
+      <c r="M196" s="12"/>
+      <c r="N196" s="12"/>
+      <c r="O196" s="12"/>
+      <c r="P196" s="12"/>
+      <c r="Q196" s="12"/>
+      <c r="R196" s="12"/>
+      <c r="S196" s="19"/>
+    </row>
+    <row r="197" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A197" s="18"/>
+      <c r="B197" s="12"/>
+      <c r="C197" s="12"/>
+      <c r="D197" s="12"/>
+      <c r="E197" s="12"/>
+      <c r="F197" s="12"/>
+      <c r="G197" s="12"/>
+      <c r="H197" s="12"/>
+      <c r="I197" s="12"/>
+      <c r="J197" s="12"/>
+      <c r="K197" s="12"/>
+      <c r="L197" s="12"/>
+      <c r="M197" s="12"/>
+      <c r="N197" s="12"/>
+      <c r="O197" s="12"/>
+      <c r="P197" s="12"/>
+      <c r="Q197" s="12"/>
+      <c r="R197" s="12"/>
+      <c r="S197" s="19"/>
+    </row>
+    <row r="198" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A198" s="18"/>
+      <c r="B198" s="12"/>
+      <c r="C198" s="12"/>
+      <c r="D198" s="12"/>
+      <c r="E198" s="12"/>
+      <c r="F198" s="12"/>
+      <c r="G198" s="12"/>
+      <c r="H198" s="12"/>
+      <c r="I198" s="12"/>
+      <c r="J198" s="12"/>
+      <c r="K198" s="12"/>
+      <c r="L198" s="12"/>
+      <c r="M198" s="12"/>
+      <c r="N198" s="12"/>
+      <c r="O198" s="12"/>
+      <c r="P198" s="12"/>
+      <c r="Q198" s="12"/>
+      <c r="R198" s="12"/>
+      <c r="S198" s="19"/>
+    </row>
+    <row r="199" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A199" s="18"/>
+      <c r="B199" s="12"/>
+      <c r="C199" s="12"/>
+      <c r="D199" s="12"/>
+      <c r="E199" s="12"/>
+      <c r="F199" s="12"/>
+      <c r="G199" s="12"/>
+      <c r="H199" s="12"/>
+      <c r="I199" s="12"/>
+      <c r="J199" s="12"/>
+      <c r="K199" s="12"/>
+      <c r="L199" s="12"/>
+      <c r="M199" s="12"/>
+      <c r="N199" s="12"/>
+      <c r="O199" s="12"/>
+      <c r="P199" s="12"/>
+      <c r="Q199" s="12"/>
+      <c r="R199" s="12"/>
+      <c r="S199" s="19"/>
+    </row>
+    <row r="200" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A200" s="18"/>
+      <c r="B200" s="12"/>
+      <c r="C200" s="12"/>
+      <c r="D200" s="12"/>
+      <c r="E200" s="12"/>
+      <c r="F200" s="12"/>
+      <c r="G200" s="12"/>
+      <c r="H200" s="12"/>
+      <c r="I200" s="12"/>
+      <c r="J200" s="12"/>
+      <c r="K200" s="12"/>
+      <c r="L200" s="12"/>
+      <c r="M200" s="12"/>
+      <c r="N200" s="12"/>
+      <c r="O200" s="12"/>
+      <c r="P200" s="12"/>
+      <c r="Q200" s="12"/>
+      <c r="R200" s="12"/>
+      <c r="S200" s="19"/>
+    </row>
+    <row r="201" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A201" s="18"/>
+      <c r="B201" s="12"/>
+      <c r="C201" s="12"/>
+      <c r="D201" s="12"/>
+      <c r="E201" s="12"/>
+      <c r="F201" s="12"/>
+      <c r="G201" s="12"/>
+      <c r="H201" s="12"/>
+      <c r="I201" s="12"/>
+      <c r="J201" s="12"/>
+      <c r="K201" s="12"/>
+      <c r="L201" s="12"/>
+      <c r="M201" s="12"/>
+      <c r="N201" s="12"/>
+      <c r="O201" s="12"/>
+      <c r="P201" s="12"/>
+      <c r="Q201" s="12"/>
+      <c r="R201" s="12"/>
+      <c r="S201" s="19"/>
+    </row>
+    <row r="202" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A202" s="18"/>
+      <c r="B202" s="12"/>
+      <c r="C202" s="12"/>
+      <c r="D202" s="12"/>
+      <c r="E202" s="12"/>
+      <c r="F202" s="12"/>
+      <c r="G202" s="12"/>
+      <c r="H202" s="12"/>
+      <c r="I202" s="12"/>
+      <c r="J202" s="12"/>
+      <c r="K202" s="12"/>
+      <c r="L202" s="12"/>
+      <c r="M202" s="12"/>
+      <c r="N202" s="12"/>
+      <c r="O202" s="12"/>
+      <c r="P202" s="12"/>
+      <c r="Q202" s="12"/>
+      <c r="R202" s="12"/>
+      <c r="S202" s="19"/>
+    </row>
+    <row r="203" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A203" s="18"/>
+      <c r="B203" s="12"/>
+      <c r="C203" s="12"/>
+      <c r="D203" s="12"/>
+      <c r="E203" s="12"/>
+      <c r="F203" s="12"/>
+      <c r="G203" s="12"/>
+      <c r="H203" s="12"/>
+      <c r="I203" s="12"/>
+      <c r="J203" s="12"/>
+      <c r="K203" s="12"/>
+      <c r="L203" s="12"/>
+      <c r="M203" s="12"/>
+      <c r="N203" s="12"/>
+      <c r="O203" s="12"/>
+      <c r="P203" s="12"/>
+      <c r="Q203" s="12"/>
+      <c r="R203" s="12"/>
+      <c r="S203" s="19"/>
+    </row>
+    <row r="204" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A204" s="21"/>
+      <c r="B204" s="22"/>
+      <c r="C204" s="22"/>
+      <c r="D204" s="22"/>
+      <c r="E204" s="22"/>
+      <c r="F204" s="22"/>
+      <c r="G204" s="22"/>
+      <c r="H204" s="22"/>
+      <c r="I204" s="22"/>
+      <c r="J204" s="22"/>
+      <c r="K204" s="22"/>
+      <c r="L204" s="22"/>
+      <c r="M204" s="22"/>
+      <c r="N204" s="22"/>
+      <c r="O204" s="22"/>
+      <c r="P204" s="22"/>
+      <c r="Q204" s="22"/>
+      <c r="R204" s="22"/>
+      <c r="S204" s="23"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/me/3.Flex-Items.xlsx
+++ b/me/3.Flex-Items.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\flexbox\me\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF7E621B-8E1C-4FA0-B878-EFA2F650BC7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C404793-DA9F-48A7-9AC6-0B8481FC7C29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Order" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="144">
   <si>
     <t>構成</t>
   </si>
@@ -449,6 +449,21 @@
   <si>
     <t>để có thể chạy tốt trên các loại trình duyệt khác nhau</t>
   </si>
+  <si>
+    <t>flex: 1;</t>
+  </si>
+  <si>
+    <t>=</t>
+  </si>
+  <si>
+    <t>flex-grow: 1;</t>
+  </si>
+  <si>
+    <t>flex-shrink: 1;</t>
+  </si>
+  <si>
+    <t>flex-basis: 0%;</t>
+  </si>
 </sst>
 </file>
 
@@ -478,7 +493,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -672,11 +687,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -704,6 +734,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5550,8 +5584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17FBB2D9-C532-4D48-94F3-751676684EB1}">
   <dimension ref="A2:AQ100"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:H12"/>
+    <sheetView topLeftCell="A67" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8844,8 +8878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF4F6427-B0A5-4E3E-BE91-72AE0B6BAAAB}">
   <dimension ref="A2:AB74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12:H15"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12243,10 +12277,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35398C15-9E46-4CAE-91A2-52894BCEE30C}">
-  <dimension ref="A2:I49"/>
+  <dimension ref="A2:N49"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="P30" sqref="P30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12357,12 +12391,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>14</v>
       </c>
@@ -12374,7 +12408,7 @@
       <c r="H20" s="2"/>
       <c r="I20" s="3"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
         <v>15</v>
       </c>
@@ -12386,7 +12420,7 @@
       <c r="H21" s="12"/>
       <c r="I21" s="5"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B22" s="4" t="s">
         <v>16</v>
       </c>
@@ -12398,7 +12432,7 @@
       <c r="H22" s="12"/>
       <c r="I22" s="5"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B23" s="4" t="s">
         <v>17</v>
       </c>
@@ -12410,7 +12444,7 @@
       <c r="H23" s="12"/>
       <c r="I23" s="5"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B24" s="4" t="s">
         <v>18</v>
       </c>
@@ -12422,7 +12456,7 @@
       <c r="H24" s="12"/>
       <c r="I24" s="5"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B25" s="4" t="s">
         <v>19</v>
       </c>
@@ -12434,7 +12468,7 @@
       <c r="H25" s="12"/>
       <c r="I25" s="5"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B26" s="4" t="s">
         <v>20</v>
       </c>
@@ -12446,7 +12480,7 @@
       <c r="H26" s="12"/>
       <c r="I26" s="5"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B27" s="4"/>
       <c r="C27" s="12"/>
       <c r="D27" s="12"/>
@@ -12456,7 +12490,7 @@
       <c r="H27" s="12"/>
       <c r="I27" s="5"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B28" s="4" t="s">
         <v>21</v>
       </c>
@@ -12468,7 +12502,7 @@
       <c r="H28" s="12"/>
       <c r="I28" s="5"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B29" s="4" t="s">
         <v>106</v>
       </c>
@@ -12479,8 +12513,12 @@
       <c r="G29" s="12"/>
       <c r="H29" s="12"/>
       <c r="I29" s="5"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M29" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B30" s="4" t="s">
         <v>107</v>
       </c>
@@ -12491,8 +12529,18 @@
       <c r="G30" s="12"/>
       <c r="H30" s="12"/>
       <c r="I30" s="5"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K30" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="L30" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="M30" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="N30" s="5"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B31" s="4" t="s">
         <v>24</v>
       </c>
@@ -12503,8 +12551,12 @@
       <c r="G31" s="12"/>
       <c r="H31" s="12"/>
       <c r="I31" s="5"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M31" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="N31" s="10"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B32" s="4" t="s">
         <v>25</v>
       </c>
@@ -13300,7 +13352,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85928DBC-4ECC-4CEC-9824-B3873ACD1D62}">
   <dimension ref="A3:U204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
+    <sheetView topLeftCell="A157" workbookViewId="0">
       <selection activeCell="Q165" sqref="Q165"/>
     </sheetView>
   </sheetViews>
